--- a/input/2021_pitcher_BR_link_database.xlsx
+++ b/input/2021_pitcher_BR_link_database.xlsx
@@ -186,9 +186,6 @@
     <t>Matt Shoemaker</t>
   </si>
   <si>
-    <t>Hyun Jin Ryu</t>
-  </si>
-  <si>
     <t>Nate Pearson</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Dakota Hudson</t>
   </si>
   <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
@@ -898,6 +892,12 @@
   </si>
   <si>
     <t>zeuchtj01</t>
+  </si>
+  <si>
+    <t>Matt Boyd</t>
+  </si>
+  <si>
+    <t>Hyun-Jin Ryu</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F265" sqref="F265"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1310,7 +1310,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>ma</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1464,7 +1464,7 @@
         <v>jo</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="3"/>
@@ -1800,7 +1800,7 @@
         <v>ca</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="3"/>
@@ -2112,7 +2112,7 @@
         <v>fr</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="3"/>
@@ -2184,7 +2184,7 @@
         <v>jo</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="3"/>
@@ -2328,7 +2328,7 @@
         <v>ch</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="3"/>
@@ -2481,15 +2481,15 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>j</v>
+        <v>r</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
-        <v>jin r</v>
+        <v>ryu</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
@@ -2499,12 +2499,12 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="4">LOWER(LEFT(MID(A67,FIND(" ",A67)+1,256),1))</f>
@@ -2903,7 +2903,7 @@
         <v>lu</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="7">C67&amp;D67&amp;E67</f>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="4"/>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="4"/>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="4"/>
@@ -2978,12 +2978,12 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="4"/>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="4"/>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="4"/>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="4"/>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="4"/>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="4"/>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="4"/>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="4"/>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="4"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="4"/>
@@ -3214,7 +3214,7 @@
         <v>ma</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="7"/>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="4"/>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="4"/>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="4"/>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="4"/>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="4"/>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="4"/>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="4"/>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="4"/>
@@ -3622,7 +3622,7 @@
         <v>ro</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="7"/>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="4"/>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="4"/>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="4"/>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="4"/>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="4"/>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="4"/>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="4"/>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="4"/>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="4"/>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="4"/>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="4"/>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="4"/>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="4"/>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="4"/>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="4"/>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="4"/>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="4"/>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="4"/>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="4"/>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="4"/>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="4"/>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="4"/>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="4"/>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="4"/>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="4"/>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="4"/>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="4"/>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="4"/>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="4"/>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="4"/>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="4"/>
@@ -4369,12 +4369,12 @@
         <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="4"/>
@@ -4389,7 +4389,7 @@
         <v>br</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="7"/>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="4"/>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" ref="B131:B193" si="8">LOWER(LEFT(MID(A131,FIND(" ",A131)+1,256),1))</f>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="8"/>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="8"/>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="8"/>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="8"/>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="8"/>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="8"/>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="8"/>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="8"/>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="8"/>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="8"/>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="8"/>
@@ -4701,7 +4701,7 @@
         <v>al</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="11"/>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="8"/>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="8"/>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="8"/>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="8"/>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="8"/>
@@ -4824,12 +4824,12 @@
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="8"/>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="8"/>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="8"/>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="8"/>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="8"/>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="8"/>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="8"/>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="8"/>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="8"/>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="8"/>
@@ -5060,7 +5060,7 @@
         <v>za</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="11"/>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="8"/>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="8"/>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="8"/>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="8"/>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="8"/>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="8"/>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="8"/>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="8"/>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="8"/>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="8"/>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="8"/>
@@ -5324,7 +5324,7 @@
         <v>al</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="11"/>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="8"/>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="8"/>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="8"/>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="8"/>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="8"/>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="8"/>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="8"/>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="8"/>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="8"/>
@@ -5540,7 +5540,7 @@
         <v>pa</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="11"/>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="8"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="8"/>
@@ -5588,7 +5588,7 @@
         <v>jo</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="11"/>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="8"/>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="8"/>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="8"/>
@@ -5669,7 +5669,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="8"/>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="8"/>
@@ -5708,7 +5708,7 @@
         <v>ca</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="11"/>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="8"/>
@@ -5732,7 +5732,7 @@
         <v>jo</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="11"/>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="8"/>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="8"/>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="8"/>
@@ -5804,7 +5804,7 @@
         <v>lu</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="11"/>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="8"/>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="8"/>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="8"/>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="8"/>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="8"/>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" ref="B194:B257" si="12">LOWER(LEFT(MID(A194,FIND(" ",A194)+1,256),1))</f>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="12"/>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="12"/>
@@ -6005,7 +6005,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="12"/>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="12"/>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="12"/>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="12"/>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="12"/>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="12"/>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="12"/>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="12"/>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="12"/>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="12"/>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="12"/>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="12"/>
@@ -6284,7 +6284,7 @@
         <v>ry</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="15"/>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="12"/>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="12"/>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="12"/>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="12"/>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="12"/>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="12"/>
@@ -6428,7 +6428,7 @@
         <v>jo</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="15"/>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="12"/>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="12"/>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="12"/>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="12"/>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="12"/>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="12"/>
@@ -6599,12 +6599,12 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="12"/>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="12"/>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="12"/>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="12"/>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="12"/>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="12"/>
@@ -6742,12 +6742,12 @@
         <v>5</v>
       </c>
       <c r="F227" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="12"/>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="12"/>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="12"/>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="12"/>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="12"/>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="12"/>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="12"/>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="12"/>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="12"/>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="12"/>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="12"/>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="12"/>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="12"/>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="12"/>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="12"/>
@@ -7101,12 +7101,12 @@
         <v>5</v>
       </c>
       <c r="F242" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="12"/>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="12"/>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="12"/>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="12"/>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="12"/>
@@ -7217,7 +7217,7 @@
         <v>br</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="15"/>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="12"/>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="12"/>
@@ -7268,12 +7268,12 @@
         <v>5</v>
       </c>
       <c r="F249" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="12"/>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="12"/>
@@ -7312,7 +7312,7 @@
         <v>ma</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="15"/>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="12"/>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="12"/>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="12"/>
@@ -7393,7 +7393,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="12"/>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="12"/>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="12"/>
@@ -7456,7 +7456,7 @@
         <v>ro</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="15"/>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" ref="B258:B273" si="16">LOWER(LEFT(MID(A258,FIND(" ",A258)+1,256),1))</f>
@@ -7483,13 +7483,13 @@
         <v>5</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" ref="F258:F273" si="19">C258&amp;D258&amp;E258</f>
+        <f t="shared" ref="F258:F272" si="19">C258&amp;D258&amp;E258</f>
         <v>alexaty01</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="16"/>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" si="16"/>
@@ -7528,7 +7528,7 @@
         <v>ca</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="19"/>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="16"/>
@@ -7552,7 +7552,7 @@
         <v>jo</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="19"/>
@@ -7561,7 +7561,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="16"/>
@@ -7576,7 +7576,7 @@
         <v>vi</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="19"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="16"/>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="16"/>
@@ -7624,7 +7624,7 @@
         <v>ho</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="19"/>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="16"/>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="16"/>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="16"/>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="16"/>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="16"/>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="16"/>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="16"/>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="16"/>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="16"/>
@@ -7843,7 +7843,7 @@
         <v>5</v>
       </c>
       <c r="F273" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/input/2021_pitcher_BR_link_database.xlsx
+++ b/input/2021_pitcher_BR_link_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="297">
   <si>
     <t>Shohei Ohtani</t>
   </si>
@@ -898,6 +898,18 @@
   </si>
   <si>
     <t>Hyun-Jin Ryu</t>
+  </si>
+  <si>
+    <t>Kohei Arihara</t>
+  </si>
+  <si>
+    <t>Lance McCullers</t>
+  </si>
+  <si>
+    <t>Cole Irvin</t>
+  </si>
+  <si>
+    <t>Chris Flexen</t>
   </si>
 </sst>
 </file>
@@ -946,8 +958,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -959,13 +973,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1295,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1354,6495 +1370,6590 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>293</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),1))</f>
-        <v>d</v>
+        <f t="shared" ref="B3:B5" si="0">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),1))</f>
+        <v>a</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),5))</f>
-        <v>dunn</v>
+        <f t="shared" ref="C3:C5" si="1">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),5))</f>
+        <v>ariha</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="2">LOWER(LEFT(A3,2))</f>
-        <v>ju</v>
+        <f t="shared" ref="D3:D5" si="2">LOWER(LEFT(A3,2))</f>
+        <v>ko</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="3">C3&amp;D3&amp;E3</f>
-        <v>dunnju01</v>
+        <f t="shared" ref="F3:F5" si="3">C3&amp;D3&amp;E3</f>
+        <v>arihako01</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>g</v>
+        <v>i</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>gonza</v>
+        <v>irvin</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>ma</v>
+        <v>co</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
-        <v>gonzama02</v>
+        <v>irvinco01</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>m</v>
+        <v>f</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>mccul</v>
+        <v>flexe</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>la</v>
+        <v>ch</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>278</v>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>flexech01</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>g</v>
+        <f t="shared" ref="B6" si="4">LOWER(LEFT(MID(A6,FIND(" ",A6)+1,256),1))</f>
+        <v>m</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>grein</v>
+        <f t="shared" ref="C6" si="5">LOWER(LEFT(MID(A6,FIND(" ",A6)+1,256),5))</f>
+        <v>mccul</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>za</v>
+        <f t="shared" ref="D6" si="6">LOWER(LEFT(A6,2))</f>
+        <v>la</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="3"/>
-        <v>greinza01</v>
+      <c r="F6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>j</v>
+        <f t="shared" ref="B7:B70" si="7">LOWER(LEFT(MID(A7,FIND(" ",A7)+1,256),1))</f>
+        <v>d</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>james</v>
+        <f t="shared" ref="C7:C70" si="8">LOWER(LEFT(MID(A7,FIND(" ",A7)+1,256),5))</f>
+        <v>dunn</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
-        <v>jo</v>
+        <f t="shared" ref="D7:D70" si="9">LOWER(LEFT(A7,2))</f>
+        <v>ju</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="3"/>
-        <v>jamesjo02</v>
+        <f t="shared" ref="F7:F70" si="10">C7&amp;D7&amp;E7</f>
+        <v>dunnju01</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>g</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>manae</v>
+        <f t="shared" si="8"/>
+        <v>gonza</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>se</v>
+        <f t="shared" si="9"/>
+        <v>ma</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="3"/>
-        <v>manaese01</v>
+        <f t="shared" si="10"/>
+        <v>gonzama02</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>fiers</v>
+        <f t="shared" si="8"/>
+        <v>mccul</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>mi</v>
+        <f t="shared" si="9"/>
+        <v>la</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="str">
-        <f t="shared" si="3"/>
-        <v>fiersmi01</v>
+      <c r="F9" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
+        <f t="shared" si="7"/>
+        <v>g</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>bassi</v>
+        <f t="shared" si="8"/>
+        <v>grein</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>ch</v>
+        <f t="shared" si="9"/>
+        <v>za</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="3"/>
-        <v>bassich01</v>
+        <f t="shared" si="10"/>
+        <v>greinza01</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>k</v>
+        <f t="shared" si="7"/>
+        <v>j</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>kersh</v>
+        <f t="shared" si="8"/>
+        <v>james</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
-        <v>cl</v>
+        <f t="shared" si="9"/>
+        <v>jo</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="3"/>
-        <v>kershcl01</v>
+        <f t="shared" si="10"/>
+        <v>jamesjo02</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>buehl</v>
+        <f t="shared" si="8"/>
+        <v>manae</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>wa</v>
+        <f t="shared" si="9"/>
+        <v>se</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="3"/>
-        <v>buehlwa01</v>
+        <f t="shared" si="10"/>
+        <v>manaese01</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>f</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
-        <v>may</v>
+        <f t="shared" si="8"/>
+        <v>fiers</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>du</v>
+        <f t="shared" si="9"/>
+        <v>mi</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="3"/>
-        <v>maydu01</v>
+        <f t="shared" si="10"/>
+        <v>fiersmi01</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>a</v>
+        <f t="shared" si="7"/>
+        <v>b</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>ander</v>
+        <f t="shared" si="8"/>
+        <v>bassi</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>ty</v>
+        <f t="shared" si="9"/>
+        <v>ch</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="3"/>
-        <v>anderty01</v>
+        <f t="shared" si="10"/>
+        <v>bassich01</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>k</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>cahil</v>
+        <f t="shared" si="8"/>
+        <v>kersh</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>tr</v>
+        <f t="shared" si="9"/>
+        <v>cl</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="3"/>
-        <v>cahiltr01</v>
+        <f t="shared" si="10"/>
+        <v>kershcl01</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>b</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>marge</v>
+        <f t="shared" si="8"/>
+        <v>buehl</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>ni</v>
+        <f t="shared" si="9"/>
+        <v>wa</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="3"/>
-        <v>margeni01</v>
+        <f t="shared" si="10"/>
+        <v>buehlwa01</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>l</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>lamet</v>
+        <f t="shared" si="8"/>
+        <v>may</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>di</v>
+        <f t="shared" si="9"/>
+        <v>du</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="3"/>
-        <v>lametdi01</v>
+        <f t="shared" si="10"/>
+        <v>maydu01</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>a</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>clevi</v>
+        <f t="shared" si="8"/>
+        <v>ander</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>mi</v>
+        <f t="shared" si="9"/>
+        <v>ty</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="3"/>
-        <v>clevimi01</v>
+        <f t="shared" si="10"/>
+        <v>anderty01</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>v</v>
+        <f t="shared" si="7"/>
+        <v>c</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>valde</v>
+        <f t="shared" si="8"/>
+        <v>cahil</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>fr</v>
+        <f t="shared" si="9"/>
+        <v>tr</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="3"/>
-        <v>valdefr01</v>
+        <f t="shared" si="10"/>
+        <v>cahiltr01</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>bumga</v>
+        <f t="shared" si="8"/>
+        <v>marge</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>ma</v>
+        <f t="shared" si="9"/>
+        <v>ni</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="3"/>
-        <v>bumgama01</v>
+        <f t="shared" si="10"/>
+        <v>margeni01</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>s</v>
+        <f t="shared" si="7"/>
+        <v>l</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>smith</v>
+        <f t="shared" si="8"/>
+        <v>lamet</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>ca</v>
+        <f t="shared" si="9"/>
+        <v>di</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="3"/>
-        <v>smithca03</v>
+        <f t="shared" si="10"/>
+        <v>lametdi01</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>y</v>
+        <f t="shared" si="7"/>
+        <v>c</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>young</v>
+        <f t="shared" si="8"/>
+        <v>clevi</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>al</v>
+        <f t="shared" si="9"/>
+        <v>mi</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="3"/>
-        <v>youngal01</v>
+        <f t="shared" si="10"/>
+        <v>clevimi01</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>h</v>
+        <f t="shared" si="7"/>
+        <v>v</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>herge</v>
+        <f t="shared" si="8"/>
+        <v>valde</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
-        <v>ji</v>
+        <f t="shared" si="9"/>
+        <v>fr</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="3"/>
-        <v>hergeji01</v>
+        <f t="shared" si="10"/>
+        <v>valdefr01</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>l</v>
+        <f t="shared" si="7"/>
+        <v>b</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>lynn</v>
+        <f t="shared" si="8"/>
+        <v>bumga</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>la</v>
+        <f t="shared" si="9"/>
+        <v>ma</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="3"/>
-        <v>lynnla01</v>
+        <f t="shared" si="10"/>
+        <v>bumgama01</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>s</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>cody</v>
+        <f t="shared" si="8"/>
+        <v>smith</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>ky</v>
+        <f t="shared" si="9"/>
+        <v>ca</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="3"/>
-        <v>codyky01</v>
+        <f t="shared" si="10"/>
+        <v>smithca03</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>g</v>
+        <f t="shared" si="7"/>
+        <v>y</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>gibso</v>
+        <f t="shared" si="8"/>
+        <v>young</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>ky</v>
+        <f t="shared" si="9"/>
+        <v>al</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="3"/>
-        <v>gibsoky01</v>
+        <f t="shared" si="10"/>
+        <v>youngal01</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>s</v>
+        <f t="shared" si="7"/>
+        <v>h</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>strip</v>
+        <f t="shared" si="8"/>
+        <v>herge</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>ro</v>
+        <f t="shared" si="9"/>
+        <v>ji</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="3"/>
-        <v>stripro01</v>
+        <f t="shared" si="10"/>
+        <v>hergeji01</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>g</v>
+        <f t="shared" si="7"/>
+        <v>l</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>gonso</v>
+        <f t="shared" si="8"/>
+        <v>lynn</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>to</v>
+        <f t="shared" si="9"/>
+        <v>la</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="3"/>
-        <v>gonsoto01</v>
+        <f t="shared" si="10"/>
+        <v>lynnla01</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>u</v>
+        <f t="shared" si="7"/>
+        <v>c</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>urias</v>
+        <f t="shared" si="8"/>
+        <v>cody</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>ju</v>
+        <f t="shared" si="9"/>
+        <v>ky</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="3"/>
-        <v>uriasju01</v>
+        <f t="shared" si="10"/>
+        <v>codyky01</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>j</v>
+        <f t="shared" si="7"/>
+        <v>g</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>javie</v>
+        <f t="shared" si="8"/>
+        <v>gibso</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>cr</v>
+        <f t="shared" si="9"/>
+        <v>ky</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="3"/>
-        <v>javiecr01</v>
+        <f t="shared" si="10"/>
+        <v>gibsoky01</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
+        <f t="shared" si="7"/>
+        <v>s</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>biela</v>
+        <f t="shared" si="8"/>
+        <v>strip</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>br</v>
+        <f t="shared" si="9"/>
+        <v>ro</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="3"/>
-        <v>bielabr01</v>
+        <f t="shared" si="10"/>
+        <v>stripro01</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>q</v>
+        <f t="shared" si="7"/>
+        <v>g</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>quant</v>
+        <f t="shared" si="8"/>
+        <v>gonso</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>ca</v>
+        <f t="shared" si="9"/>
+        <v>to</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="3"/>
-        <v>quantca01</v>
+        <f t="shared" si="10"/>
+        <v>gonsoto01</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>r</v>
+        <f t="shared" si="7"/>
+        <v>u</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>richa</v>
+        <f t="shared" si="8"/>
+        <v>urias</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>ga</v>
+        <f t="shared" si="9"/>
+        <v>ju</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="3"/>
-        <v>richaga01</v>
+        <f t="shared" si="10"/>
+        <v>uriasju01</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>j</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>monta</v>
+        <f t="shared" si="8"/>
+        <v>javie</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>fr</v>
+        <f t="shared" si="9"/>
+        <v>cr</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="3"/>
-        <v>montafr02</v>
+        <f t="shared" si="10"/>
+        <v>javiecr01</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>b</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>caste</v>
+        <f t="shared" si="8"/>
+        <v>biela</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>ry</v>
+        <f t="shared" si="9"/>
+        <v>br</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="3"/>
-        <v>castery01</v>
+        <f t="shared" si="10"/>
+        <v>bielabr01</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>q</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>marqu</v>
+        <f t="shared" si="8"/>
+        <v>quant</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>ge</v>
+        <f t="shared" si="9"/>
+        <v>ca</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="3"/>
-        <v>marquge01</v>
+        <f t="shared" si="10"/>
+        <v>quantca01</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>g</v>
+        <f t="shared" si="7"/>
+        <v>r</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>gray</v>
+        <f t="shared" si="8"/>
+        <v>richa</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
-        <v>jo</v>
+        <f t="shared" si="9"/>
+        <v>ga</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="3"/>
-        <v>grayjo02</v>
+        <f t="shared" si="10"/>
+        <v>richaga01</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>cueto</v>
+        <f t="shared" si="8"/>
+        <v>monta</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
-        <v>jo</v>
+        <f t="shared" si="9"/>
+        <v>fr</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="3"/>
-        <v>cuetojo01</v>
+        <f t="shared" si="10"/>
+        <v>montafr02</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>k</v>
+        <f t="shared" si="7"/>
+        <v>c</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>kikuc</v>
+        <f t="shared" si="8"/>
+        <v>caste</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
-        <v>yu</v>
+        <f t="shared" si="9"/>
+        <v>ry</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="3"/>
-        <v>kikucyu01</v>
+        <f t="shared" si="10"/>
+        <v>castery01</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>l</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v>lyles</v>
+        <f t="shared" si="8"/>
+        <v>marqu</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
-        <v>jo</v>
+        <f t="shared" si="9"/>
+        <v>ge</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v>lylesjo01</v>
+        <f t="shared" si="10"/>
+        <v>marquge01</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
+        <f t="shared" si="7"/>
+        <v>g</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>benja</v>
+        <f t="shared" si="8"/>
+        <v>gray</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
-        <v>we</v>
+        <f t="shared" si="9"/>
+        <v>jo</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v>benjawe01</v>
+        <f t="shared" si="10"/>
+        <v>grayjo02</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
+        <f t="shared" si="7"/>
+        <v>c</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>freel</v>
+        <f t="shared" si="8"/>
+        <v>cueto</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
-        <v>ky</v>
+        <f t="shared" si="9"/>
+        <v>jo</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
-        <v>freelky01</v>
+        <f t="shared" si="10"/>
+        <v>cuetojo01</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>k</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>morto</v>
+        <f t="shared" si="8"/>
+        <v>kikuc</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
-        <v>ch</v>
+        <f t="shared" si="9"/>
+        <v>yu</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
-        <v>mortoch02</v>
+        <f t="shared" si="10"/>
+        <v>kikucyu01</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>y</v>
+        <f t="shared" si="7"/>
+        <v>l</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>yarbr</v>
+        <f t="shared" si="8"/>
+        <v>lyles</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
-        <v>ry</v>
+        <f t="shared" si="9"/>
+        <v>jo</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
-        <v>yarbrry01</v>
+        <f t="shared" si="10"/>
+        <v>lylesjo01</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
+        <f t="shared" si="7"/>
+        <v>b</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>porce</v>
+        <f t="shared" si="8"/>
+        <v>benja</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
-        <v>ri</v>
+        <f t="shared" si="9"/>
+        <v>we</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
-        <v>porceri01</v>
+        <f t="shared" si="10"/>
+        <v>benjawe01</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>w</v>
+        <f t="shared" si="7"/>
+        <v>f</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>wacha</v>
+        <f t="shared" si="8"/>
+        <v>freel</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
-        <v>mi</v>
+        <f t="shared" si="9"/>
+        <v>ky</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
-        <v>wachami01</v>
+        <f t="shared" si="10"/>
+        <v>freelky01</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>peter</v>
+        <f t="shared" si="8"/>
+        <v>morto</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
-        <v>da</v>
+        <f t="shared" si="9"/>
+        <v>ch</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="3"/>
-        <v>peterda01</v>
+        <f t="shared" si="10"/>
+        <v>mortoch02</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>d</v>
+        <f t="shared" si="7"/>
+        <v>y</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>degro</v>
+        <f t="shared" si="8"/>
+        <v>yarbr</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
-        <v>ja</v>
+        <f t="shared" si="9"/>
+        <v>ry</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="3"/>
-        <v>degroja01</v>
+        <f t="shared" si="10"/>
+        <v>yarbrry01</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>s</v>
+        <f t="shared" si="7"/>
+        <v>p</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
-        <v>shoem</v>
+        <f t="shared" si="8"/>
+        <v>porce</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="2"/>
-        <v>ma</v>
+        <f t="shared" si="9"/>
+        <v>ri</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="3"/>
-        <v>shoemma01</v>
+        <f t="shared" si="10"/>
+        <v>porceri01</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>r</v>
+        <f t="shared" si="7"/>
+        <v>w</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>ryu</v>
+        <f t="shared" si="8"/>
+        <v>wacha</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="2"/>
-        <v>hy</v>
+        <f t="shared" si="9"/>
+        <v>mi</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F50" t="s">
-        <v>280</v>
+      <c r="F50" t="str">
+        <f t="shared" si="10"/>
+        <v>wachami01</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>p</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>pears</v>
+        <f t="shared" si="8"/>
+        <v>peter</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="2"/>
-        <v>na</v>
+        <f t="shared" si="9"/>
+        <v>da</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="3"/>
-        <v>pearsna01</v>
+        <f t="shared" si="10"/>
+        <v>peterda01</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>s</v>
+        <f t="shared" si="7"/>
+        <v>d</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>sanch</v>
+        <f t="shared" si="8"/>
+        <v>degro</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="2"/>
-        <v>an</v>
+        <f t="shared" si="9"/>
+        <v>ja</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="3"/>
-        <v>sanchan01</v>
+        <f t="shared" si="10"/>
+        <v>degroja01</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>v</v>
+        <f t="shared" si="7"/>
+        <v>s</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>voth</v>
+        <f t="shared" si="8"/>
+        <v>shoem</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="2"/>
-        <v>au</v>
+        <f t="shared" si="9"/>
+        <v>ma</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="3"/>
-        <v>vothau01</v>
+        <f t="shared" si="10"/>
+        <v>shoemma01</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f t="shared" si="7"/>
+        <v>r</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
-        <v>nola</v>
+        <f t="shared" si="8"/>
+        <v>ryu</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="2"/>
-        <v>aa</v>
+        <f t="shared" si="9"/>
+        <v>hy</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="3"/>
-        <v>nolaaa01</v>
+      <c r="F54" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>w</v>
+        <f t="shared" si="7"/>
+        <v>p</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
-        <v>wheel</v>
+        <f t="shared" si="8"/>
+        <v>pears</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="2"/>
-        <v>za</v>
+        <f t="shared" si="9"/>
+        <v>na</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="3"/>
-        <v>wheelza01</v>
+        <f t="shared" si="10"/>
+        <v>pearsna01</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>e</v>
+        <f t="shared" si="7"/>
+        <v>s</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
-        <v>eflin</v>
+        <f t="shared" si="8"/>
+        <v>sanch</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="2"/>
-        <v>za</v>
+        <f t="shared" si="9"/>
+        <v>an</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="3"/>
-        <v>eflinza01</v>
+        <f t="shared" si="10"/>
+        <v>sanchan01</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>f</v>
+        <f t="shared" si="7"/>
+        <v>v</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
-        <v>fedde</v>
+        <f t="shared" si="8"/>
+        <v>voth</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="2"/>
-        <v>er</v>
+        <f t="shared" si="9"/>
+        <v>au</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="3"/>
-        <v>feddeer01</v>
+        <f t="shared" si="10"/>
+        <v>vothau01</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>n</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
-        <v>corbi</v>
+        <f t="shared" si="8"/>
+        <v>nola</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="2"/>
-        <v>pa</v>
+        <f t="shared" si="9"/>
+        <v>aa</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="3"/>
-        <v>corbipa01</v>
+        <f t="shared" si="10"/>
+        <v>nolaaa01</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>u</v>
+        <f t="shared" si="7"/>
+        <v>w</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
-        <v>urena</v>
+        <f t="shared" si="8"/>
+        <v>wheel</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="2"/>
-        <v>jo</v>
+        <f t="shared" si="9"/>
+        <v>za</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="3"/>
-        <v>urenajo01</v>
+        <f t="shared" si="10"/>
+        <v>wheelza01</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>s</v>
+        <f t="shared" si="7"/>
+        <v>e</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
-        <v>sanch</v>
+        <f t="shared" si="8"/>
+        <v>eflin</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
-        <v>si</v>
+        <f t="shared" si="9"/>
+        <v>za</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="3"/>
-        <v>sanchsi01</v>
+        <f t="shared" si="10"/>
+        <v>eflinza01</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>l</v>
+        <f t="shared" si="7"/>
+        <v>f</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
-        <v>lopez</v>
+        <f t="shared" si="8"/>
+        <v>fedde</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="2"/>
-        <v>pa</v>
+        <f t="shared" si="9"/>
+        <v>er</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="3"/>
-        <v>lopezpa01</v>
+        <f t="shared" si="10"/>
+        <v>feddeer01</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>r</v>
+        <f t="shared" si="7"/>
+        <v>c</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
-        <v>roger</v>
+        <f t="shared" si="8"/>
+        <v>corbi</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="2"/>
-        <v>tr</v>
+        <f t="shared" si="9"/>
+        <v>pa</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="3"/>
-        <v>rogertr01</v>
+        <f t="shared" si="10"/>
+        <v>corbipa01</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f t="shared" si="7"/>
+        <v>u</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>mazza</v>
+        <f t="shared" si="8"/>
+        <v>urena</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="2"/>
-        <v>ch</v>
+        <f t="shared" si="9"/>
+        <v>jo</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="3"/>
-        <v>mazzach01</v>
+        <f t="shared" si="10"/>
+        <v>urenajo01</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>h</v>
+        <f t="shared" si="7"/>
+        <v>s</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
-        <v>houck</v>
+        <f t="shared" si="8"/>
+        <v>sanch</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="2"/>
-        <v>ta</v>
+        <f t="shared" si="9"/>
+        <v>si</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="3"/>
-        <v>houckta01</v>
+        <f t="shared" si="10"/>
+        <v>sanchsi01</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>p</v>
+        <f t="shared" si="7"/>
+        <v>l</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
-        <v>pivet</v>
+        <f t="shared" si="8"/>
+        <v>lopez</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="2"/>
-        <v>ni</v>
+        <f t="shared" si="9"/>
+        <v>pa</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="3"/>
-        <v>pivetni01</v>
+        <f t="shared" si="10"/>
+        <v>lopezpa01</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>b</v>
+        <f t="shared" si="7"/>
+        <v>r</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
-        <v>bauer</v>
+        <f t="shared" si="8"/>
+        <v>roger</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>tr</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="3"/>
-        <v>bauertr01</v>
+        <f t="shared" si="10"/>
+        <v>rogertr01</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="4">LOWER(LEFT(MID(A67,FIND(" ",A67)+1,256),1))</f>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="5">LOWER(LEFT(MID(A67,FIND(" ",A67)+1,256),5))</f>
-        <v>casti</v>
+        <f t="shared" si="8"/>
+        <v>mazza</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="6">LOWER(LEFT(A67,2))</f>
-        <v>lu</v>
+        <f t="shared" si="9"/>
+        <v>ch</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="7">C67&amp;D67&amp;E67</f>
-        <v>castilu02</v>
+        <f t="shared" si="10"/>
+        <v>mazzach01</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
+        <f t="shared" si="7"/>
+        <v>h</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="5"/>
-        <v>alcan</v>
+        <f t="shared" si="8"/>
+        <v>houck</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="6"/>
-        <v>sa</v>
+        <f t="shared" si="9"/>
+        <v>ta</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="7"/>
-        <v>alcansa01</v>
+        <f t="shared" si="10"/>
+        <v>houckta01</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="4"/>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>p</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
-        <v>cole</v>
+        <f t="shared" si="8"/>
+        <v>pivet</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="6"/>
-        <v>ge</v>
+        <f t="shared" si="9"/>
+        <v>ni</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
-        <v>colege01</v>
+        <f t="shared" si="10"/>
+        <v>pivetni01</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="4"/>
-        <v>h</v>
+        <f t="shared" si="7"/>
+        <v>b</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
-        <v>happ</v>
+        <f t="shared" si="8"/>
+        <v>bauer</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="6"/>
-        <v>j.</v>
+        <f t="shared" si="9"/>
+        <v>tr</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F70" t="s">
-        <v>281</v>
+      <c r="F70" t="str">
+        <f t="shared" si="10"/>
+        <v>bauertr01</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="4"/>
-        <v>s</v>
+        <f t="shared" ref="B71:B134" si="11">LOWER(LEFT(MID(A71,FIND(" ",A71)+1,256),1))</f>
+        <v>c</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="5"/>
-        <v>snell</v>
+        <f t="shared" ref="C71:C134" si="12">LOWER(LEFT(MID(A71,FIND(" ",A71)+1,256),5))</f>
+        <v>casti</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="6"/>
-        <v>bl</v>
+        <f t="shared" ref="D71:D134" si="13">LOWER(LEFT(A71,2))</f>
+        <v>lu</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="7"/>
-        <v>snellbl01</v>
+        <f t="shared" ref="F71:F134" si="14">C71&amp;D71&amp;E71</f>
+        <v>castilu02</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
+        <f t="shared" si="11"/>
+        <v>a</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="5"/>
-        <v>glasn</v>
+        <f t="shared" si="12"/>
+        <v>alcan</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="6"/>
-        <v>ty</v>
+        <f t="shared" si="13"/>
+        <v>sa</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="7"/>
-        <v>glasnty01</v>
+        <f t="shared" si="14"/>
+        <v>alcansa01</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>c</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="5"/>
-        <v>chiri</v>
+        <f t="shared" si="12"/>
+        <v>cole</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="6"/>
-        <v>yo</v>
+        <f t="shared" si="13"/>
+        <v>ge</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="7"/>
-        <v>chiriyo01</v>
+        <f t="shared" si="14"/>
+        <v>colege01</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="4"/>
-        <v>y</v>
+        <f t="shared" si="11"/>
+        <v>h</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="5"/>
-        <v>yamam</v>
+        <f t="shared" si="12"/>
+        <v>happ</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="6"/>
-        <v>jo</v>
+        <f t="shared" si="13"/>
+        <v>j.</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F74" t="str">
-        <f t="shared" si="7"/>
-        <v>yamamjo01</v>
+      <c r="F74" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>s</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="5"/>
-        <v>stras</v>
+        <f t="shared" si="12"/>
+        <v>snell</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+        <f t="shared" si="13"/>
+        <v>bl</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="7"/>
-        <v>strasst01</v>
+        <f t="shared" si="14"/>
+        <v>snellbl01</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="4"/>
-        <v>s</v>
+        <f t="shared" si="11"/>
+        <v>g</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="5"/>
-        <v>scher</v>
+        <f t="shared" si="12"/>
+        <v>glasn</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="6"/>
-        <v>ma</v>
+        <f t="shared" si="13"/>
+        <v>ty</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="7"/>
-        <v>scherma01</v>
+        <f t="shared" si="14"/>
+        <v>glasnty01</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="4"/>
-        <v>r</v>
+        <f t="shared" si="11"/>
+        <v>c</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="5"/>
-        <v>roark</v>
+        <f t="shared" si="12"/>
+        <v>chiri</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="6"/>
-        <v>ta</v>
+        <f t="shared" si="13"/>
+        <v>yo</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="7"/>
-        <v>roarkta01</v>
+        <f t="shared" si="14"/>
+        <v>chiriyo01</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="4"/>
-        <v>e</v>
+        <f t="shared" si="11"/>
+        <v>y</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="5"/>
-        <v>eoval</v>
+        <f t="shared" si="12"/>
+        <v>yamam</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="6"/>
-        <v>na</v>
+        <f t="shared" si="13"/>
+        <v>jo</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="7"/>
-        <v>eovalna01</v>
+        <f t="shared" si="14"/>
+        <v>yamamjo01</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="4"/>
-        <v>b</v>
+        <f t="shared" si="11"/>
+        <v>s</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="5"/>
-        <v>brewe</v>
+        <f t="shared" si="12"/>
+        <v>stras</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="6"/>
-        <v>co</v>
+        <f t="shared" si="13"/>
+        <v>st</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="7"/>
-        <v>breweco01</v>
+        <f t="shared" si="14"/>
+        <v>strasst01</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="4"/>
-        <v>p</v>
+        <f t="shared" si="11"/>
+        <v>s</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="5"/>
-        <v>perez</v>
+        <f t="shared" si="12"/>
+        <v>scher</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>ma</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="7"/>
-        <v>perezma02</v>
+        <f t="shared" si="14"/>
+        <v>scherma01</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
+        <f t="shared" si="11"/>
+        <v>r</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="5"/>
-        <v>godle</v>
+        <f t="shared" si="12"/>
+        <v>roark</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="6"/>
-        <v>za</v>
+        <f t="shared" si="13"/>
+        <v>ta</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="7"/>
-        <v>godleza01</v>
+        <f t="shared" si="14"/>
+        <v>roarkta01</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="4"/>
-        <v>j</v>
+        <f t="shared" si="11"/>
+        <v>e</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="5"/>
-        <v>jurad</v>
+        <f t="shared" si="12"/>
+        <v>eoval</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="6"/>
-        <v>ar</v>
+        <f t="shared" si="13"/>
+        <v>na</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="7"/>
-        <v>juradar01</v>
+        <f t="shared" si="14"/>
+        <v>eovalna01</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="4"/>
-        <v>t</v>
+        <f t="shared" si="11"/>
+        <v>b</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="5"/>
-        <v>tanak</v>
+        <f t="shared" si="12"/>
+        <v>brewe</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="6"/>
-        <v>ma</v>
+        <f t="shared" si="13"/>
+        <v>co</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="7"/>
-        <v>tanakma01</v>
+        <f t="shared" si="14"/>
+        <v>breweco01</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="4"/>
-        <v>t</v>
+        <f t="shared" si="11"/>
+        <v>p</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="5"/>
-        <v>touss</v>
+        <f t="shared" si="12"/>
+        <v>perez</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="6"/>
-        <v>to</v>
+        <f t="shared" si="13"/>
+        <v>ma</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="7"/>
-        <v>toussto01</v>
+        <f t="shared" si="14"/>
+        <v>perezma02</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="4"/>
-        <v>y</v>
+        <f t="shared" si="11"/>
+        <v>g</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="5"/>
-        <v>ynoa</v>
+        <f t="shared" si="12"/>
+        <v>godle</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="6"/>
-        <v>hu</v>
+        <f t="shared" si="13"/>
+        <v>za</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="7"/>
-        <v>ynoahu01</v>
+        <f t="shared" si="14"/>
+        <v>godleza01</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="4"/>
-        <v>h</v>
+        <f t="shared" si="11"/>
+        <v>j</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="5"/>
-        <v>hamel</v>
+        <f t="shared" si="12"/>
+        <v>jurad</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="6"/>
-        <v>co</v>
+        <f t="shared" si="13"/>
+        <v>ar</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="7"/>
-        <v>hamelco01</v>
+        <f t="shared" si="14"/>
+        <v>juradar01</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f t="shared" si="11"/>
+        <v>t</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="5"/>
-        <v>milon</v>
+        <f t="shared" si="12"/>
+        <v>tanak</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="6"/>
-        <v>to</v>
+        <f t="shared" si="13"/>
+        <v>ma</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="7"/>
-        <v>milonto01</v>
+        <f t="shared" si="14"/>
+        <v>tanakma01</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="4"/>
-        <v>c</v>
+        <f t="shared" si="11"/>
+        <v>t</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="5"/>
-        <v>cobb</v>
+        <f t="shared" si="12"/>
+        <v>touss</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="6"/>
-        <v>al</v>
+        <f t="shared" si="13"/>
+        <v>to</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="7"/>
-        <v>cobbal01</v>
+        <f t="shared" si="14"/>
+        <v>toussto01</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="4"/>
-        <v>l</v>
+        <f t="shared" si="11"/>
+        <v>y</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="5"/>
-        <v>lebla</v>
+        <f t="shared" si="12"/>
+        <v>ynoa</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="6"/>
-        <v>wa</v>
+        <f t="shared" si="13"/>
+        <v>hu</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="7"/>
-        <v>leblawa01</v>
+        <f t="shared" si="14"/>
+        <v>ynoahu01</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
+        <f t="shared" si="11"/>
+        <v>h</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="5"/>
-        <v>ander</v>
+        <f t="shared" si="12"/>
+        <v>hamel</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="6"/>
-        <v>ch</v>
+        <f t="shared" si="13"/>
+        <v>co</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="7"/>
-        <v>anderch01</v>
+        <f t="shared" si="14"/>
+        <v>hamelco01</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="4"/>
-        <v>k</v>
+        <f t="shared" si="11"/>
+        <v>m</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="5"/>
-        <v>kittr</v>
+        <f t="shared" si="12"/>
+        <v>milon</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="6"/>
-        <v>an</v>
+        <f t="shared" si="13"/>
+        <v>to</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="7"/>
-        <v>kittran01</v>
+        <f t="shared" si="14"/>
+        <v>milonto01</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
+        <f t="shared" si="11"/>
+        <v>c</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="5"/>
-        <v>arrie</v>
+        <f t="shared" si="12"/>
+        <v>cobb</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="6"/>
-        <v>ja</v>
+        <f t="shared" si="13"/>
+        <v>al</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="7"/>
-        <v>arrieja01</v>
+        <f t="shared" si="14"/>
+        <v>cobbal01</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="4"/>
-        <v>f</v>
+        <f t="shared" si="11"/>
+        <v>l</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="5"/>
-        <v>fried</v>
+        <f t="shared" si="12"/>
+        <v>lebla</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="6"/>
-        <v>ma</v>
+        <f t="shared" si="13"/>
+        <v>wa</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="7"/>
-        <v>friedma01</v>
+        <f t="shared" si="14"/>
+        <v>leblawa01</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>a</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>ander</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="6"/>
-        <v>ia</v>
+        <f t="shared" si="13"/>
+        <v>ch</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="7"/>
-        <v>anderia01</v>
+        <f t="shared" si="14"/>
+        <v>anderch01</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="4"/>
-        <v>e</v>
+        <f t="shared" si="11"/>
+        <v>k</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="5"/>
-        <v>erlin</v>
+        <f t="shared" si="12"/>
+        <v>kittr</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="6"/>
-        <v>ro</v>
+        <f t="shared" si="13"/>
+        <v>an</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="7"/>
-        <v>erlinro01</v>
+        <f t="shared" si="14"/>
+        <v>kittran01</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="4"/>
-        <v>w</v>
+        <f t="shared" si="11"/>
+        <v>a</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="5"/>
-        <v>walke</v>
+        <f t="shared" si="12"/>
+        <v>arrie</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="6"/>
-        <v>ta</v>
+        <f t="shared" si="13"/>
+        <v>ja</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="7"/>
-        <v>walketa01</v>
+        <f t="shared" si="14"/>
+        <v>arrieja01</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="4"/>
-        <v>r</v>
+        <f t="shared" si="11"/>
+        <v>f</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="5"/>
-        <v>ray</v>
+        <f t="shared" si="12"/>
+        <v>fried</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="6"/>
-        <v>ro</v>
+        <f t="shared" si="13"/>
+        <v>ma</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="7"/>
-        <v>rayro02</v>
+        <f t="shared" si="14"/>
+        <v>friedma01</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f t="shared" si="11"/>
+        <v>a</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="5"/>
-        <v>montg</v>
+        <f t="shared" si="12"/>
+        <v>ander</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="6"/>
-        <v>jo</v>
+        <f t="shared" si="13"/>
+        <v>ia</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="7"/>
-        <v>montgjo01</v>
+        <f t="shared" si="14"/>
+        <v>anderia01</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="4"/>
-        <v>g</v>
+        <f t="shared" si="11"/>
+        <v>e</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="5"/>
-        <v>garci</v>
+        <f t="shared" si="12"/>
+        <v>erlin</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="6"/>
-        <v>de</v>
+        <f t="shared" si="13"/>
+        <v>ro</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="7"/>
-        <v>garcide01</v>
+        <f t="shared" si="14"/>
+        <v>erlinro01</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
+        <f t="shared" si="11"/>
+        <v>w</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="5"/>
-        <v>akin</v>
+        <f t="shared" si="12"/>
+        <v>walke</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="6"/>
-        <v>ke</v>
+        <f t="shared" si="13"/>
+        <v>ta</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="7"/>
-        <v>akinke01</v>
+        <f t="shared" si="14"/>
+        <v>walketa01</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="4"/>
-        <v>k</v>
+        <f t="shared" si="11"/>
+        <v>r</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="5"/>
-        <v>kreme</v>
+        <f t="shared" si="12"/>
+        <v>ray</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="6"/>
-        <v>de</v>
+        <f t="shared" si="13"/>
+        <v>ro</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="7"/>
-        <v>kremede01</v>
+        <f t="shared" si="14"/>
+        <v>rayro02</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="4"/>
-        <v>b</v>
+        <f t="shared" si="11"/>
+        <v>m</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="5"/>
-        <v>berri</v>
+        <f t="shared" si="12"/>
+        <v>montg</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>jo</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="7"/>
-        <v>berrijo01</v>
+        <f t="shared" si="14"/>
+        <v>montgjo01</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="4"/>
-        <v>d</v>
+        <f t="shared" si="11"/>
+        <v>g</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="5"/>
-        <v>dobna</v>
+        <f t="shared" si="12"/>
+        <v>garci</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="6"/>
-        <v>ra</v>
+        <f t="shared" si="13"/>
+        <v>de</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="7"/>
-        <v>dobnara01</v>
+        <f t="shared" si="14"/>
+        <v>garcide01</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f t="shared" si="11"/>
+        <v>a</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="5"/>
-        <v>maeda</v>
+        <f t="shared" si="12"/>
+        <v>akin</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>ke</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="7"/>
-        <v>maedake01</v>
+        <f t="shared" si="14"/>
+        <v>akinke01</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="4"/>
-        <v>h</v>
+        <f t="shared" si="11"/>
+        <v>k</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="5"/>
-        <v>house</v>
+        <f t="shared" si="12"/>
+        <v>kreme</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="6"/>
-        <v>ad</v>
+        <f t="shared" si="13"/>
+        <v>de</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="7"/>
-        <v>housead01</v>
+        <f t="shared" si="14"/>
+        <v>kremede01</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="4"/>
-        <v>l</v>
+        <f t="shared" si="11"/>
+        <v>b</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="5"/>
-        <v>lindb</v>
+        <f t="shared" si="12"/>
+        <v>berri</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>jo</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="7"/>
-        <v>lindbjo01</v>
+        <f t="shared" si="14"/>
+        <v>berrijo01</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="4"/>
-        <v>c</v>
+        <f t="shared" si="11"/>
+        <v>d</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="5"/>
-        <v>cival</v>
+        <f t="shared" si="12"/>
+        <v>dobna</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="6"/>
-        <v>aa</v>
+        <f t="shared" si="13"/>
+        <v>ra</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="7"/>
-        <v>civalaa01</v>
+        <f t="shared" si="14"/>
+        <v>dobnara01</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="4"/>
-        <v>p</v>
+        <f t="shared" si="11"/>
+        <v>m</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="5"/>
-        <v>plesa</v>
+        <f t="shared" si="12"/>
+        <v>maeda</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="6"/>
-        <v>za</v>
+        <f t="shared" si="13"/>
+        <v>ke</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="7"/>
-        <v>plesaza01</v>
+        <f t="shared" si="14"/>
+        <v>maedake01</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="4"/>
-        <v>b</v>
+        <f t="shared" si="11"/>
+        <v>h</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="5"/>
-        <v>biebe</v>
+        <f t="shared" si="12"/>
+        <v>house</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="6"/>
-        <v>sh</v>
+        <f t="shared" si="13"/>
+        <v>ad</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="7"/>
-        <v>biebesh01</v>
+        <f t="shared" si="14"/>
+        <v>housead01</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="4"/>
-        <v>h</v>
+        <f t="shared" si="11"/>
+        <v>l</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="5"/>
-        <v>hudso</v>
+        <f t="shared" si="12"/>
+        <v>lindb</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="6"/>
-        <v>da</v>
+        <f t="shared" si="13"/>
+        <v>jo</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="7"/>
-        <v>hudsoda01</v>
+        <f t="shared" si="14"/>
+        <v>lindbjo01</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="4"/>
-        <v>b</v>
+        <f t="shared" si="11"/>
+        <v>c</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="5"/>
-        <v>boyd</v>
+        <f t="shared" si="12"/>
+        <v>cival</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="6"/>
-        <v>ma</v>
+        <f t="shared" si="13"/>
+        <v>aa</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="7"/>
-        <v>boydma01</v>
+        <f t="shared" si="14"/>
+        <v>civalaa01</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="4"/>
-        <v>s</v>
+        <f t="shared" si="11"/>
+        <v>p</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="5"/>
-        <v>skuba</v>
+        <f t="shared" si="12"/>
+        <v>plesa</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="6"/>
-        <v>ta</v>
+        <f t="shared" si="13"/>
+        <v>za</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="7"/>
-        <v>skubata01</v>
+        <f t="shared" si="14"/>
+        <v>plesaza01</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f t="shared" si="11"/>
+        <v>b</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="5"/>
-        <v>mize</v>
+        <f t="shared" si="12"/>
+        <v>biebe</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="6"/>
-        <v>ca</v>
+        <f t="shared" si="13"/>
+        <v>sh</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="7"/>
-        <v>mizeca01</v>
+        <f t="shared" si="14"/>
+        <v>biebesh01</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="4"/>
-        <v>t</v>
+        <f t="shared" si="11"/>
+        <v>h</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="5"/>
-        <v>turnb</v>
+        <f t="shared" si="12"/>
+        <v>hudso</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="6"/>
-        <v>sp</v>
+        <f t="shared" si="13"/>
+        <v>da</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="7"/>
-        <v>turnbsp01</v>
+        <f t="shared" si="14"/>
+        <v>hudsoda01</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>b</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="5"/>
-        <v>braul</v>
+        <f t="shared" si="12"/>
+        <v>boyd</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="6"/>
-        <v>st</v>
+        <f t="shared" si="13"/>
+        <v>ma</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="7"/>
-        <v>braulst01</v>
+        <f t="shared" si="14"/>
+        <v>boydma01</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="4"/>
-        <v>w</v>
+        <f t="shared" si="11"/>
+        <v>s</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="5"/>
-        <v>willi</v>
+        <f t="shared" si="12"/>
+        <v>skuba</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="6"/>
-        <v>tr</v>
+        <f t="shared" si="13"/>
+        <v>ta</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="7"/>
-        <v>willitr01</v>
+        <f t="shared" si="14"/>
+        <v>skubata01</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="4"/>
-        <v>d</v>
+        <f t="shared" si="11"/>
+        <v>m</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="5"/>
-        <v>duffy</v>
+        <f t="shared" si="12"/>
+        <v>mize</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="6"/>
-        <v>da</v>
+        <f t="shared" si="13"/>
+        <v>ca</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="7"/>
-        <v>duffyda01</v>
+        <f t="shared" si="14"/>
+        <v>mizeca01</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="4"/>
-        <v>s</v>
+        <f t="shared" si="11"/>
+        <v>t</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="5"/>
-        <v>singe</v>
+        <f t="shared" si="12"/>
+        <v>turnb</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="6"/>
-        <v>br</v>
+        <f t="shared" si="13"/>
+        <v>sp</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="7"/>
-        <v>singebr01</v>
+        <f t="shared" si="14"/>
+        <v>turnbsp01</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>b</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="5"/>
-        <v>bubic</v>
+        <f t="shared" si="12"/>
+        <v>braul</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="6"/>
-        <v>kr</v>
+        <f t="shared" si="13"/>
+        <v>st</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="7"/>
-        <v>bubickr01</v>
+        <f t="shared" si="14"/>
+        <v>braulst01</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="4"/>
-        <v>f</v>
+        <f t="shared" si="11"/>
+        <v>w</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="5"/>
-        <v>fulme</v>
+        <f t="shared" si="12"/>
+        <v>willi</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="6"/>
-        <v>mi</v>
+        <f t="shared" si="13"/>
+        <v>tr</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="7"/>
-        <v>fulmemi01</v>
+        <f t="shared" si="14"/>
+        <v>willitr01</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="4"/>
-        <v>o</v>
+        <f t="shared" si="11"/>
+        <v>d</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="5"/>
-        <v>odori</v>
+        <f t="shared" si="12"/>
+        <v>duffy</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="6"/>
-        <v>ja</v>
+        <f t="shared" si="13"/>
+        <v>da</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="7"/>
-        <v>odorija01</v>
+        <f t="shared" si="14"/>
+        <v>duffyda01</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="4"/>
-        <v>d</v>
+        <f t="shared" si="11"/>
+        <v>s</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="5"/>
-        <v>darvi</v>
+        <f t="shared" si="12"/>
+        <v>singe</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="6"/>
-        <v>yu</v>
+        <f t="shared" si="13"/>
+        <v>br</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="7"/>
-        <v>darviyu01</v>
+        <f t="shared" si="14"/>
+        <v>singebr01</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="4"/>
-        <v>l</v>
+        <f t="shared" si="11"/>
+        <v>b</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="5"/>
-        <v>leste</v>
+        <f t="shared" si="12"/>
+        <v>bubic</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="6"/>
-        <v>jo</v>
+        <f t="shared" si="13"/>
+        <v>kr</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="7"/>
-        <v>lestejo01</v>
+        <f t="shared" si="14"/>
+        <v>bubickr01</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
+        <f t="shared" si="11"/>
+        <v>f</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="5"/>
-        <v>alzol</v>
+        <f t="shared" si="12"/>
+        <v>fulme</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="6"/>
-        <v>ad</v>
+        <f t="shared" si="13"/>
+        <v>mi</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="7"/>
-        <v>alzolad01</v>
+        <f t="shared" si="14"/>
+        <v>fulmemi01</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="4"/>
-        <v>w</v>
+        <f t="shared" si="11"/>
+        <v>o</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="5"/>
-        <v>woodr</v>
+        <f t="shared" si="12"/>
+        <v>odori</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="6"/>
-        <v>br</v>
+        <f t="shared" si="13"/>
+        <v>ja</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="7"/>
-        <v>woodrbr01</v>
+        <f t="shared" si="14"/>
+        <v>odorija01</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="4"/>
-        <v>b</v>
+        <f t="shared" si="11"/>
+        <v>d</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="5"/>
-        <v>burne</v>
+        <f t="shared" si="12"/>
+        <v>darvi</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="6"/>
-        <v>co</v>
+        <f t="shared" si="13"/>
+        <v>yu</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="7"/>
-        <v>burneco01</v>
+        <f t="shared" si="14"/>
+        <v>darviyu01</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="4"/>
-        <v>p</v>
+        <f t="shared" si="11"/>
+        <v>l</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="5"/>
-        <v>peral</v>
+        <f t="shared" si="12"/>
+        <v>leste</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="6"/>
-        <v>fr</v>
+        <f t="shared" si="13"/>
+        <v>jo</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="7"/>
-        <v>peralfr01</v>
+        <f t="shared" si="14"/>
+        <v>lestejo01</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="4"/>
-        <v>k</v>
+        <f t="shared" si="11"/>
+        <v>a</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="5"/>
-        <v>kelle</v>
+        <f t="shared" si="12"/>
+        <v>alzol</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="6"/>
-        <v>mi</v>
+        <f t="shared" si="13"/>
+        <v>ad</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F128" t="s">
-        <v>282</v>
+      <c r="F128" t="str">
+        <f t="shared" si="14"/>
+        <v>alzolad01</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="4"/>
-        <v>a</v>
+        <f t="shared" si="11"/>
+        <v>w</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="5"/>
-        <v>ander</v>
+        <f t="shared" si="12"/>
+        <v>woodr</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>br</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="7"/>
-        <v>anderbr04</v>
+        <f t="shared" si="14"/>
+        <v>woodrbr01</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="4"/>
-        <v>p</v>
+        <f t="shared" si="11"/>
+        <v>b</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="5"/>
-        <v>ponce</v>
+        <f t="shared" si="12"/>
+        <v>burne</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="6"/>
-        <v>da</v>
+        <f t="shared" si="13"/>
+        <v>co</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="7"/>
-        <v>ponceda01</v>
+        <f t="shared" si="14"/>
+        <v>burneco01</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B193" si="8">LOWER(LEFT(MID(A131,FIND(" ",A131)+1,256),1))</f>
-        <v>k</v>
+        <f t="shared" si="11"/>
+        <v>p</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C193" si="9">LOWER(LEFT(MID(A131,FIND(" ",A131)+1,256),5))</f>
-        <v>keuch</v>
+        <f t="shared" si="12"/>
+        <v>peral</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D193" si="10">LOWER(LEFT(A131,2))</f>
-        <v>da</v>
+        <f t="shared" si="13"/>
+        <v>fr</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F193" si="11">C131&amp;D131&amp;E131</f>
-        <v>keuchda01</v>
+        <f t="shared" si="14"/>
+        <v>peralfr01</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="8"/>
-        <v>l</v>
+        <f t="shared" si="11"/>
+        <v>k</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="9"/>
-        <v>lopez</v>
+        <f t="shared" si="12"/>
+        <v>kelle</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="10"/>
-        <v>re</v>
+        <f t="shared" si="13"/>
+        <v>mi</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F132" t="str">
-        <f t="shared" si="11"/>
-        <v>lopezre01</v>
+      <c r="F132" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="8"/>
-        <v>c</v>
+        <f t="shared" si="11"/>
+        <v>a</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="9"/>
-        <v>cease</v>
+        <f t="shared" si="12"/>
+        <v>ander</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="10"/>
-        <v>dy</v>
+        <f t="shared" si="13"/>
+        <v>br</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="11"/>
-        <v>ceasedy01</v>
+        <f t="shared" si="14"/>
+        <v>anderbr04</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="8"/>
-        <v>f</v>
+        <f t="shared" si="11"/>
+        <v>p</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="9"/>
-        <v>flahe</v>
+        <f t="shared" si="12"/>
+        <v>ponce</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="10"/>
-        <v>ja</v>
+        <f t="shared" si="13"/>
+        <v>da</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="11"/>
-        <v>flaheja01</v>
+        <f t="shared" si="14"/>
+        <v>ponceda01</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="8"/>
-        <v>o</v>
+        <f t="shared" ref="B135:B197" si="15">LOWER(LEFT(MID(A135,FIND(" ",A135)+1,256),1))</f>
+        <v>k</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="9"/>
-        <v>ovied</v>
+        <f t="shared" ref="C135:C197" si="16">LOWER(LEFT(MID(A135,FIND(" ",A135)+1,256),5))</f>
+        <v>keuch</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="10"/>
-        <v>jo</v>
+        <f t="shared" ref="D135:D197" si="17">LOWER(LEFT(A135,2))</f>
+        <v>da</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="11"/>
-        <v>oviedjo01</v>
+        <f t="shared" ref="F135:F197" si="18">C135&amp;D135&amp;E135</f>
+        <v>keuchda01</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="8"/>
-        <v>m</v>
+        <f t="shared" si="15"/>
+        <v>l</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="9"/>
-        <v>mahle</v>
+        <f t="shared" si="16"/>
+        <v>lopez</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="10"/>
-        <v>ty</v>
+        <f t="shared" si="17"/>
+        <v>re</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="11"/>
-        <v>mahlety01</v>
+        <f t="shared" si="18"/>
+        <v>lopezre01</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>c</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="9"/>
-        <v>gray</v>
+        <f t="shared" si="16"/>
+        <v>cease</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="10"/>
-        <v>so</v>
+        <f t="shared" si="17"/>
+        <v>dy</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="11"/>
-        <v>grayso01</v>
+        <f t="shared" si="18"/>
+        <v>ceasedy01</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="8"/>
-        <v>c</v>
+        <f t="shared" si="15"/>
+        <v>f</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="9"/>
-        <v>carra</v>
+        <f t="shared" si="16"/>
+        <v>flahe</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="10"/>
-        <v>ca</v>
+        <f t="shared" si="17"/>
+        <v>ja</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="11"/>
-        <v>carraca01</v>
+        <f t="shared" si="18"/>
+        <v>flaheja01</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="8"/>
-        <v>h</v>
+        <f t="shared" si="15"/>
+        <v>o</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="9"/>
-        <v>hill</v>
+        <f t="shared" si="16"/>
+        <v>ovied</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="10"/>
-        <v>ri</v>
+        <f t="shared" si="17"/>
+        <v>jo</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="11"/>
-        <v>hillri01</v>
+        <f t="shared" si="18"/>
+        <v>oviedjo01</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="8"/>
-        <v>p</v>
+        <f t="shared" si="15"/>
+        <v>m</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="9"/>
-        <v>pined</v>
+        <f t="shared" si="16"/>
+        <v>mahle</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="10"/>
-        <v>mi</v>
+        <f t="shared" si="17"/>
+        <v>ty</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="11"/>
-        <v>pinedmi01</v>
+        <f t="shared" si="18"/>
+        <v>mahlety01</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="8"/>
-        <v>n</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="9"/>
-        <v>nova</v>
+        <f t="shared" si="16"/>
+        <v>gray</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="10"/>
-        <v>iv</v>
+        <f t="shared" si="17"/>
+        <v>so</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="11"/>
-        <v>novaiv01</v>
+        <f t="shared" si="18"/>
+        <v>grayso01</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="8"/>
-        <v>m</v>
+        <f t="shared" si="15"/>
+        <v>c</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="9"/>
-        <v>mills</v>
+        <f t="shared" si="16"/>
+        <v>carra</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="10"/>
-        <v>al</v>
+        <f t="shared" si="17"/>
+        <v>ca</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="11"/>
-        <v>millsal02</v>
+        <f t="shared" si="18"/>
+        <v>carraca01</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>h</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="9"/>
-        <v>hendr</v>
+        <f t="shared" si="16"/>
+        <v>hill</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="10"/>
-        <v>ky</v>
+        <f t="shared" si="17"/>
+        <v>ri</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="11"/>
-        <v>hendrky01</v>
+        <f t="shared" si="18"/>
+        <v>hillri01</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="8"/>
-        <v>k</v>
+        <f t="shared" si="15"/>
+        <v>p</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="9"/>
-        <v>kelle</v>
+        <f t="shared" si="16"/>
+        <v>pined</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="10"/>
-        <v>br</v>
+        <f t="shared" si="17"/>
+        <v>mi</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="11"/>
-        <v>kellebr01</v>
+        <f t="shared" si="18"/>
+        <v>pinedmi01</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="8"/>
-        <v>k</v>
+        <f t="shared" si="15"/>
+        <v>n</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="9"/>
-        <v>kuhl</v>
+        <f t="shared" si="16"/>
+        <v>nova</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="10"/>
-        <v>ch</v>
+        <f t="shared" si="17"/>
+        <v>iv</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="11"/>
-        <v>kuhlch01</v>
+        <f t="shared" si="18"/>
+        <v>novaiv01</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="8"/>
-        <v>c</v>
+        <f t="shared" si="15"/>
+        <v>m</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="9"/>
-        <v>chatw</v>
+        <f t="shared" si="16"/>
+        <v>mills</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="10"/>
-        <v>ty</v>
+        <f t="shared" si="17"/>
+        <v>al</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="11"/>
-        <v>chatwty01</v>
+        <f t="shared" si="18"/>
+        <v>millsal02</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>h</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">hyun </v>
+        <f t="shared" si="16"/>
+        <v>hendr</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="10"/>
-        <v>kw</v>
+        <f t="shared" si="17"/>
+        <v>ky</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F147" t="s">
-        <v>284</v>
+      <c r="F147" t="str">
+        <f t="shared" si="18"/>
+        <v>hendrky01</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="8"/>
-        <v>m</v>
+        <f t="shared" si="15"/>
+        <v>k</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="9"/>
-        <v>musgr</v>
+        <f t="shared" si="16"/>
+        <v>kelle</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="10"/>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>br</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="11"/>
-        <v>musgrjo01</v>
+        <f t="shared" si="18"/>
+        <v>kellebr01</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="8"/>
-        <v>b</v>
+        <f t="shared" si="15"/>
+        <v>k</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="9"/>
-        <v>bruba</v>
+        <f t="shared" si="16"/>
+        <v>kuhl</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="10"/>
-        <v>jt</v>
+        <f t="shared" si="17"/>
+        <v>ch</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="11"/>
-        <v>brubajt01</v>
+        <f t="shared" si="18"/>
+        <v>kuhlch01</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="8"/>
-        <v>s</v>
+        <f t="shared" si="15"/>
+        <v>c</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="9"/>
-        <v>stiev</v>
+        <f t="shared" si="16"/>
+        <v>chatw</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="10"/>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>ty</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="11"/>
-        <v>stievjo01</v>
+        <f t="shared" si="18"/>
+        <v>chatwty01</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="8"/>
-        <v>b</v>
+        <f t="shared" si="15"/>
+        <v>h</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="9"/>
-        <v>bolan</v>
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">hyun </v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="10"/>
-        <v>ro</v>
+        <f t="shared" si="17"/>
+        <v>kw</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F151" t="str">
-        <f t="shared" si="11"/>
-        <v>bolanro01</v>
+      <c r="F151" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>m</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="9"/>
-        <v>gioli</v>
+        <f t="shared" si="16"/>
+        <v>musgr</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="10"/>
-        <v>lu</v>
+        <f t="shared" si="17"/>
+        <v>jo</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="11"/>
-        <v>giolilu01</v>
+        <f t="shared" si="18"/>
+        <v>musgrjo01</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="8"/>
-        <v>a</v>
+        <f t="shared" si="15"/>
+        <v>b</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="9"/>
-        <v>anton</v>
+        <f t="shared" si="16"/>
+        <v>bruba</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="10"/>
-        <v>te</v>
+        <f t="shared" si="17"/>
+        <v>jt</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="11"/>
-        <v>antonte01</v>
+        <f t="shared" si="18"/>
+        <v>brubajt01</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="8"/>
-        <v>j</v>
+        <f t="shared" si="15"/>
+        <v>s</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="9"/>
-        <v>junis</v>
+        <f t="shared" si="16"/>
+        <v>stiev</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="10"/>
-        <v>ja</v>
+        <f t="shared" si="17"/>
+        <v>jo</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="11"/>
-        <v>junisja01</v>
+        <f t="shared" si="18"/>
+        <v>stievjo01</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="8"/>
-        <v>d</v>
+        <f t="shared" si="15"/>
+        <v>b</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="9"/>
-        <v>dunni</v>
+        <f t="shared" si="16"/>
+        <v>bolan</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="10"/>
-        <v>da</v>
+        <f t="shared" si="17"/>
+        <v>ro</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="11"/>
-        <v>dunnida01</v>
+        <f t="shared" si="18"/>
+        <v>bolanro01</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="8"/>
-        <v>l</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="9"/>
-        <v>lucch</v>
+        <f t="shared" si="16"/>
+        <v>gioli</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="10"/>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>lu</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="11"/>
-        <v>lucchjo01</v>
+        <f t="shared" si="18"/>
+        <v>giolilu01</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="8"/>
-        <v>d</v>
+        <f t="shared" si="15"/>
+        <v>a</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" si="9"/>
-        <v>davie</v>
+        <f t="shared" si="16"/>
+        <v>anton</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="10"/>
-        <v>za</v>
+        <f t="shared" si="17"/>
+        <v>te</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="11"/>
-        <v>davieza02</v>
+        <f t="shared" si="18"/>
+        <v>antonte01</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>j</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" si="9"/>
-        <v>gausm</v>
+        <f t="shared" si="16"/>
+        <v>junis</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="10"/>
-        <v>ke</v>
+        <f t="shared" si="17"/>
+        <v>ja</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="11"/>
-        <v>gausmke01</v>
+        <f t="shared" si="18"/>
+        <v>junisja01</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
+        <f t="shared" si="15"/>
+        <v>d</v>
       </c>
       <c r="C159" t="str">
-        <f t="shared" si="9"/>
-        <v>webb</v>
+        <f t="shared" si="16"/>
+        <v>dunni</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="10"/>
-        <v>lo</v>
+        <f t="shared" si="17"/>
+        <v>da</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="11"/>
-        <v>webblo01</v>
+        <f t="shared" si="18"/>
+        <v>dunnida01</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>l</v>
       </c>
       <c r="C160" t="str">
-        <f t="shared" si="9"/>
-        <v>galle</v>
+        <f t="shared" si="16"/>
+        <v>lucch</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="10"/>
-        <v>za</v>
+        <f t="shared" si="17"/>
+        <v>jo</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="11"/>
-        <v>galleza01</v>
+        <f t="shared" si="18"/>
+        <v>lucchjo01</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
+        <f t="shared" si="15"/>
+        <v>d</v>
       </c>
       <c r="C161" t="str">
-        <f t="shared" si="9"/>
-        <v>weave</v>
+        <f t="shared" si="16"/>
+        <v>davie</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="10"/>
-        <v>lu</v>
+        <f t="shared" si="17"/>
+        <v>za</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="11"/>
-        <v>weavelu01</v>
+        <f t="shared" si="18"/>
+        <v>davieza02</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="8"/>
-        <v>a</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" si="9"/>
-        <v>allar</v>
+        <f t="shared" si="16"/>
+        <v>gausm</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="10"/>
-        <v>ko</v>
+        <f t="shared" si="17"/>
+        <v>ke</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="11"/>
-        <v>allarko01</v>
+        <f t="shared" si="18"/>
+        <v>gausmke01</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="8"/>
-        <v>b</v>
+        <f t="shared" si="15"/>
+        <v>w</v>
       </c>
       <c r="C163" t="str">
-        <f t="shared" si="9"/>
-        <v>baez</v>
+        <f t="shared" si="16"/>
+        <v>webb</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="10"/>
-        <v>mi</v>
+        <f t="shared" si="17"/>
+        <v>lo</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="11"/>
-        <v>baezmi01</v>
+        <f t="shared" si="18"/>
+        <v>webblo01</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="8"/>
-        <v>p</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C164" t="str">
-        <f t="shared" si="9"/>
-        <v>padda</v>
+        <f t="shared" si="16"/>
+        <v>galle</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="10"/>
-        <v>ch</v>
+        <f t="shared" si="17"/>
+        <v>za</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="11"/>
-        <v>paddach01</v>
+        <f t="shared" si="18"/>
+        <v>galleza01</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="8"/>
-        <v>c</v>
+        <f t="shared" si="15"/>
+        <v>w</v>
       </c>
       <c r="C165" t="str">
-        <f t="shared" si="9"/>
-        <v>canni</v>
+        <f t="shared" si="16"/>
+        <v>weave</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="10"/>
-        <v>gr</v>
+        <f t="shared" si="17"/>
+        <v>lu</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="11"/>
-        <v>cannigr01</v>
+        <f t="shared" si="18"/>
+        <v>weavelu01</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="8"/>
-        <v>b</v>
+        <f t="shared" si="15"/>
+        <v>a</v>
       </c>
       <c r="C166" t="str">
-        <f t="shared" si="9"/>
-        <v>barri</v>
+        <f t="shared" si="16"/>
+        <v>allar</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="10"/>
-        <v>ja</v>
+        <f t="shared" si="17"/>
+        <v>ko</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="11"/>
-        <v>barrija01</v>
+        <f t="shared" si="18"/>
+        <v>allarko01</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="8"/>
-        <v>h</v>
+        <f t="shared" si="15"/>
+        <v>b</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" si="9"/>
-        <v>heane</v>
+        <f t="shared" si="16"/>
+        <v>baez</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="10"/>
-        <v>an</v>
+        <f t="shared" si="17"/>
+        <v>mi</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="11"/>
-        <v>heanean01</v>
+        <f t="shared" si="18"/>
+        <v>baezmi01</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
+        <f t="shared" si="15"/>
+        <v>p</v>
       </c>
       <c r="C168" t="str">
-        <f t="shared" si="9"/>
-        <v>wood</v>
+        <f t="shared" si="16"/>
+        <v>padda</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="10"/>
-        <v>al</v>
+        <f t="shared" si="17"/>
+        <v>ch</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="11"/>
-        <v>woodal02</v>
+        <f t="shared" si="18"/>
+        <v>paddach01</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="8"/>
-        <v>m</v>
+        <f t="shared" si="15"/>
+        <v>c</v>
       </c>
       <c r="C169" t="str">
-        <f t="shared" si="9"/>
-        <v>montg</v>
+        <f t="shared" si="16"/>
+        <v>canni</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="10"/>
-        <v>mi</v>
+        <f t="shared" si="17"/>
+        <v>gr</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="11"/>
-        <v>montgmi01</v>
+        <f t="shared" si="18"/>
+        <v>cannigr01</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="8"/>
-        <v>z</v>
+        <f t="shared" si="15"/>
+        <v>b</v>
       </c>
       <c r="C170" t="str">
-        <f t="shared" si="9"/>
-        <v>zimme</v>
+        <f t="shared" si="16"/>
+        <v>barri</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="10"/>
-        <v>ky</v>
+        <f t="shared" si="17"/>
+        <v>ja</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" si="11"/>
-        <v>zimmeky01</v>
+        <f t="shared" si="18"/>
+        <v>barrija01</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>h</v>
       </c>
       <c r="C171" t="str">
-        <f t="shared" si="9"/>
-        <v>gonza</v>
+        <f t="shared" si="16"/>
+        <v>heane</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="10"/>
-        <v>gi</v>
+        <f t="shared" si="17"/>
+        <v>an</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="11"/>
-        <v>gonzagi01</v>
+        <f t="shared" si="18"/>
+        <v>heanean01</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="8"/>
-        <v>p</v>
+        <f t="shared" si="15"/>
+        <v>w</v>
       </c>
       <c r="C172" t="str">
-        <f t="shared" si="9"/>
-        <v>plutk</v>
+        <f t="shared" si="16"/>
+        <v>wood</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="10"/>
-        <v>ad</v>
+        <f t="shared" si="17"/>
+        <v>al</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="11"/>
-        <v>plutkad01</v>
+        <f t="shared" si="18"/>
+        <v>woodal02</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>m</v>
       </c>
       <c r="C173" t="str">
-        <f t="shared" si="9"/>
-        <v>mcken</v>
+        <f t="shared" si="16"/>
+        <v>montg</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="10"/>
-        <v>tr</v>
+        <f t="shared" si="17"/>
+        <v>mi</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="11"/>
-        <v>mckentr01</v>
+        <f t="shared" si="18"/>
+        <v>montgmi01</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>z</v>
       </c>
       <c r="C174" t="str">
-        <f t="shared" si="9"/>
-        <v>grave</v>
+        <f t="shared" si="16"/>
+        <v>zimme</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="10"/>
-        <v>ke</v>
+        <f t="shared" si="17"/>
+        <v>ky</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="11"/>
-        <v>graveke01</v>
+        <f t="shared" si="18"/>
+        <v>zimmeky01</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="8"/>
-        <v>c</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C175" t="str">
-        <f t="shared" si="9"/>
-        <v>corte</v>
+        <f t="shared" si="16"/>
+        <v>gonza</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="10"/>
-        <v>ne</v>
+        <f t="shared" si="17"/>
+        <v>gi</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="11"/>
-        <v>cortene01</v>
+        <f t="shared" si="18"/>
+        <v>gonzagi01</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="8"/>
-        <v>s</v>
+        <f t="shared" si="15"/>
+        <v>p</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="9"/>
-        <v>senza</v>
+        <f t="shared" si="16"/>
+        <v>plutk</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="10"/>
-        <v>an</v>
+        <f t="shared" si="17"/>
+        <v>ad</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="11"/>
-        <v>senzaan01</v>
+        <f t="shared" si="18"/>
+        <v>plutkad01</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="8"/>
-        <v>s</v>
+        <f t="shared" si="15"/>
+        <v>m</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="9"/>
-        <v>sando</v>
+        <f t="shared" si="16"/>
+        <v>mcken</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="10"/>
-        <v>pa</v>
+        <f t="shared" si="17"/>
+        <v>tr</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="11"/>
-        <v>sandopa02</v>
+        <f t="shared" si="18"/>
+        <v>mckentr01</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="8"/>
-        <v>l</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="9"/>
-        <v>luzar</v>
+        <f t="shared" si="16"/>
+        <v>grave</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="10"/>
-        <v>je</v>
+        <f t="shared" si="17"/>
+        <v>ke</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="11"/>
-        <v>luzarje01</v>
+        <f t="shared" si="18"/>
+        <v>graveke01</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>c</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="9"/>
-        <v>curti</v>
+        <f t="shared" si="16"/>
+        <v>corte</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="10"/>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>ne</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="11"/>
-        <v>curtijo02</v>
+        <f t="shared" si="18"/>
+        <v>cortene01</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>s</v>
       </c>
       <c r="C180" t="str">
-        <f t="shared" si="9"/>
-        <v>smelt</v>
+        <f t="shared" si="16"/>
+        <v>senza</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="10"/>
-        <v>de</v>
+        <f t="shared" si="17"/>
+        <v>an</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="11"/>
-        <v>smeltde01</v>
+        <f t="shared" si="18"/>
+        <v>senzaan01</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
+        <f t="shared" si="15"/>
+        <v>s</v>
       </c>
       <c r="C181" t="str">
-        <f t="shared" si="9"/>
-        <v>wisle</v>
+        <f t="shared" si="16"/>
+        <v>sando</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="10"/>
-        <v>ma</v>
+        <f t="shared" si="17"/>
+        <v>pa</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="11"/>
-        <v>wislema01</v>
+        <f t="shared" si="18"/>
+        <v>sandopa02</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
+        <f t="shared" si="15"/>
+        <v>l</v>
       </c>
       <c r="C182" t="str">
-        <f t="shared" si="9"/>
-        <v>wainw</v>
+        <f t="shared" si="16"/>
+        <v>luzar</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="10"/>
-        <v>ad</v>
+        <f t="shared" si="17"/>
+        <v>je</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="11"/>
-        <v>wainwad01</v>
+        <f t="shared" si="18"/>
+        <v>luzarje01</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>c</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" si="9"/>
-        <v>gombe</v>
+        <f t="shared" si="16"/>
+        <v>curti</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="10"/>
-        <v>au</v>
+        <f t="shared" si="17"/>
+        <v>jo</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="11"/>
-        <v>gombeau01</v>
+        <f t="shared" si="18"/>
+        <v>curtijo02</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="8"/>
-        <v>m</v>
+        <f t="shared" si="15"/>
+        <v>s</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" si="9"/>
-        <v>marti</v>
+        <f t="shared" si="16"/>
+        <v>smelt</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="10"/>
-        <v>ca</v>
+        <f t="shared" si="17"/>
+        <v>de</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="11"/>
-        <v>martica04</v>
+        <f t="shared" si="18"/>
+        <v>smeltde01</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="8"/>
-        <v>z</v>
+        <f t="shared" si="15"/>
+        <v>w</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="9"/>
-        <v>zimme</v>
+        <f t="shared" si="16"/>
+        <v>wisle</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="10"/>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>ma</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="11"/>
-        <v>zimmejo02</v>
+        <f t="shared" si="18"/>
+        <v>wislema01</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="8"/>
-        <v>s</v>
+        <f t="shared" si="15"/>
+        <v>w</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="9"/>
-        <v>smyly</v>
+        <f t="shared" si="16"/>
+        <v>wainw</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="10"/>
-        <v>dr</v>
+        <f t="shared" si="17"/>
+        <v>ad</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="11"/>
-        <v>smylydr01</v>
+        <f t="shared" si="18"/>
+        <v>wainwad01</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="8"/>
-        <v>s</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="9"/>
-        <v>samar</v>
+        <f t="shared" si="16"/>
+        <v>gombe</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="10"/>
-        <v>je</v>
+        <f t="shared" si="17"/>
+        <v>au</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="11"/>
-        <v>samarje01</v>
+        <f t="shared" si="18"/>
+        <v>gombeau01</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="8"/>
-        <v>p</v>
+        <f t="shared" si="15"/>
+        <v>m</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="9"/>
-        <v>perdo</v>
+        <f t="shared" si="16"/>
+        <v>marti</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="10"/>
-        <v>lu</v>
+        <f t="shared" si="17"/>
+        <v>ca</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="11"/>
-        <v>perdolu02</v>
+        <f t="shared" si="18"/>
+        <v>martica04</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="8"/>
-        <v>t</v>
+        <f t="shared" si="15"/>
+        <v>z</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="9"/>
-        <v>teher</v>
+        <f t="shared" si="16"/>
+        <v>zimme</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="10"/>
-        <v>ju</v>
+        <f t="shared" si="17"/>
+        <v>jo</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="11"/>
-        <v>teherju01</v>
+        <f t="shared" si="18"/>
+        <v>zimmejo02</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>s</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="9"/>
-        <v>suter</v>
+        <f t="shared" si="16"/>
+        <v>smyly</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="10"/>
-        <v>br</v>
+        <f t="shared" si="17"/>
+        <v>dr</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="11"/>
-        <v>suterbr01</v>
+        <f t="shared" si="18"/>
+        <v>smylydr01</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="8"/>
-        <v>w</v>
+        <f t="shared" si="15"/>
+        <v>s</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="9"/>
-        <v>wrigh</v>
+        <f t="shared" si="16"/>
+        <v>samar</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="10"/>
-        <v>ky</v>
+        <f t="shared" si="17"/>
+        <v>je</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="11"/>
-        <v>wrighky01</v>
+        <f t="shared" si="18"/>
+        <v>samarje01</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="8"/>
-        <v>g</v>
+        <f t="shared" si="15"/>
+        <v>p</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="9"/>
-        <v>gsell</v>
+        <f t="shared" si="16"/>
+        <v>perdo</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="10"/>
-        <v>ro</v>
+        <f t="shared" si="17"/>
+        <v>lu</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="11"/>
-        <v>gsellro01</v>
+        <f t="shared" si="18"/>
+        <v>perdolu02</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="8"/>
-        <v>o</v>
+        <f t="shared" si="15"/>
+        <v>t</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="9"/>
-        <v>oswal</v>
+        <f t="shared" si="16"/>
+        <v>teher</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="10"/>
-        <v>co</v>
+        <f t="shared" si="17"/>
+        <v>ju</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="11"/>
-        <v>oswalco01</v>
+        <f t="shared" si="18"/>
+        <v>teherju01</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B257" si="12">LOWER(LEFT(MID(A194,FIND(" ",A194)+1,256),1))</f>
-        <v>f</v>
+        <f t="shared" si="15"/>
+        <v>s</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" ref="C194:C257" si="13">LOWER(LEFT(MID(A194,FIND(" ",A194)+1,256),5))</f>
-        <v>flemi</v>
+        <f t="shared" si="16"/>
+        <v>suter</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" ref="D194:D257" si="14">LOWER(LEFT(A194,2))</f>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>br</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" ref="F194:F257" si="15">C194&amp;D194&amp;E194</f>
-        <v>flemijo01</v>
+        <f t="shared" si="18"/>
+        <v>suterbr01</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="15"/>
+        <v>w</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" si="13"/>
-        <v>merry</v>
+        <f t="shared" si="16"/>
+        <v>wrigh</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="14"/>
-        <v>ju</v>
+        <f t="shared" si="17"/>
+        <v>ky</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="15"/>
-        <v>merryju01</v>
+        <f t="shared" si="18"/>
+        <v>wrighky01</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="15"/>
+        <v>g</v>
       </c>
       <c r="C196" t="str">
-        <f t="shared" si="13"/>
-        <v>howar</v>
+        <f t="shared" si="16"/>
+        <v>gsell</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="14"/>
-        <v>sp</v>
+        <f t="shared" si="17"/>
+        <v>ro</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="15"/>
-        <v>howarsp01</v>
+        <f t="shared" si="18"/>
+        <v>gsellro01</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="12"/>
-        <v>v</v>
+        <f t="shared" si="15"/>
+        <v>o</v>
       </c>
       <c r="C197" t="str">
-        <f t="shared" si="13"/>
-        <v>velas</v>
+        <f t="shared" si="16"/>
+        <v>oswal</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="14"/>
-        <v>vi</v>
+        <f t="shared" si="17"/>
+        <v>co</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="15"/>
-        <v>velasvi01</v>
+        <f t="shared" si="18"/>
+        <v>oswalco01</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" si="12"/>
-        <v>k</v>
+        <f t="shared" ref="B198:B261" si="19">LOWER(LEFT(MID(A198,FIND(" ",A198)+1,256),1))</f>
+        <v>f</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" si="13"/>
-        <v>kickh</v>
+        <f t="shared" ref="C198:C261" si="20">LOWER(LEFT(MID(A198,FIND(" ",A198)+1,256),5))</f>
+        <v>flemi</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="14"/>
-        <v>mi</v>
+        <f t="shared" ref="D198:D261" si="21">LOWER(LEFT(A198,2))</f>
+        <v>jo</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="15"/>
-        <v>kickhmi01</v>
+        <f t="shared" ref="F198:F261" si="22">C198&amp;D198&amp;E198</f>
+        <v>flemijo01</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="12"/>
-        <v>r</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C199" t="str">
-        <f t="shared" si="13"/>
-        <v>rodon</v>
+        <f t="shared" si="20"/>
+        <v>merry</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="14"/>
-        <v>ca</v>
+        <f t="shared" si="21"/>
+        <v>ju</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="15"/>
-        <v>rodonca01</v>
+        <f t="shared" si="22"/>
+        <v>merryju01</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="12"/>
-        <v>d</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C200" t="str">
-        <f t="shared" si="13"/>
-        <v>descl</v>
+        <f t="shared" si="20"/>
+        <v>howar</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="14"/>
-        <v>an</v>
+        <f t="shared" si="21"/>
+        <v>sp</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="15"/>
-        <v>desclan01</v>
+        <f t="shared" si="22"/>
+        <v>howarsp01</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" si="12"/>
-        <v>c</v>
+        <f t="shared" si="19"/>
+        <v>v</v>
       </c>
       <c r="C201" t="str">
-        <f t="shared" si="13"/>
-        <v>clipp</v>
+        <f t="shared" si="20"/>
+        <v>velas</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="14"/>
-        <v>ty</v>
+        <f t="shared" si="21"/>
+        <v>vi</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="15"/>
-        <v>clippty01</v>
+        <f t="shared" si="22"/>
+        <v>velasvi01</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B202" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>k</v>
       </c>
       <c r="C202" t="str">
-        <f t="shared" si="13"/>
-        <v>holla</v>
+        <f t="shared" si="20"/>
+        <v>kickh</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="14"/>
-        <v>de</v>
+        <f t="shared" si="21"/>
+        <v>mi</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="15"/>
-        <v>hollade01</v>
+        <f t="shared" si="22"/>
+        <v>kickhmi01</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B203" t="str">
-        <f t="shared" si="12"/>
-        <v>u</v>
+        <f t="shared" si="19"/>
+        <v>r</v>
       </c>
       <c r="C203" t="str">
-        <f t="shared" si="13"/>
-        <v>urqui</v>
+        <f t="shared" si="20"/>
+        <v>rodon</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="14"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>ca</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="15"/>
-        <v>urquijo01</v>
+        <f t="shared" si="22"/>
+        <v>rodonca01</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B204" t="str">
-        <f t="shared" si="12"/>
-        <v>w</v>
+        <f t="shared" si="19"/>
+        <v>d</v>
       </c>
       <c r="C204" t="str">
-        <f t="shared" si="13"/>
-        <v>weber</v>
+        <f t="shared" si="20"/>
+        <v>descl</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="14"/>
-        <v>ry</v>
+        <f t="shared" si="21"/>
+        <v>an</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="15"/>
-        <v>weberry01</v>
+        <f t="shared" si="22"/>
+        <v>desclan01</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B205" t="str">
-        <f t="shared" si="12"/>
-        <v>b</v>
+        <f t="shared" si="19"/>
+        <v>c</v>
       </c>
       <c r="C205" t="str">
-        <f t="shared" si="13"/>
-        <v>brice</v>
+        <f t="shared" si="20"/>
+        <v>clipp</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="14"/>
-        <v>au</v>
+        <f t="shared" si="21"/>
+        <v>ty</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="15"/>
-        <v>briceau01</v>
+        <f t="shared" si="22"/>
+        <v>clippty01</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B206" t="str">
-        <f t="shared" si="12"/>
-        <v>r</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C206" t="str">
-        <f t="shared" si="13"/>
-        <v>richa</v>
+        <f t="shared" si="20"/>
+        <v>holla</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="14"/>
-        <v>tr</v>
+        <f t="shared" si="21"/>
+        <v>de</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="15"/>
-        <v>richatr01</v>
+        <f t="shared" si="22"/>
+        <v>hollade01</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B207" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="19"/>
+        <v>u</v>
       </c>
       <c r="C207" t="str">
-        <f t="shared" si="13"/>
-        <v>means</v>
+        <f t="shared" si="20"/>
+        <v>urqui</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>jo</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="15"/>
-        <v>meansjo01</v>
+        <f t="shared" si="22"/>
+        <v>urquijo01</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B208" t="str">
-        <f t="shared" si="12"/>
-        <v>t</v>
+        <f t="shared" si="19"/>
+        <v>w</v>
       </c>
       <c r="C208" t="str">
-        <f t="shared" si="13"/>
-        <v>thomp</v>
+        <f t="shared" si="20"/>
+        <v>weber</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>ry</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="15"/>
-        <v>thompry02</v>
+        <f t="shared" si="22"/>
+        <v>weberry01</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B209" t="str">
-        <f t="shared" si="12"/>
-        <v>s</v>
+        <f t="shared" si="19"/>
+        <v>b</v>
       </c>
       <c r="C209" t="str">
-        <f t="shared" si="13"/>
-        <v>sorok</v>
+        <f t="shared" si="20"/>
+        <v>brice</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="14"/>
-        <v>mi</v>
+        <f t="shared" si="21"/>
+        <v>au</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="15"/>
-        <v>sorokmi01</v>
+        <f t="shared" si="22"/>
+        <v>briceau01</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B210" t="str">
-        <f t="shared" si="12"/>
-        <v>n</v>
+        <f t="shared" si="19"/>
+        <v>r</v>
       </c>
       <c r="C210" t="str">
-        <f t="shared" si="13"/>
-        <v>newco</v>
+        <f t="shared" si="20"/>
+        <v>richa</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="14"/>
-        <v>se</v>
+        <f t="shared" si="21"/>
+        <v>tr</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="15"/>
-        <v>newcose01</v>
+        <f t="shared" si="22"/>
+        <v>richatr01</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B211" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>m</v>
       </c>
       <c r="C211" t="str">
-        <f t="shared" si="13"/>
-        <v>mejia</v>
+        <f t="shared" si="20"/>
+        <v>means</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="14"/>
-        <v>hu</v>
+        <f t="shared" si="21"/>
+        <v>jo</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="15"/>
-        <v>mejiahu01</v>
+        <f t="shared" si="22"/>
+        <v>meansjo01</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B212" t="str">
-        <f t="shared" si="12"/>
-        <v>c</v>
+        <f t="shared" si="19"/>
+        <v>t</v>
       </c>
       <c r="C212" t="str">
-        <f t="shared" si="13"/>
-        <v>casta</v>
+        <f t="shared" si="20"/>
+        <v>thomp</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="14"/>
-        <v>da</v>
+        <f t="shared" si="21"/>
+        <v>ry</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="15"/>
-        <v>castada01</v>
+        <f t="shared" si="22"/>
+        <v>thompry02</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B213" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>s</v>
       </c>
       <c r="C213" t="str">
-        <f t="shared" si="13"/>
-        <v>herna</v>
+        <f t="shared" si="20"/>
+        <v>sorok</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="14"/>
-        <v>el</v>
+        <f t="shared" si="21"/>
+        <v>mi</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="15"/>
-        <v>hernael01</v>
+        <f t="shared" si="22"/>
+        <v>sorokmi01</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B214" t="str">
-        <f t="shared" si="12"/>
-        <v>l</v>
+        <f t="shared" si="19"/>
+        <v>n</v>
       </c>
       <c r="C214" t="str">
-        <f t="shared" si="13"/>
-        <v>lopez</v>
+        <f t="shared" si="20"/>
+        <v>newco</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="14"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>se</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="15"/>
-        <v>lopezjo02</v>
+        <f t="shared" si="22"/>
+        <v>newcose01</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B215" t="str">
-        <f t="shared" si="12"/>
-        <v>f</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C215" t="str">
-        <f t="shared" si="13"/>
-        <v>fairb</v>
+        <f t="shared" si="20"/>
+        <v>mejia</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="14"/>
-        <v>pe</v>
+        <f t="shared" si="21"/>
+        <v>hu</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="15"/>
-        <v>fairbpe01</v>
+        <f t="shared" si="22"/>
+        <v>mejiahu01</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B216" t="str">
-        <f t="shared" si="12"/>
-        <v>b</v>
+        <f t="shared" si="19"/>
+        <v>c</v>
       </c>
       <c r="C216" t="str">
-        <f t="shared" si="13"/>
-        <v>bundy</v>
+        <f t="shared" si="20"/>
+        <v>casta</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="14"/>
-        <v>dy</v>
+        <f t="shared" si="21"/>
+        <v>da</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="15"/>
-        <v>bundydy01</v>
+        <f t="shared" si="22"/>
+        <v>castada01</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="B217" t="str">
-        <f t="shared" si="12"/>
-        <v>o</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C217" t="str">
-        <f t="shared" si="13"/>
-        <v>ohtan</v>
+        <f t="shared" si="20"/>
+        <v>herna</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="14"/>
-        <v>sh</v>
+        <f t="shared" si="21"/>
+        <v>el</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="15"/>
-        <v>ohtansh01</v>
+        <f t="shared" si="22"/>
+        <v>hernael01</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B218" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="19"/>
+        <v>l</v>
       </c>
       <c r="C218" t="str">
-        <f t="shared" si="13"/>
-        <v>minor</v>
+        <f t="shared" si="20"/>
+        <v>lopez</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="14"/>
-        <v>mi</v>
+        <f t="shared" si="21"/>
+        <v>jo</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="15"/>
-        <v>minormi01</v>
+        <f t="shared" si="22"/>
+        <v>lopezjo02</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B219" t="str">
-        <f t="shared" si="12"/>
-        <v>k</v>
+        <f t="shared" si="19"/>
+        <v>f</v>
       </c>
       <c r="C219" t="str">
-        <f t="shared" si="13"/>
-        <v>kelly</v>
+        <f t="shared" si="20"/>
+        <v>fairb</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="14"/>
-        <v>me</v>
+        <f t="shared" si="21"/>
+        <v>pe</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="15"/>
-        <v>kellyme01</v>
+        <f t="shared" si="22"/>
+        <v>fairbpe01</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" si="12"/>
-        <v>d</v>
+        <f t="shared" si="19"/>
+        <v>b</v>
       </c>
       <c r="C220" t="str">
-        <f t="shared" si="13"/>
-        <v>dugge</v>
+        <f t="shared" si="20"/>
+        <v>bundy</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="14"/>
-        <v>ro</v>
+        <f t="shared" si="21"/>
+        <v>dy</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="15"/>
-        <v>duggero01</v>
+        <f t="shared" si="22"/>
+        <v>bundydy01</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="B221" t="str">
-        <f t="shared" si="12"/>
-        <v>e</v>
+        <f t="shared" si="19"/>
+        <v>o</v>
       </c>
       <c r="C221" t="str">
-        <f t="shared" si="13"/>
-        <v>eshel</v>
+        <f t="shared" si="20"/>
+        <v>ohtan</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="14"/>
-        <v>th</v>
+        <f t="shared" si="21"/>
+        <v>sh</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F221" t="s">
-        <v>285</v>
+      <c r="F221" t="str">
+        <f t="shared" si="22"/>
+        <v>ohtansh01</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B222" t="str">
-        <f t="shared" si="12"/>
-        <v>l</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C222" t="str">
-        <f t="shared" si="13"/>
-        <v>locke</v>
+        <f t="shared" si="20"/>
+        <v>minor</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="14"/>
-        <v>wa</v>
+        <f t="shared" si="21"/>
+        <v>mi</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="15"/>
-        <v>lockewa01</v>
+        <f t="shared" si="22"/>
+        <v>minormi01</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B223" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="19"/>
+        <v>k</v>
       </c>
       <c r="C223" t="str">
-        <f t="shared" si="13"/>
-        <v>matz</v>
+        <f t="shared" si="20"/>
+        <v>kelly</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="14"/>
-        <v>st</v>
+        <f t="shared" si="21"/>
+        <v>me</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="15"/>
-        <v>matzst01</v>
+        <f t="shared" si="22"/>
+        <v>kellyme01</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B224" t="str">
-        <f t="shared" si="12"/>
-        <v>t</v>
+        <f t="shared" si="19"/>
+        <v>d</v>
       </c>
       <c r="C224" t="str">
-        <f t="shared" si="13"/>
-        <v>tomli</v>
+        <f t="shared" si="20"/>
+        <v>dugge</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="14"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>ro</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="15"/>
-        <v>tomlijo01</v>
+        <f t="shared" si="22"/>
+        <v>duggero01</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B225" t="str">
-        <f t="shared" si="12"/>
-        <v>l</v>
+        <f t="shared" si="19"/>
+        <v>e</v>
       </c>
       <c r="C225" t="str">
-        <f t="shared" si="13"/>
-        <v>lugo</v>
+        <f t="shared" si="20"/>
+        <v>eshel</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="14"/>
-        <v>se</v>
+        <f t="shared" si="21"/>
+        <v>th</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F225" t="str">
-        <f t="shared" si="15"/>
-        <v>lugose01</v>
+      <c r="F225" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B226" t="str">
-        <f t="shared" si="12"/>
-        <v>q</v>
+        <f t="shared" si="19"/>
+        <v>l</v>
       </c>
       <c r="C226" t="str">
-        <f t="shared" si="13"/>
-        <v>quint</v>
+        <f t="shared" si="20"/>
+        <v>locke</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="14"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>wa</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="15"/>
-        <v>quintjo01</v>
+        <f t="shared" si="22"/>
+        <v>lockewa01</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B227" t="str">
-        <f t="shared" si="12"/>
-        <v>c</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C227" t="str">
-        <f t="shared" si="13"/>
-        <v>chi g</v>
+        <f t="shared" si="20"/>
+        <v>matz</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="14"/>
-        <v>ch</v>
+        <f t="shared" si="21"/>
+        <v>st</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F227" t="s">
-        <v>286</v>
+      <c r="F227" t="str">
+        <f t="shared" si="22"/>
+        <v>matzst01</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B228" t="str">
-        <f t="shared" si="12"/>
-        <v>g</v>
+        <f t="shared" si="19"/>
+        <v>t</v>
       </c>
       <c r="C228" t="str">
-        <f t="shared" si="13"/>
-        <v>grate</v>
+        <f t="shared" si="20"/>
+        <v>tomli</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="14"/>
-        <v>br</v>
+        <f t="shared" si="21"/>
+        <v>jo</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="15"/>
-        <v>gratebr01</v>
+        <f t="shared" si="22"/>
+        <v>tomlijo01</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B229" t="str">
-        <f t="shared" si="12"/>
-        <v>p</v>
+        <f t="shared" si="19"/>
+        <v>l</v>
       </c>
       <c r="C229" t="str">
-        <f t="shared" si="13"/>
-        <v>patin</v>
+        <f t="shared" si="20"/>
+        <v>lugo</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="14"/>
-        <v>lu</v>
+        <f t="shared" si="21"/>
+        <v>se</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="15"/>
-        <v>patinlu01</v>
+        <f t="shared" si="22"/>
+        <v>lugose01</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B230" t="str">
-        <f t="shared" si="12"/>
-        <v>s</v>
+        <f t="shared" si="19"/>
+        <v>q</v>
       </c>
       <c r="C230" t="str">
-        <f t="shared" si="13"/>
-        <v>suare</v>
+        <f t="shared" si="20"/>
+        <v>quint</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>jo</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="15"/>
-        <v>suarejo01</v>
+        <f t="shared" si="22"/>
+        <v>quintjo01</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B231" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>c</v>
       </c>
       <c r="C231" t="str">
-        <f t="shared" si="13"/>
-        <v>clark</v>
+        <f t="shared" si="20"/>
+        <v>chi g</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="14"/>
-        <v>ta</v>
+        <f t="shared" si="21"/>
+        <v>ch</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F231" t="str">
-        <f t="shared" si="15"/>
-        <v>clarkta01</v>
+      <c r="F231" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B232" t="str">
-        <f t="shared" si="12"/>
-        <v>n</v>
+        <f t="shared" si="19"/>
+        <v>g</v>
       </c>
       <c r="C232" t="str">
-        <f t="shared" si="13"/>
-        <v>newso</v>
+        <f t="shared" si="20"/>
+        <v>grate</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="14"/>
-        <v>lj</v>
+        <f t="shared" si="21"/>
+        <v>br</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="15"/>
-        <v>newsolj01</v>
+        <f t="shared" si="22"/>
+        <v>gratebr01</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B233" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="19"/>
+        <v>p</v>
       </c>
       <c r="C233" t="str">
-        <f t="shared" si="13"/>
-        <v>morej</v>
+        <f t="shared" si="20"/>
+        <v>patin</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="14"/>
-        <v>ad</v>
+        <f t="shared" si="21"/>
+        <v>lu</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="15"/>
-        <v>morejad01</v>
+        <f t="shared" si="22"/>
+        <v>patinlu01</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B234" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="19"/>
+        <v>s</v>
       </c>
       <c r="C234" t="str">
-        <f t="shared" si="13"/>
-        <v>miley</v>
+        <f t="shared" si="20"/>
+        <v>suare</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="14"/>
-        <v>wa</v>
+        <f t="shared" si="21"/>
+        <v>jo</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" si="15"/>
-        <v>mileywa01</v>
+        <f t="shared" si="22"/>
+        <v>suarejo01</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B235" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>c</v>
       </c>
       <c r="C235" t="str">
-        <f t="shared" si="13"/>
-        <v>harve</v>
+        <f t="shared" si="20"/>
+        <v>clark</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="14"/>
-        <v>ma</v>
+        <f t="shared" si="21"/>
+        <v>ta</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="15"/>
-        <v>harvema01</v>
+        <f t="shared" si="22"/>
+        <v>clarkta01</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B236" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>n</v>
       </c>
       <c r="C236" t="str">
-        <f t="shared" si="13"/>
-        <v>hatch</v>
+        <f t="shared" si="20"/>
+        <v>newso</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="14"/>
-        <v>to</v>
+        <f t="shared" si="21"/>
+        <v>lj</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="15"/>
-        <v>hatchto01</v>
+        <f t="shared" si="22"/>
+        <v>newsolj01</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B237" t="str">
-        <f t="shared" si="12"/>
-        <v>f</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C237" t="str">
-        <f t="shared" si="13"/>
-        <v>folty</v>
+        <f t="shared" si="20"/>
+        <v>morej</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="14"/>
-        <v>mi</v>
+        <f t="shared" si="21"/>
+        <v>ad</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="15"/>
-        <v>foltymi01</v>
+        <f t="shared" si="22"/>
+        <v>morejad01</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B238" t="str">
-        <f t="shared" si="12"/>
-        <v>p</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C238" t="str">
-        <f t="shared" si="13"/>
-        <v>paxto</v>
+        <f t="shared" si="20"/>
+        <v>miley</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="14"/>
-        <v>ja</v>
+        <f t="shared" si="21"/>
+        <v>wa</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="15"/>
-        <v>paxtoja01</v>
+        <f t="shared" si="22"/>
+        <v>mileywa01</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B239" t="str">
-        <f t="shared" si="12"/>
-        <v>t</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C239" t="str">
-        <f t="shared" si="13"/>
-        <v>thorn</v>
+        <f t="shared" si="20"/>
+        <v>harve</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="14"/>
-        <v>tr</v>
+        <f t="shared" si="21"/>
+        <v>ma</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="15"/>
-        <v>thorntr01</v>
+        <f t="shared" si="22"/>
+        <v>harvema01</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B240" t="str">
-        <f t="shared" si="12"/>
-        <v>w</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C240" t="str">
-        <f t="shared" si="13"/>
-        <v>wojci</v>
+        <f t="shared" si="20"/>
+        <v>hatch</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="14"/>
-        <v>as</v>
+        <f t="shared" si="21"/>
+        <v>to</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="15"/>
-        <v>wojcias01</v>
+        <f t="shared" si="22"/>
+        <v>hatchto01</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B241" t="str">
-        <f t="shared" si="12"/>
-        <v>t</v>
+        <f t="shared" si="19"/>
+        <v>f</v>
       </c>
       <c r="C241" t="str">
-        <f t="shared" si="13"/>
-        <v>trigg</v>
+        <f t="shared" si="20"/>
+        <v>folty</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="14"/>
-        <v>an</v>
+        <f t="shared" si="21"/>
+        <v>mi</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="15"/>
-        <v>triggan01</v>
+        <f t="shared" si="22"/>
+        <v>foltymi01</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B242" t="str">
-        <f t="shared" si="12"/>
-        <v>d</v>
+        <f t="shared" si="19"/>
+        <v>p</v>
       </c>
       <c r="C242" t="str">
-        <f t="shared" si="13"/>
-        <v>de jo</v>
+        <f t="shared" si="20"/>
+        <v>paxto</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="14"/>
-        <v>ch</v>
+        <f t="shared" si="21"/>
+        <v>ja</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F242" t="s">
-        <v>287</v>
+      <c r="F242" t="str">
+        <f t="shared" si="22"/>
+        <v>paxtoja01</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B243" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>t</v>
       </c>
       <c r="C243" t="str">
-        <f t="shared" si="13"/>
-        <v>hart</v>
+        <f t="shared" si="20"/>
+        <v>thorn</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="14"/>
-        <v>ky</v>
+        <f t="shared" si="21"/>
+        <v>tr</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="15"/>
-        <v>hartky01</v>
+        <f t="shared" si="22"/>
+        <v>thorntr01</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B244" t="str">
-        <f t="shared" si="12"/>
-        <v>k</v>
+        <f t="shared" si="19"/>
+        <v>w</v>
       </c>
       <c r="C244" t="str">
-        <f t="shared" si="13"/>
-        <v>king</v>
+        <f t="shared" si="20"/>
+        <v>wojci</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="14"/>
-        <v>mi</v>
+        <f t="shared" si="21"/>
+        <v>as</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="15"/>
-        <v>kingmi01</v>
+        <f t="shared" si="22"/>
+        <v>wojcias01</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B245" t="str">
-        <f t="shared" si="12"/>
-        <v>l</v>
+        <f t="shared" si="19"/>
+        <v>t</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="13"/>
-        <v>loais</v>
+        <f t="shared" si="20"/>
+        <v>trigg</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="14"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>an</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="15"/>
-        <v>loaisjo01</v>
+        <f t="shared" si="22"/>
+        <v>triggan01</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B246" t="str">
-        <f t="shared" si="12"/>
-        <v>a</v>
+        <f t="shared" si="19"/>
+        <v>d</v>
       </c>
       <c r="C246" t="str">
-        <f t="shared" si="13"/>
-        <v>andri</v>
+        <f t="shared" si="20"/>
+        <v>de jo</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="14"/>
-        <v>ma</v>
+        <f t="shared" si="21"/>
+        <v>ch</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F246" t="str">
-        <f t="shared" si="15"/>
-        <v>andrima01</v>
+      <c r="F246" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B247" t="str">
-        <f t="shared" si="12"/>
-        <v>w</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C247" t="str">
-        <f t="shared" si="13"/>
-        <v>wilso</v>
+        <f t="shared" si="20"/>
+        <v>hart</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="14"/>
-        <v>br</v>
+        <f t="shared" si="21"/>
+        <v>ky</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="15"/>
-        <v>wilsobr02</v>
+        <f t="shared" si="22"/>
+        <v>hartky01</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B248" t="str">
-        <f t="shared" si="12"/>
-        <v>d</v>
+        <f t="shared" si="19"/>
+        <v>k</v>
       </c>
       <c r="C248" t="str">
-        <f t="shared" si="13"/>
-        <v>david</v>
+        <f t="shared" si="20"/>
+        <v>king</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="14"/>
-        <v>tu</v>
+        <f t="shared" si="21"/>
+        <v>mi</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="15"/>
-        <v>davidtu01</v>
+        <f t="shared" si="22"/>
+        <v>kingmi01</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B249" t="str">
-        <f t="shared" si="12"/>
-        <v>m</v>
+        <f t="shared" si="19"/>
+        <v>l</v>
       </c>
       <c r="C249" t="str">
-        <f t="shared" si="13"/>
-        <v>minte</v>
+        <f t="shared" si="20"/>
+        <v>loais</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="14"/>
-        <v>a.</v>
+        <f t="shared" si="21"/>
+        <v>jo</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F249" t="s">
-        <v>288</v>
+      <c r="F249" t="str">
+        <f t="shared" si="22"/>
+        <v>loaisjo01</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B250" t="str">
-        <f t="shared" si="12"/>
-        <v>o</v>
+        <f t="shared" si="19"/>
+        <v>a</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" si="13"/>
-        <v>osich</v>
+        <f t="shared" si="20"/>
+        <v>andri</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="14"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>ma</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="15"/>
-        <v>osichjo01</v>
+        <f t="shared" si="22"/>
+        <v>andrima01</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B251" t="str">
-        <f t="shared" si="12"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>w</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="13"/>
-        <v>hall</v>
+        <f t="shared" si="20"/>
+        <v>wilso</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="14"/>
-        <v>ma</v>
+        <f t="shared" si="21"/>
+        <v>br</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>277</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="15"/>
-        <v>hallma02</v>
+        <f t="shared" si="22"/>
+        <v>wilsobr02</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B252" t="str">
-        <f t="shared" si="12"/>
-        <v>b</v>
+        <f t="shared" si="19"/>
+        <v>d</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="13"/>
-        <v>brasi</v>
+        <f t="shared" si="20"/>
+        <v>david</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="14"/>
-        <v>ry</v>
+        <f t="shared" si="21"/>
+        <v>tu</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="15"/>
-        <v>brasiry01</v>
+        <f t="shared" si="22"/>
+        <v>davidtu01</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B253" t="str">
-        <f t="shared" si="12"/>
-        <v>l</v>
+        <f t="shared" si="19"/>
+        <v>m</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="13"/>
-        <v>leyer</v>
+        <f t="shared" si="20"/>
+        <v>minte</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="14"/>
-        <v>ro</v>
+        <f t="shared" si="21"/>
+        <v>a.</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F253" t="str">
-        <f t="shared" si="15"/>
-        <v>leyerro01</v>
+      <c r="F253" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B254" t="str">
-        <f t="shared" si="12"/>
-        <v>f</v>
+        <f t="shared" si="19"/>
+        <v>o</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="13"/>
-        <v>foste</v>
+        <f t="shared" si="20"/>
+        <v>osich</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="14"/>
-        <v>ma</v>
+        <f t="shared" si="21"/>
+        <v>jo</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="15"/>
-        <v>fostema01</v>
+        <f t="shared" si="22"/>
+        <v>osichjo01</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" si="12"/>
-        <v>r</v>
+        <f t="shared" si="19"/>
+        <v>h</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="13"/>
-        <v>rea</v>
+        <f t="shared" si="20"/>
+        <v>hall</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="14"/>
-        <v>co</v>
+        <f t="shared" si="21"/>
+        <v>ma</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F255" t="str">
-        <f t="shared" si="15"/>
-        <v>reaco01</v>
+        <f t="shared" si="22"/>
+        <v>hallma02</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="12"/>
-        <v>l</v>
+        <f t="shared" si="19"/>
+        <v>b</v>
       </c>
       <c r="C256" t="str">
-        <f t="shared" si="13"/>
-        <v>loren</v>
+        <f t="shared" si="20"/>
+        <v>brasi</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="14"/>
-        <v>mi</v>
+        <f t="shared" si="21"/>
+        <v>ry</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="15"/>
-        <v>lorenmi01</v>
+        <f t="shared" si="22"/>
+        <v>brasiry01</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="12"/>
-        <v>g</v>
+        <f t="shared" si="19"/>
+        <v>l</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" si="13"/>
-        <v>garci</v>
+        <f t="shared" si="20"/>
+        <v>leyer</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>ro</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="15"/>
-        <v>garciro03</v>
+        <f t="shared" si="22"/>
+        <v>leyerro01</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" ref="B258:B273" si="16">LOWER(LEFT(MID(A258,FIND(" ",A258)+1,256),1))</f>
-        <v>a</v>
+        <f t="shared" si="19"/>
+        <v>f</v>
       </c>
       <c r="C258" t="str">
-        <f t="shared" ref="C258:C273" si="17">LOWER(LEFT(MID(A258,FIND(" ",A258)+1,256),5))</f>
-        <v>alexa</v>
+        <f t="shared" si="20"/>
+        <v>foste</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" ref="D258:D273" si="18">LOWER(LEFT(A258,2))</f>
-        <v>ty</v>
+        <f t="shared" si="21"/>
+        <v>ma</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" ref="F258:F272" si="19">C258&amp;D258&amp;E258</f>
-        <v>alexaty01</v>
+        <f t="shared" si="22"/>
+        <v>fostema01</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" si="16"/>
-        <v>v</v>
+        <f t="shared" si="19"/>
+        <v>r</v>
       </c>
       <c r="C259" t="str">
-        <f t="shared" si="17"/>
-        <v>verla</v>
+        <f t="shared" si="20"/>
+        <v>rea</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="18"/>
-        <v>ju</v>
+        <f t="shared" si="21"/>
+        <v>co</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="19"/>
-        <v>verlaju01</v>
+        <f t="shared" si="22"/>
+        <v>reaco01</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" si="16"/>
-        <v>h</v>
+        <f t="shared" si="19"/>
+        <v>l</v>
       </c>
       <c r="C260" t="str">
-        <f t="shared" si="17"/>
-        <v>herna</v>
+        <f t="shared" si="20"/>
+        <v>loren</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="18"/>
-        <v>ca</v>
+        <f t="shared" si="21"/>
+        <v>mi</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="19"/>
-        <v>hernaca04</v>
+        <f t="shared" si="22"/>
+        <v>lorenmi01</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B261" t="str">
-        <f t="shared" si="16"/>
-        <v>k</v>
+        <f t="shared" si="19"/>
+        <v>g</v>
       </c>
       <c r="C261" t="str">
-        <f t="shared" si="17"/>
-        <v>kelly</v>
+        <f t="shared" si="20"/>
+        <v>garci</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="18"/>
-        <v>jo</v>
+        <f t="shared" si="21"/>
+        <v>ro</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="19"/>
-        <v>kellyjo05</v>
+        <f t="shared" si="22"/>
+        <v>garciro03</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="16"/>
-        <v>g</v>
+        <f t="shared" ref="B262:B277" si="23">LOWER(LEFT(MID(A262,FIND(" ",A262)+1,256),1))</f>
+        <v>a</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" si="17"/>
-        <v>gonza</v>
+        <f t="shared" ref="C262:C277" si="24">LOWER(LEFT(MID(A262,FIND(" ",A262)+1,256),5))</f>
+        <v>alexa</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="18"/>
-        <v>vi</v>
+        <f t="shared" ref="D262:D277" si="25">LOWER(LEFT(A262,2))</f>
+        <v>ty</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="19"/>
-        <v>gonzavi02</v>
+        <f t="shared" ref="F262:F276" si="26">C262&amp;D262&amp;E262</f>
+        <v>alexaty01</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="16"/>
-        <v>l</v>
+        <f t="shared" si="23"/>
+        <v>v</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" si="17"/>
-        <v>lauer</v>
+        <f t="shared" si="24"/>
+        <v>verla</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="18"/>
-        <v>er</v>
+        <f t="shared" si="25"/>
+        <v>ju</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="19"/>
-        <v>lauerer01</v>
+        <f t="shared" si="26"/>
+        <v>verlaju01</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" si="16"/>
-        <v>b</v>
+        <f t="shared" si="23"/>
+        <v>h</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" si="17"/>
-        <v>baile</v>
+        <f t="shared" si="24"/>
+        <v>herna</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="18"/>
-        <v>ho</v>
+        <f t="shared" si="25"/>
+        <v>ca</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="19"/>
-        <v>baileho02</v>
+        <f t="shared" si="26"/>
+        <v>hernaca04</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B265" t="str">
-        <f t="shared" si="16"/>
-        <v>t</v>
+        <f t="shared" si="23"/>
+        <v>k</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="17"/>
-        <v>thorp</v>
+        <f t="shared" si="24"/>
+        <v>kelly</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="18"/>
-        <v>le</v>
+        <f t="shared" si="25"/>
+        <v>jo</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="19"/>
-        <v>thorple01</v>
+        <f t="shared" si="26"/>
+        <v>kellyjo05</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B266" t="str">
-        <f t="shared" si="16"/>
-        <v>s</v>
+        <f t="shared" si="23"/>
+        <v>g</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="17"/>
-        <v>schmi</v>
+        <f t="shared" si="24"/>
+        <v>gonza</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="18"/>
-        <v>cl</v>
+        <f t="shared" si="25"/>
+        <v>vi</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="19"/>
-        <v>schmicl01</v>
+        <f t="shared" si="26"/>
+        <v>gonzavi02</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B267" t="str">
-        <f t="shared" si="16"/>
-        <v>m</v>
+        <f t="shared" si="23"/>
+        <v>l</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="17"/>
-        <v>mengd</v>
+        <f t="shared" si="24"/>
+        <v>lauer</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="18"/>
-        <v>da</v>
+        <f t="shared" si="25"/>
+        <v>er</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="19"/>
-        <v>mengdda01</v>
+        <f t="shared" si="26"/>
+        <v>lauerer01</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B268" t="str">
-        <f t="shared" si="16"/>
-        <v>m</v>
+        <f t="shared" si="23"/>
+        <v>b</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" si="17"/>
-        <v>medin</v>
+        <f t="shared" si="24"/>
+        <v>baile</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="18"/>
-        <v>ad</v>
+        <f t="shared" si="25"/>
+        <v>ho</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="19"/>
-        <v>medinad01</v>
+        <f t="shared" si="26"/>
+        <v>baileho02</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B269" t="str">
-        <f t="shared" si="16"/>
-        <v>s</v>
+        <f t="shared" si="23"/>
+        <v>t</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" si="17"/>
-        <v>stamm</v>
+        <f t="shared" si="24"/>
+        <v>thorp</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="18"/>
-        <v>cr</v>
+        <f t="shared" si="25"/>
+        <v>le</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="19"/>
-        <v>stammcr01</v>
+        <f t="shared" si="26"/>
+        <v>thorple01</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B270" t="str">
-        <f t="shared" si="16"/>
-        <v>b</v>
+        <f t="shared" si="23"/>
+        <v>s</v>
       </c>
       <c r="C270" t="str">
-        <f t="shared" si="17"/>
-        <v>barag</v>
+        <f t="shared" si="24"/>
+        <v>schmi</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="18"/>
-        <v>ca</v>
+        <f t="shared" si="25"/>
+        <v>cl</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="19"/>
-        <v>baragca01</v>
+        <f t="shared" si="26"/>
+        <v>schmicl01</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B271" t="str">
-        <f t="shared" si="16"/>
-        <v>s</v>
+        <f t="shared" si="23"/>
+        <v>m</v>
       </c>
       <c r="C271" t="str">
-        <f t="shared" si="17"/>
-        <v>slege</v>
+        <f t="shared" si="24"/>
+        <v>mengd</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="18"/>
-        <v>aa</v>
+        <f t="shared" si="25"/>
+        <v>da</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="19"/>
-        <v>slegeaa01</v>
+        <f t="shared" si="26"/>
+        <v>mengdda01</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B272" t="str">
-        <f t="shared" si="16"/>
-        <v>k</v>
+        <f t="shared" si="23"/>
+        <v>m</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" si="17"/>
-        <v>klube</v>
+        <f t="shared" si="24"/>
+        <v>medin</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="18"/>
-        <v>co</v>
+        <f t="shared" si="25"/>
+        <v>ad</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="19"/>
-        <v>klubeco01</v>
+        <f t="shared" si="26"/>
+        <v>medinad01</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="23"/>
+        <v>s</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="24"/>
+        <v>stamm</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="25"/>
+        <v>cr</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="26"/>
+        <v>stammcr01</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="23"/>
+        <v>b</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="24"/>
+        <v>barag</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="25"/>
+        <v>ca</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="26"/>
+        <v>baragca01</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="23"/>
+        <v>s</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="24"/>
+        <v>slege</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="25"/>
+        <v>aa</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="26"/>
+        <v>slegeaa01</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="23"/>
+        <v>k</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="24"/>
+        <v>klube</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="25"/>
+        <v>co</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="26"/>
+        <v>klubeco01</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
-      <c r="B273" t="str">
-        <f t="shared" si="16"/>
+      <c r="B277" t="str">
+        <f t="shared" si="23"/>
         <v>z</v>
       </c>
-      <c r="C273" t="str">
-        <f t="shared" si="17"/>
+      <c r="C277" t="str">
+        <f t="shared" si="24"/>
         <v>zeuch</v>
       </c>
-      <c r="D273" t="str">
-        <f t="shared" si="18"/>
+      <c r="D277" t="str">
+        <f t="shared" si="25"/>
         <v>t.</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F273" t="s">
+      <c r="E277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F277" t="s">
         <v>290</v>
       </c>
     </row>

--- a/input/2021_pitcher_BR_link_database.xlsx
+++ b/input/2021_pitcher_BR_link_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="301">
   <si>
     <t>Shohei Ohtani</t>
   </si>
@@ -910,6 +910,18 @@
   </si>
   <si>
     <t>Chris Flexen</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>Jeff Hoffman</t>
+  </si>
+  <si>
+    <t>Bruce Zimmermann</t>
+  </si>
+  <si>
+    <t>Taylor Widener</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1373,1249 +1385,1250 @@
         <v>293</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B5" si="0">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),1))</f>
+        <f t="shared" ref="B3:B9" si="0">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),1))</f>
         <v>a</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C5" si="1">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),5))</f>
+        <f t="shared" ref="C3:C9" si="1">LOWER(LEFT(MID(A3,FIND(" ",A3)+1,256),5))</f>
         <v>ariha</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="2">LOWER(LEFT(A3,2))</f>
+        <f t="shared" ref="D3:D9" si="2">LOWER(LEFT(A3,2))</f>
         <v>ko</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F5" si="3">C3&amp;D3&amp;E3</f>
+        <f t="shared" ref="F3:F9" si="3">C3&amp;D3&amp;E3</f>
         <v>arihako01</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>i</v>
+        <v>g</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
-        <v>irvin</v>
+        <v>germa</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>co</v>
+        <v>do</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="3"/>
-        <v>irvinco01</v>
+        <v>germado01</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>f</v>
+        <v>h</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
-        <v>flexe</v>
+        <v>hoffm</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>ch</v>
+        <v>je</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="3"/>
-        <v>flexech01</v>
+        <v>hoffmje02</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" ref="B6" si="4">LOWER(LEFT(MID(A6,FIND(" ",A6)+1,256),1))</f>
-        <v>m</v>
+        <f t="shared" si="0"/>
+        <v>z</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6" si="5">LOWER(LEFT(MID(A6,FIND(" ",A6)+1,256),5))</f>
-        <v>mccul</v>
+        <f t="shared" si="1"/>
+        <v>zimme</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6" si="6">LOWER(LEFT(A6,2))</f>
-        <v>la</v>
+        <f t="shared" si="2"/>
+        <v>br</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>zimmebr02</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ref="B7:B70" si="7">LOWER(LEFT(MID(A7,FIND(" ",A7)+1,256),1))</f>
-        <v>d</v>
+        <f t="shared" si="0"/>
+        <v>w</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C70" si="8">LOWER(LEFT(MID(A7,FIND(" ",A7)+1,256),5))</f>
-        <v>dunn</v>
+        <f t="shared" si="1"/>
+        <v>widen</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ref="D7:D70" si="9">LOWER(LEFT(A7,2))</f>
-        <v>ju</v>
+        <f t="shared" si="2"/>
+        <v>ta</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F70" si="10">C7&amp;D7&amp;E7</f>
-        <v>dunnju01</v>
+        <f t="shared" si="3"/>
+        <v>widenta01</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>irvin</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>co</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>irvinco01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>f</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>flexe</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>ch</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>flexech01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ref="B10" si="4">LOWER(LEFT(MID(A10,FIND(" ",A10)+1,256),1))</f>
+        <v>m</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10" si="5">LOWER(LEFT(MID(A10,FIND(" ",A10)+1,256),5))</f>
+        <v>mccul</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10" si="6">LOWER(LEFT(A10,2))</f>
+        <v>la</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ref="B11:B74" si="7">LOWER(LEFT(MID(A11,FIND(" ",A11)+1,256),1))</f>
+        <v>d</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:C74" si="8">LOWER(LEFT(MID(A11,FIND(" ",A11)+1,256),5))</f>
+        <v>dunn</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D74" si="9">LOWER(LEFT(A11,2))</f>
+        <v>ju</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11:F74" si="10">C11&amp;D11&amp;E11</f>
+        <v>dunnju01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B12" t="str">
         <f t="shared" si="7"/>
         <v>g</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="8"/>
         <v>gonza</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="9"/>
         <v>ma</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="10"/>
         <v>gonzama02</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B13" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="8"/>
         <v>mccul</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="9"/>
         <v>la</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B14" t="str">
         <f t="shared" si="7"/>
         <v>g</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="8"/>
         <v>grein</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="9"/>
         <v>za</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="10"/>
         <v>greinza01</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B15" t="str">
         <f t="shared" si="7"/>
         <v>j</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="8"/>
         <v>james</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="9"/>
         <v>jo</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="10"/>
         <v>jamesjo02</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="8"/>
         <v>manae</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="9"/>
         <v>se</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="10"/>
         <v>manaese01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B17" t="str">
         <f t="shared" si="7"/>
         <v>f</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="8"/>
         <v>fiers</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="9"/>
         <v>mi</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="str">
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="10"/>
         <v>fiersmi01</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B18" t="str">
         <f t="shared" si="7"/>
         <v>b</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="8"/>
         <v>bassi</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="9"/>
         <v>ch</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="10"/>
         <v>bassich01</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="7"/>
         <v>k</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="8"/>
         <v>kersh</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="9"/>
         <v>cl</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="10"/>
         <v>kershcl01</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="7"/>
         <v>b</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="8"/>
         <v>buehl</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="9"/>
         <v>wa</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="10"/>
         <v>buehlwa01</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="8"/>
         <v>may</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="9"/>
         <v>du</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="10"/>
         <v>maydu01</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="7"/>
         <v>a</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="8"/>
         <v>ander</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="9"/>
         <v>ty</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="10"/>
         <v>anderty01</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="8"/>
         <v>cahil</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="9"/>
         <v>tr</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="10"/>
         <v>cahiltr01</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="8"/>
         <v>marge</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="9"/>
         <v>ni</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="10"/>
         <v>margeni01</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="7"/>
         <v>l</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="8"/>
         <v>lamet</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="9"/>
         <v>di</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="10"/>
         <v>lametdi01</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="8"/>
         <v>clevi</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="9"/>
         <v>mi</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="10"/>
         <v>clevimi01</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="7"/>
         <v>v</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="8"/>
         <v>valde</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="9"/>
         <v>fr</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="10"/>
         <v>valdefr01</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="7"/>
         <v>b</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="8"/>
         <v>bumga</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="9"/>
         <v>ma</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="str">
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="10"/>
         <v>bumgama01</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="7"/>
         <v>s</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="8"/>
         <v>smith</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="9"/>
         <v>ca</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="10"/>
         <v>smithca03</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="7"/>
         <v>y</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="8"/>
         <v>young</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="9"/>
         <v>al</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="10"/>
         <v>youngal01</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="7"/>
         <v>h</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="8"/>
         <v>herge</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="9"/>
         <v>ji</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="10"/>
         <v>hergeji01</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="7"/>
         <v>l</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="8"/>
         <v>lynn</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="9"/>
         <v>la</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="str">
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="10"/>
         <v>lynnla01</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B33" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="8"/>
         <v>cody</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="9"/>
         <v>ky</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="str">
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="10"/>
         <v>codyky01</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="7"/>
         <v>g</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="8"/>
         <v>gibso</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="9"/>
         <v>ky</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="10"/>
         <v>gibsoky01</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="7"/>
         <v>s</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="8"/>
         <v>strip</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="9"/>
         <v>ro</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="10"/>
         <v>stripro01</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="7"/>
         <v>g</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="8"/>
         <v>gonso</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="9"/>
         <v>to</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="10"/>
         <v>gonsoto01</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="7"/>
         <v>u</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="8"/>
         <v>urias</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="9"/>
         <v>ju</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="10"/>
         <v>uriasju01</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B38" t="str">
         <f t="shared" si="7"/>
         <v>j</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="8"/>
         <v>javie</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="9"/>
         <v>cr</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="10"/>
         <v>javiecr01</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B39" t="str">
         <f t="shared" si="7"/>
         <v>b</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="8"/>
         <v>biela</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="9"/>
         <v>br</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="10"/>
         <v>bielabr01</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B40" t="str">
         <f t="shared" si="7"/>
         <v>q</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="8"/>
         <v>quant</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="9"/>
         <v>ca</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" t="str">
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="10"/>
         <v>quantca01</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B41" t="str">
         <f t="shared" si="7"/>
         <v>r</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="8"/>
         <v>richa</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="9"/>
         <v>ga</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="10"/>
         <v>richaga01</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B42" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="8"/>
         <v>monta</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="9"/>
         <v>fr</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="10"/>
         <v>montafr02</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B43" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="8"/>
         <v>caste</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="9"/>
         <v>ry</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="str">
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="10"/>
         <v>castery01</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B44" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="8"/>
         <v>marqu</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="9"/>
         <v>ge</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="str">
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="10"/>
         <v>marquge01</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B45" t="str">
         <f t="shared" si="7"/>
         <v>g</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="8"/>
         <v>gray</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="9"/>
         <v>jo</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F45" t="str">
         <f t="shared" si="10"/>
         <v>grayjo02</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B46" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="8"/>
         <v>cueto</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="9"/>
         <v>jo</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="str">
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="10"/>
         <v>cuetojo01</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B47" t="str">
         <f t="shared" si="7"/>
         <v>k</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="8"/>
         <v>kikuc</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="9"/>
         <v>yu</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" t="str">
+      <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="10"/>
         <v>kikucyu01</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B48" t="str">
         <f t="shared" si="7"/>
         <v>l</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="8"/>
         <v>lyles</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="9"/>
         <v>jo</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" t="str">
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="10"/>
         <v>lylesjo01</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B49" t="str">
         <f t="shared" si="7"/>
         <v>b</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="8"/>
         <v>benja</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="9"/>
         <v>we</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="str">
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="10"/>
         <v>benjawe01</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B50" t="str">
         <f t="shared" si="7"/>
         <v>f</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="8"/>
         <v>freel</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="9"/>
         <v>ky</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="10"/>
         <v>freelky01</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B51" t="str">
         <f t="shared" si="7"/>
         <v>m</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="8"/>
         <v>morto</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="9"/>
         <v>ch</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="10"/>
         <v>mortoch02</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B52" t="str">
         <f t="shared" si="7"/>
         <v>y</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="8"/>
         <v>yarbr</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="9"/>
         <v>ry</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="10"/>
         <v>yarbrry01</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B53" t="str">
         <f t="shared" si="7"/>
         <v>p</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="8"/>
         <v>porce</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D53" t="str">
         <f t="shared" si="9"/>
         <v>ri</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="10"/>
         <v>porceri01</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B54" t="str">
         <f t="shared" si="7"/>
         <v>w</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="8"/>
         <v>wacha</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D54" t="str">
         <f t="shared" si="9"/>
         <v>mi</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="10"/>
         <v>wachami01</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="7"/>
-        <v>p</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="8"/>
-        <v>peter</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="9"/>
-        <v>da</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="10"/>
-        <v>peterda01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="7"/>
-        <v>d</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="8"/>
-        <v>degro</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="9"/>
-        <v>ja</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="10"/>
-        <v>degroja01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="7"/>
-        <v>s</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="8"/>
-        <v>shoem</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="9"/>
-        <v>ma</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="10"/>
-        <v>shoemma01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>292</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="7"/>
-        <v>r</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="8"/>
-        <v>ryu</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="9"/>
-        <v>hy</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" t="s">
-        <v>280</v>
-      </c>
-    </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="7"/>
@@ -2623,367 +2636,366 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="8"/>
-        <v>pears</v>
+        <v>peter</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="9"/>
-        <v>na</v>
+        <v>da</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="10"/>
-        <v>pearsna01</v>
+        <v>peterda01</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="7"/>
-        <v>s</v>
+        <v>d</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="8"/>
-        <v>sanch</v>
+        <v>degro</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="9"/>
-        <v>an</v>
+        <v>ja</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="10"/>
-        <v>sanchan01</v>
+        <v>degroja01</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="7"/>
-        <v>v</v>
+        <v>s</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="8"/>
-        <v>voth</v>
+        <v>shoem</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="9"/>
-        <v>au</v>
+        <v>ma</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="10"/>
-        <v>vothau01</v>
+        <v>shoemma01</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="7"/>
-        <v>n</v>
+        <v>r</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="8"/>
-        <v>nola</v>
+        <v>ryu</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="9"/>
+        <v>hy</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="7"/>
+        <v>p</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="8"/>
+        <v>pears</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="9"/>
+        <v>na</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="10"/>
+        <v>pearsna01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="7"/>
+        <v>s</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="8"/>
+        <v>sanch</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="9"/>
+        <v>an</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="10"/>
+        <v>sanchan01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="7"/>
+        <v>v</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="8"/>
+        <v>voth</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="9"/>
+        <v>au</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="10"/>
+        <v>vothau01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="7"/>
+        <v>n</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="8"/>
+        <v>nola</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="9"/>
         <v>aa</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" t="str">
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="10"/>
         <v>nolaaa01</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B63" t="str">
         <f t="shared" si="7"/>
         <v>w</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="8"/>
         <v>wheel</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D63" t="str">
         <f t="shared" si="9"/>
         <v>za</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="str">
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="10"/>
         <v>wheelza01</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B64" t="str">
         <f t="shared" si="7"/>
         <v>e</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="8"/>
         <v>eflin</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D64" t="str">
         <f t="shared" si="9"/>
         <v>za</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" t="str">
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="10"/>
         <v>eflinza01</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B65" t="str">
         <f t="shared" si="7"/>
         <v>f</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="8"/>
         <v>fedde</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D65" t="str">
         <f t="shared" si="9"/>
         <v>er</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" t="str">
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="10"/>
         <v>feddeer01</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B66" t="str">
         <f t="shared" si="7"/>
         <v>c</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="8"/>
         <v>corbi</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D66" t="str">
         <f t="shared" si="9"/>
         <v>pa</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="str">
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="10"/>
         <v>corbipa01</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B67" t="str">
         <f t="shared" si="7"/>
         <v>u</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C67" t="str">
         <f t="shared" si="8"/>
         <v>urena</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D67" t="str">
         <f t="shared" si="9"/>
         <v>jo</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" t="str">
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="str">
         <f t="shared" si="10"/>
         <v>urenajo01</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B68" t="str">
         <f t="shared" si="7"/>
         <v>s</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="8"/>
         <v>sanch</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="9"/>
         <v>si</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" t="str">
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="str">
         <f t="shared" si="10"/>
         <v>sanchsi01</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B69" t="str">
         <f t="shared" si="7"/>
         <v>l</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="8"/>
         <v>lopez</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="9"/>
         <v>pa</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="str">
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="str">
         <f t="shared" si="10"/>
         <v>lopezpa01</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B70" t="str">
         <f t="shared" si="7"/>
         <v>r</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="8"/>
         <v>roger</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="9"/>
-        <v>tr</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="10"/>
-        <v>rogertr01</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="7"/>
-        <v>m</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="8"/>
-        <v>mazza</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="9"/>
-        <v>ch</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="10"/>
-        <v>mazzach01</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="7"/>
-        <v>h</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="8"/>
-        <v>houck</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="9"/>
-        <v>ta</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" si="10"/>
-        <v>houckta01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="7"/>
-        <v>p</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="8"/>
-        <v>pivet</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="9"/>
-        <v>ni</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="10"/>
-        <v>pivetni01</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="7"/>
-        <v>b</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="8"/>
-        <v>bauer</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="9"/>
@@ -2994,155 +3006,156 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="10"/>
-        <v>bauertr01</v>
+        <v>rogertr01</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" ref="B71:B134" si="11">LOWER(LEFT(MID(A71,FIND(" ",A71)+1,256),1))</f>
-        <v>c</v>
+        <f t="shared" si="7"/>
+        <v>m</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:C134" si="12">LOWER(LEFT(MID(A71,FIND(" ",A71)+1,256),5))</f>
-        <v>casti</v>
+        <f t="shared" si="8"/>
+        <v>mazza</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" ref="D71:D134" si="13">LOWER(LEFT(A71,2))</f>
-        <v>lu</v>
+        <f t="shared" si="9"/>
+        <v>ch</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" ref="F71:F134" si="14">C71&amp;D71&amp;E71</f>
-        <v>castilu02</v>
+        <f t="shared" si="10"/>
+        <v>mazzach01</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="7"/>
+        <v>h</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="8"/>
+        <v>houck</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="9"/>
+        <v>ta</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="10"/>
+        <v>houckta01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="7"/>
+        <v>p</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="8"/>
+        <v>pivet</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="9"/>
+        <v>ni</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="10"/>
+        <v>pivetni01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="7"/>
+        <v>b</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="8"/>
+        <v>bauer</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="9"/>
+        <v>tr</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="10"/>
+        <v>bauertr01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" ref="B75:B138" si="11">LOWER(LEFT(MID(A75,FIND(" ",A75)+1,256),1))</f>
+        <v>c</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75:C138" si="12">LOWER(LEFT(MID(A75,FIND(" ",A75)+1,256),5))</f>
+        <v>casti</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" ref="D75:D138" si="13">LOWER(LEFT(A75,2))</f>
+        <v>lu</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" ref="F75:F138" si="14">C75&amp;D75&amp;E75</f>
+        <v>castilu02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B76" t="str">
         <f t="shared" si="11"/>
         <v>a</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="12"/>
         <v>alcan</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D76" t="str">
         <f t="shared" si="13"/>
         <v>sa</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="str">
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="str">
         <f t="shared" si="14"/>
         <v>alcansa01</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="11"/>
-        <v>c</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="12"/>
-        <v>cole</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="13"/>
-        <v>ge</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="14"/>
-        <v>colege01</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="11"/>
-        <v>h</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="12"/>
-        <v>happ</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="13"/>
-        <v>j.</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="11"/>
-        <v>s</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="12"/>
-        <v>snell</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="13"/>
-        <v>bl</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="14"/>
-        <v>snellbl01</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="11"/>
-        <v>g</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="12"/>
-        <v>glasn</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="13"/>
-        <v>ty</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" si="14"/>
-        <v>glasnty01</v>
-      </c>
-    </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="11"/>
@@ -3150,47 +3163,46 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="12"/>
-        <v>chiri</v>
+        <v>cole</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="13"/>
-        <v>yo</v>
+        <v>ge</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="14"/>
-        <v>chiriyo01</v>
+        <v>colege01</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="11"/>
-        <v>y</v>
+        <v>h</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="12"/>
-        <v>yamam</v>
+        <v>happ</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="13"/>
-        <v>jo</v>
+        <v>j.</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F78" t="str">
-        <f t="shared" si="14"/>
-        <v>yamamjo01</v>
+      <c r="F78" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="11"/>
@@ -3198,455 +3210,455 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="12"/>
-        <v>stras</v>
+        <v>snell</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="13"/>
-        <v>st</v>
+        <v>bl</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="14"/>
-        <v>strasst01</v>
+        <v>snellbl01</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="11"/>
-        <v>s</v>
+        <v>g</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="12"/>
-        <v>scher</v>
+        <v>glasn</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="13"/>
-        <v>ma</v>
+        <v>ty</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="14"/>
-        <v>scherma01</v>
+        <v>glasnty01</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="11"/>
-        <v>r</v>
+        <v>c</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="12"/>
-        <v>roark</v>
+        <v>chiri</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="13"/>
-        <v>ta</v>
+        <v>yo</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="14"/>
-        <v>roarkta01</v>
+        <v>chiriyo01</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="11"/>
-        <v>e</v>
+        <v>y</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="12"/>
-        <v>eoval</v>
+        <v>yamam</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="13"/>
-        <v>na</v>
+        <v>jo</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="14"/>
-        <v>eovalna01</v>
+        <v>yamamjo01</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="11"/>
-        <v>b</v>
+        <v>s</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="12"/>
-        <v>brewe</v>
+        <v>stras</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="13"/>
-        <v>co</v>
+        <v>st</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="14"/>
-        <v>breweco01</v>
+        <v>strasst01</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="11"/>
-        <v>p</v>
+        <v>s</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="12"/>
-        <v>perez</v>
+        <v>scher</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="13"/>
         <v>ma</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="14"/>
-        <v>perezma02</v>
+        <v>scherma01</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="11"/>
-        <v>g</v>
+        <v>r</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="12"/>
-        <v>godle</v>
+        <v>roark</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="13"/>
-        <v>za</v>
+        <v>ta</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="14"/>
-        <v>godleza01</v>
+        <v>roarkta01</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="11"/>
-        <v>j</v>
+        <v>e</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="12"/>
-        <v>jurad</v>
+        <v>eoval</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="13"/>
-        <v>ar</v>
+        <v>na</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="14"/>
-        <v>juradar01</v>
+        <v>eovalna01</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="11"/>
-        <v>t</v>
+        <v>b</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="12"/>
-        <v>tanak</v>
+        <v>brewe</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="13"/>
-        <v>ma</v>
+        <v>co</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="14"/>
-        <v>tanakma01</v>
+        <v>breweco01</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="11"/>
-        <v>t</v>
+        <v>p</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="12"/>
-        <v>touss</v>
+        <v>perez</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="13"/>
-        <v>to</v>
+        <v>ma</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="14"/>
-        <v>toussto01</v>
+        <v>perezma02</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="11"/>
-        <v>y</v>
+        <v>g</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="12"/>
-        <v>ynoa</v>
+        <v>godle</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="13"/>
-        <v>hu</v>
+        <v>za</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="14"/>
-        <v>ynoahu01</v>
+        <v>godleza01</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="11"/>
-        <v>h</v>
+        <v>j</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="12"/>
-        <v>hamel</v>
+        <v>jurad</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="13"/>
-        <v>co</v>
+        <v>ar</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="14"/>
-        <v>hamelco01</v>
+        <v>juradar01</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="11"/>
-        <v>m</v>
+        <v>t</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="12"/>
-        <v>milon</v>
+        <v>tanak</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="13"/>
-        <v>to</v>
+        <v>ma</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="14"/>
-        <v>milonto01</v>
+        <v>tanakma01</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="11"/>
-        <v>c</v>
+        <v>t</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="12"/>
-        <v>cobb</v>
+        <v>touss</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="13"/>
-        <v>al</v>
+        <v>to</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="14"/>
-        <v>cobbal01</v>
+        <v>toussto01</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="11"/>
-        <v>l</v>
+        <v>y</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="12"/>
-        <v>lebla</v>
+        <v>ynoa</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="13"/>
-        <v>wa</v>
+        <v>hu</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="14"/>
-        <v>leblawa01</v>
+        <v>ynoahu01</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="11"/>
-        <v>a</v>
+        <v>h</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="12"/>
-        <v>ander</v>
+        <v>hamel</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="13"/>
-        <v>ch</v>
+        <v>co</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="14"/>
-        <v>anderch01</v>
+        <v>hamelco01</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="11"/>
-        <v>k</v>
+        <v>m</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="12"/>
-        <v>kittr</v>
+        <v>milon</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="13"/>
-        <v>an</v>
+        <v>to</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="14"/>
-        <v>kittran01</v>
+        <v>milonto01</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="11"/>
-        <v>a</v>
+        <v>c</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="12"/>
-        <v>arrie</v>
+        <v>cobb</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="13"/>
-        <v>ja</v>
+        <v>al</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="14"/>
-        <v>arrieja01</v>
+        <v>cobbal01</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="11"/>
-        <v>f</v>
+        <v>l</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="12"/>
-        <v>fried</v>
+        <v>lebla</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="13"/>
-        <v>ma</v>
+        <v>wa</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="14"/>
-        <v>friedma01</v>
+        <v>leblawa01</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="11"/>
@@ -3658,195 +3670,195 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="13"/>
-        <v>ia</v>
+        <v>ch</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="14"/>
-        <v>anderia01</v>
+        <v>anderch01</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="11"/>
-        <v>e</v>
+        <v>k</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="12"/>
-        <v>erlin</v>
+        <v>kittr</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="13"/>
-        <v>ro</v>
+        <v>an</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="14"/>
-        <v>erlinro01</v>
+        <v>kittran01</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="11"/>
-        <v>w</v>
+        <v>a</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="12"/>
-        <v>walke</v>
+        <v>arrie</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="13"/>
-        <v>ta</v>
+        <v>ja</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="14"/>
-        <v>walketa01</v>
+        <v>arrieja01</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="11"/>
-        <v>r</v>
+        <v>f</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="12"/>
-        <v>ray</v>
+        <v>fried</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="13"/>
-        <v>ro</v>
+        <v>ma</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="14"/>
-        <v>rayro02</v>
+        <v>friedma01</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="11"/>
-        <v>m</v>
+        <v>a</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="12"/>
-        <v>montg</v>
+        <v>ander</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="13"/>
-        <v>jo</v>
+        <v>ia</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="14"/>
-        <v>montgjo01</v>
+        <v>anderia01</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="11"/>
-        <v>g</v>
+        <v>e</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="12"/>
-        <v>garci</v>
+        <v>erlin</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="13"/>
-        <v>de</v>
+        <v>ro</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="14"/>
-        <v>garcide01</v>
+        <v>erlinro01</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="11"/>
-        <v>a</v>
+        <v>w</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="12"/>
-        <v>akin</v>
+        <v>walke</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="13"/>
-        <v>ke</v>
+        <v>ta</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="14"/>
-        <v>akinke01</v>
+        <v>walketa01</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="11"/>
-        <v>k</v>
+        <v>r</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="12"/>
-        <v>kreme</v>
+        <v>ray</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="13"/>
-        <v>de</v>
+        <v>ro</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="14"/>
-        <v>kremede01</v>
+        <v>rayro02</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="11"/>
-        <v>b</v>
+        <v>m</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="12"/>
-        <v>berri</v>
+        <v>montg</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="13"/>
@@ -3857,44 +3869,44 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="14"/>
-        <v>berrijo01</v>
+        <v>montgjo01</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="11"/>
-        <v>d</v>
+        <v>g</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="12"/>
-        <v>dobna</v>
+        <v>garci</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="13"/>
-        <v>ra</v>
+        <v>de</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="14"/>
-        <v>dobnara01</v>
+        <v>garcide01</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="11"/>
-        <v>m</v>
+        <v>a</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="12"/>
-        <v>maeda</v>
+        <v>akin</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="13"/>
@@ -3905,44 +3917,44 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="14"/>
-        <v>maedake01</v>
+        <v>akinke01</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="11"/>
-        <v>h</v>
+        <v>k</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="12"/>
-        <v>house</v>
+        <v>kreme</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="13"/>
-        <v>ad</v>
+        <v>de</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="14"/>
-        <v>housead01</v>
+        <v>kremede01</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="11"/>
-        <v>l</v>
+        <v>b</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="12"/>
-        <v>lindb</v>
+        <v>berri</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="13"/>
@@ -3953,204 +3965,204 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="14"/>
-        <v>lindbjo01</v>
+        <v>berrijo01</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="11"/>
-        <v>c</v>
+        <v>d</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="12"/>
-        <v>cival</v>
+        <v>dobna</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="13"/>
-        <v>aa</v>
+        <v>ra</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="14"/>
-        <v>civalaa01</v>
+        <v>dobnara01</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="11"/>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="12"/>
-        <v>plesa</v>
+        <v>maeda</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="13"/>
-        <v>za</v>
+        <v>ke</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="14"/>
-        <v>plesaza01</v>
+        <v>maedake01</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="11"/>
-        <v>b</v>
+        <v>h</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="12"/>
-        <v>biebe</v>
+        <v>house</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="13"/>
-        <v>sh</v>
+        <v>ad</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="14"/>
-        <v>biebesh01</v>
+        <v>housead01</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="11"/>
-        <v>h</v>
+        <v>l</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="12"/>
-        <v>hudso</v>
+        <v>lindb</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="13"/>
-        <v>da</v>
+        <v>jo</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="14"/>
-        <v>hudsoda01</v>
+        <v>lindbjo01</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="11"/>
-        <v>b</v>
+        <v>c</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="12"/>
-        <v>boyd</v>
+        <v>cival</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="13"/>
-        <v>ma</v>
+        <v>aa</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="14"/>
-        <v>boydma01</v>
+        <v>civalaa01</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="11"/>
-        <v>s</v>
+        <v>p</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="12"/>
-        <v>skuba</v>
+        <v>plesa</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="13"/>
-        <v>ta</v>
+        <v>za</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="14"/>
-        <v>skubata01</v>
+        <v>plesaza01</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="11"/>
-        <v>m</v>
+        <v>b</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="12"/>
-        <v>mize</v>
+        <v>biebe</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="13"/>
-        <v>ca</v>
+        <v>sh</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="14"/>
-        <v>mizeca01</v>
+        <v>biebesh01</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="11"/>
-        <v>t</v>
+        <v>h</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="12"/>
-        <v>turnb</v>
+        <v>hudso</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="13"/>
-        <v>sp</v>
+        <v>da</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="14"/>
-        <v>turnbsp01</v>
+        <v>hudsoda01</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="11"/>
@@ -4158,95 +4170,95 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="12"/>
-        <v>braul</v>
+        <v>boyd</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="13"/>
-        <v>st</v>
+        <v>ma</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="14"/>
-        <v>braulst01</v>
+        <v>boydma01</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="11"/>
-        <v>w</v>
+        <v>s</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="12"/>
-        <v>willi</v>
+        <v>skuba</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="13"/>
-        <v>tr</v>
+        <v>ta</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="14"/>
-        <v>willitr01</v>
+        <v>skubata01</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="11"/>
-        <v>d</v>
+        <v>m</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="12"/>
-        <v>duffy</v>
+        <v>mize</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="13"/>
-        <v>da</v>
+        <v>ca</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="14"/>
-        <v>duffyda01</v>
+        <v>mizeca01</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="11"/>
-        <v>s</v>
+        <v>t</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="12"/>
-        <v>singe</v>
+        <v>turnb</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="13"/>
-        <v>br</v>
+        <v>sp</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="14"/>
-        <v>singebr01</v>
+        <v>turnbsp01</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="11"/>
@@ -4254,574 +4266,574 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="12"/>
-        <v>bubic</v>
+        <v>braul</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="13"/>
-        <v>kr</v>
+        <v>st</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="14"/>
-        <v>bubickr01</v>
+        <v>braulst01</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="11"/>
-        <v>f</v>
+        <v>w</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="12"/>
-        <v>fulme</v>
+        <v>willi</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="13"/>
-        <v>mi</v>
+        <v>tr</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="14"/>
-        <v>fulmemi01</v>
+        <v>willitr01</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="11"/>
-        <v>o</v>
+        <v>d</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="12"/>
-        <v>odori</v>
+        <v>duffy</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="13"/>
-        <v>ja</v>
+        <v>da</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="14"/>
-        <v>odorija01</v>
+        <v>duffyda01</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="11"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="12"/>
-        <v>darvi</v>
+        <v>singe</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="13"/>
-        <v>yu</v>
+        <v>br</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="14"/>
-        <v>darviyu01</v>
+        <v>singebr01</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="11"/>
-        <v>l</v>
+        <v>b</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="12"/>
-        <v>leste</v>
+        <v>bubic</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="13"/>
-        <v>jo</v>
+        <v>kr</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="14"/>
-        <v>lestejo01</v>
+        <v>bubickr01</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="11"/>
-        <v>a</v>
+        <v>f</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="12"/>
-        <v>alzol</v>
+        <v>fulme</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="13"/>
-        <v>ad</v>
+        <v>mi</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="14"/>
-        <v>alzolad01</v>
+        <v>fulmemi01</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="11"/>
-        <v>w</v>
+        <v>o</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="12"/>
-        <v>woodr</v>
+        <v>odori</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="13"/>
-        <v>br</v>
+        <v>ja</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="14"/>
-        <v>woodrbr01</v>
+        <v>odorija01</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="11"/>
-        <v>b</v>
+        <v>d</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="12"/>
-        <v>burne</v>
+        <v>darvi</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="13"/>
-        <v>co</v>
+        <v>yu</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="14"/>
-        <v>burneco01</v>
+        <v>darviyu01</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="11"/>
-        <v>p</v>
+        <v>l</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="12"/>
-        <v>peral</v>
+        <v>leste</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="13"/>
-        <v>fr</v>
+        <v>jo</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="14"/>
-        <v>peralfr01</v>
+        <v>lestejo01</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="11"/>
-        <v>k</v>
+        <v>a</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="12"/>
-        <v>kelle</v>
+        <v>alzol</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="13"/>
-        <v>mi</v>
+        <v>ad</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F132" t="s">
-        <v>282</v>
+      <c r="F132" t="str">
+        <f t="shared" si="14"/>
+        <v>alzolad01</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="11"/>
-        <v>a</v>
+        <v>w</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="12"/>
-        <v>ander</v>
+        <v>woodr</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="13"/>
         <v>br</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="14"/>
-        <v>anderbr04</v>
+        <v>woodrbr01</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="11"/>
-        <v>p</v>
+        <v>b</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="12"/>
-        <v>ponce</v>
+        <v>burne</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="13"/>
-        <v>da</v>
+        <v>co</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="14"/>
-        <v>ponceda01</v>
+        <v>burneco01</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B197" si="15">LOWER(LEFT(MID(A135,FIND(" ",A135)+1,256),1))</f>
-        <v>k</v>
+        <f t="shared" si="11"/>
+        <v>p</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" ref="C135:C197" si="16">LOWER(LEFT(MID(A135,FIND(" ",A135)+1,256),5))</f>
-        <v>keuch</v>
+        <f t="shared" si="12"/>
+        <v>peral</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" ref="D135:D197" si="17">LOWER(LEFT(A135,2))</f>
-        <v>da</v>
+        <f t="shared" si="13"/>
+        <v>fr</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" ref="F135:F197" si="18">C135&amp;D135&amp;E135</f>
-        <v>keuchda01</v>
+        <f t="shared" si="14"/>
+        <v>peralfr01</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="11"/>
+        <v>k</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="12"/>
+        <v>kelle</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="13"/>
+        <v>mi</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="11"/>
+        <v>a</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="12"/>
+        <v>ander</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="13"/>
+        <v>br</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="14"/>
+        <v>anderbr04</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="11"/>
+        <v>p</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="12"/>
+        <v>ponce</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="13"/>
+        <v>da</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="14"/>
+        <v>ponceda01</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" ref="B139:B201" si="15">LOWER(LEFT(MID(A139,FIND(" ",A139)+1,256),1))</f>
+        <v>k</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" ref="C139:C201" si="16">LOWER(LEFT(MID(A139,FIND(" ",A139)+1,256),5))</f>
+        <v>keuch</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" ref="D139:D201" si="17">LOWER(LEFT(A139,2))</f>
+        <v>da</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" ref="F139:F201" si="18">C139&amp;D139&amp;E139</f>
+        <v>keuchda01</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
         <v>135</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B140" t="str">
         <f t="shared" si="15"/>
         <v>l</v>
       </c>
-      <c r="C136" t="str">
+      <c r="C140" t="str">
         <f t="shared" si="16"/>
         <v>lopez</v>
       </c>
-      <c r="D136" t="str">
+      <c r="D140" t="str">
         <f t="shared" si="17"/>
         <v>re</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="str">
+      <c r="E140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" t="str">
         <f t="shared" si="18"/>
         <v>lopezre01</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
         <v>136</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B141" t="str">
         <f t="shared" si="15"/>
         <v>c</v>
       </c>
-      <c r="C137" t="str">
+      <c r="C141" t="str">
         <f t="shared" si="16"/>
         <v>cease</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D141" t="str">
         <f t="shared" si="17"/>
         <v>dy</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="str">
+      <c r="E141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" t="str">
         <f t="shared" si="18"/>
         <v>ceasedy01</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
         <v>137</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B142" t="str">
         <f t="shared" si="15"/>
         <v>f</v>
       </c>
-      <c r="C138" t="str">
+      <c r="C142" t="str">
         <f t="shared" si="16"/>
         <v>flahe</v>
       </c>
-      <c r="D138" t="str">
+      <c r="D142" t="str">
         <f t="shared" si="17"/>
         <v>ja</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="str">
+      <c r="E142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" t="str">
         <f t="shared" si="18"/>
         <v>flaheja01</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
         <v>138</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B143" t="str">
         <f t="shared" si="15"/>
         <v>o</v>
       </c>
-      <c r="C139" t="str">
+      <c r="C143" t="str">
         <f t="shared" si="16"/>
         <v>ovied</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D143" t="str">
         <f t="shared" si="17"/>
         <v>jo</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" t="str">
+      <c r="E143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="str">
         <f t="shared" si="18"/>
         <v>oviedjo01</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
         <v>139</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B144" t="str">
         <f t="shared" si="15"/>
         <v>m</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C144" t="str">
         <f t="shared" si="16"/>
         <v>mahle</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D144" t="str">
         <f t="shared" si="17"/>
         <v>ty</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F140" t="str">
+      <c r="E144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" t="str">
         <f t="shared" si="18"/>
         <v>mahlety01</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
         <v>140</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B145" t="str">
         <f t="shared" si="15"/>
         <v>g</v>
       </c>
-      <c r="C141" t="str">
+      <c r="C145" t="str">
         <f t="shared" si="16"/>
         <v>gray</v>
       </c>
-      <c r="D141" t="str">
+      <c r="D145" t="str">
         <f t="shared" si="17"/>
         <v>so</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="str">
+      <c r="E145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" t="str">
         <f t="shared" si="18"/>
         <v>grayso01</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
         <v>141</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B146" t="str">
         <f t="shared" si="15"/>
         <v>c</v>
       </c>
-      <c r="C142" t="str">
+      <c r="C146" t="str">
         <f t="shared" si="16"/>
         <v>carra</v>
       </c>
-      <c r="D142" t="str">
+      <c r="D146" t="str">
         <f t="shared" si="17"/>
         <v>ca</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F142" t="str">
+      <c r="E146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" t="str">
         <f t="shared" si="18"/>
         <v>carraca01</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="str">
-        <f t="shared" si="15"/>
-        <v>h</v>
-      </c>
-      <c r="C143" t="str">
-        <f t="shared" si="16"/>
-        <v>hill</v>
-      </c>
-      <c r="D143" t="str">
-        <f t="shared" si="17"/>
-        <v>ri</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="str">
-        <f t="shared" si="18"/>
-        <v>hillri01</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" t="str">
-        <f t="shared" si="15"/>
-        <v>p</v>
-      </c>
-      <c r="C144" t="str">
-        <f t="shared" si="16"/>
-        <v>pined</v>
-      </c>
-      <c r="D144" t="str">
-        <f t="shared" si="17"/>
-        <v>mi</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" t="str">
-        <f t="shared" si="18"/>
-        <v>pinedmi01</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" t="str">
-        <f t="shared" si="15"/>
-        <v>n</v>
-      </c>
-      <c r="C145" t="str">
-        <f t="shared" si="16"/>
-        <v>nova</v>
-      </c>
-      <c r="D145" t="str">
-        <f t="shared" si="17"/>
-        <v>iv</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F145" t="str">
-        <f t="shared" si="18"/>
-        <v>novaiv01</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="str">
-        <f t="shared" si="15"/>
-        <v>m</v>
-      </c>
-      <c r="C146" t="str">
-        <f t="shared" si="16"/>
-        <v>mills</v>
-      </c>
-      <c r="D146" t="str">
-        <f t="shared" si="17"/>
-        <v>al</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F146" t="str">
-        <f t="shared" si="18"/>
-        <v>millsal02</v>
-      </c>
-    </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="15"/>
@@ -4829,95 +4841,95 @@
       </c>
       <c r="C147" t="str">
         <f t="shared" si="16"/>
-        <v>hendr</v>
+        <v>hill</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="17"/>
-        <v>ky</v>
+        <v>ri</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="18"/>
-        <v>hendrky01</v>
+        <v>hillri01</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="15"/>
-        <v>k</v>
+        <v>p</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="16"/>
-        <v>kelle</v>
+        <v>pined</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="17"/>
-        <v>br</v>
+        <v>mi</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="18"/>
-        <v>kellebr01</v>
+        <v>pinedmi01</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="15"/>
-        <v>k</v>
+        <v>n</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="16"/>
-        <v>kuhl</v>
+        <v>nova</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="17"/>
-        <v>ch</v>
+        <v>iv</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="18"/>
-        <v>kuhlch01</v>
+        <v>novaiv01</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="15"/>
-        <v>c</v>
+        <v>m</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="16"/>
-        <v>chatw</v>
+        <v>mills</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="17"/>
-        <v>ty</v>
+        <v>al</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="18"/>
-        <v>chatwty01</v>
+        <v>millsal02</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="15"/>
@@ -4925,622 +4937,622 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">hyun </v>
+        <v>hendr</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="17"/>
-        <v>kw</v>
+        <v>ky</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F151" t="s">
-        <v>284</v>
+      <c r="F151" t="str">
+        <f t="shared" si="18"/>
+        <v>hendrky01</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="15"/>
-        <v>m</v>
+        <v>k</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="16"/>
-        <v>musgr</v>
+        <v>kelle</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="17"/>
-        <v>jo</v>
+        <v>br</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="18"/>
-        <v>musgrjo01</v>
+        <v>kellebr01</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="15"/>
-        <v>b</v>
+        <v>k</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="16"/>
-        <v>bruba</v>
+        <v>kuhl</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="17"/>
-        <v>jt</v>
+        <v>ch</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="18"/>
-        <v>brubajt01</v>
+        <v>kuhlch01</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="15"/>
-        <v>s</v>
+        <v>c</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="16"/>
-        <v>stiev</v>
+        <v>chatw</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="17"/>
-        <v>jo</v>
+        <v>ty</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="18"/>
-        <v>stievjo01</v>
+        <v>chatwty01</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="15"/>
-        <v>b</v>
+        <v>h</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="16"/>
-        <v>bolan</v>
+        <v xml:space="preserve">hyun </v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="17"/>
+        <v>kw</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="15"/>
+        <v>m</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="16"/>
+        <v>musgr</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="17"/>
+        <v>jo</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="18"/>
+        <v>musgrjo01</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="15"/>
+        <v>b</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="16"/>
+        <v>bruba</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="17"/>
+        <v>jt</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="18"/>
+        <v>brubajt01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="15"/>
+        <v>s</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="16"/>
+        <v>stiev</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="17"/>
+        <v>jo</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="18"/>
+        <v>stievjo01</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>154</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="15"/>
+        <v>b</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="16"/>
+        <v>bolan</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="17"/>
         <v>ro</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="str">
+      <c r="E159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="str">
         <f t="shared" si="18"/>
         <v>bolanro01</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" t="s">
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
         <v>155</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B160" t="str">
         <f t="shared" si="15"/>
         <v>g</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C160" t="str">
         <f t="shared" si="16"/>
         <v>gioli</v>
       </c>
-      <c r="D156" t="str">
+      <c r="D160" t="str">
         <f t="shared" si="17"/>
         <v>lu</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" t="str">
+      <c r="E160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="str">
         <f t="shared" si="18"/>
         <v>giolilu01</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
         <v>156</v>
       </c>
-      <c r="B157" t="str">
+      <c r="B161" t="str">
         <f t="shared" si="15"/>
         <v>a</v>
       </c>
-      <c r="C157" t="str">
+      <c r="C161" t="str">
         <f t="shared" si="16"/>
         <v>anton</v>
       </c>
-      <c r="D157" t="str">
+      <c r="D161" t="str">
         <f t="shared" si="17"/>
         <v>te</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" t="str">
+      <c r="E161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F161" t="str">
         <f t="shared" si="18"/>
         <v>antonte01</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" t="s">
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
         <v>157</v>
       </c>
-      <c r="B158" t="str">
+      <c r="B162" t="str">
         <f t="shared" si="15"/>
         <v>j</v>
       </c>
-      <c r="C158" t="str">
+      <c r="C162" t="str">
         <f t="shared" si="16"/>
         <v>junis</v>
       </c>
-      <c r="D158" t="str">
+      <c r="D162" t="str">
         <f t="shared" si="17"/>
         <v>ja</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F158" t="str">
+      <c r="E162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" t="str">
         <f t="shared" si="18"/>
         <v>junisja01</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
         <v>158</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B163" t="str">
         <f t="shared" si="15"/>
         <v>d</v>
       </c>
-      <c r="C159" t="str">
+      <c r="C163" t="str">
         <f t="shared" si="16"/>
         <v>dunni</v>
       </c>
-      <c r="D159" t="str">
+      <c r="D163" t="str">
         <f t="shared" si="17"/>
         <v>da</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="str">
+      <c r="E163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" t="str">
         <f t="shared" si="18"/>
         <v>dunnida01</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
         <v>159</v>
       </c>
-      <c r="B160" t="str">
+      <c r="B164" t="str">
         <f t="shared" si="15"/>
         <v>l</v>
       </c>
-      <c r="C160" t="str">
+      <c r="C164" t="str">
         <f t="shared" si="16"/>
         <v>lucch</v>
       </c>
-      <c r="D160" t="str">
+      <c r="D164" t="str">
         <f t="shared" si="17"/>
         <v>jo</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="str">
+      <c r="E164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F164" t="str">
         <f t="shared" si="18"/>
         <v>lucchjo01</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" t="s">
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
         <v>160</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B165" t="str">
         <f t="shared" si="15"/>
         <v>d</v>
       </c>
-      <c r="C161" t="str">
+      <c r="C165" t="str">
         <f t="shared" si="16"/>
         <v>davie</v>
       </c>
-      <c r="D161" t="str">
+      <c r="D165" t="str">
         <f t="shared" si="17"/>
         <v>za</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F161" t="str">
+      <c r="F165" t="str">
         <f t="shared" si="18"/>
         <v>davieza02</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" t="s">
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
         <v>161</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B166" t="str">
         <f t="shared" si="15"/>
         <v>g</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C166" t="str">
         <f t="shared" si="16"/>
         <v>gausm</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D166" t="str">
         <f t="shared" si="17"/>
         <v>ke</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F162" t="str">
+      <c r="E166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" t="str">
         <f t="shared" si="18"/>
         <v>gausmke01</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" t="s">
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
         <v>162</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B167" t="str">
         <f t="shared" si="15"/>
         <v>w</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C167" t="str">
         <f t="shared" si="16"/>
         <v>webb</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D167" t="str">
         <f t="shared" si="17"/>
         <v>lo</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F163" t="str">
+      <c r="E167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167" t="str">
         <f t="shared" si="18"/>
         <v>webblo01</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" t="s">
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
         <v>163</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B168" t="str">
         <f t="shared" si="15"/>
         <v>g</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C168" t="str">
         <f t="shared" si="16"/>
         <v>galle</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D168" t="str">
         <f t="shared" si="17"/>
         <v>za</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" t="str">
+      <c r="E168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" t="str">
         <f t="shared" si="18"/>
         <v>galleza01</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" t="s">
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
         <v>164</v>
       </c>
-      <c r="B165" t="str">
+      <c r="B169" t="str">
         <f t="shared" si="15"/>
         <v>w</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C169" t="str">
         <f t="shared" si="16"/>
         <v>weave</v>
       </c>
-      <c r="D165" t="str">
+      <c r="D169" t="str">
         <f t="shared" si="17"/>
         <v>lu</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F165" t="str">
+      <c r="E169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" t="str">
         <f t="shared" si="18"/>
         <v>weavelu01</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" t="s">
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
         <v>165</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B170" t="str">
         <f t="shared" si="15"/>
         <v>a</v>
       </c>
-      <c r="C166" t="str">
+      <c r="C170" t="str">
         <f t="shared" si="16"/>
         <v>allar</v>
       </c>
-      <c r="D166" t="str">
+      <c r="D170" t="str">
         <f t="shared" si="17"/>
         <v>ko</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F166" t="str">
+      <c r="E170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F170" t="str">
         <f t="shared" si="18"/>
         <v>allarko01</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
-      <c r="A167" t="s">
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
         <v>166</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B171" t="str">
         <f t="shared" si="15"/>
         <v>b</v>
       </c>
-      <c r="C167" t="str">
+      <c r="C171" t="str">
         <f t="shared" si="16"/>
         <v>baez</v>
       </c>
-      <c r="D167" t="str">
+      <c r="D171" t="str">
         <f t="shared" si="17"/>
         <v>mi</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="str">
+      <c r="E171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" t="str">
         <f t="shared" si="18"/>
         <v>baezmi01</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" t="s">
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
         <v>167</v>
       </c>
-      <c r="B168" t="str">
+      <c r="B172" t="str">
         <f t="shared" si="15"/>
         <v>p</v>
       </c>
-      <c r="C168" t="str">
+      <c r="C172" t="str">
         <f t="shared" si="16"/>
         <v>padda</v>
       </c>
-      <c r="D168" t="str">
+      <c r="D172" t="str">
         <f t="shared" si="17"/>
         <v>ch</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" t="str">
+      <c r="E172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F172" t="str">
         <f t="shared" si="18"/>
         <v>paddach01</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" t="s">
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
         <v>168</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B173" t="str">
         <f t="shared" si="15"/>
         <v>c</v>
       </c>
-      <c r="C169" t="str">
+      <c r="C173" t="str">
         <f t="shared" si="16"/>
         <v>canni</v>
       </c>
-      <c r="D169" t="str">
+      <c r="D173" t="str">
         <f t="shared" si="17"/>
         <v>gr</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F169" t="str">
+      <c r="E173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F173" t="str">
         <f t="shared" si="18"/>
         <v>cannigr01</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
-      <c r="A170" t="s">
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
         <v>169</v>
       </c>
-      <c r="B170" t="str">
+      <c r="B174" t="str">
         <f t="shared" si="15"/>
         <v>b</v>
       </c>
-      <c r="C170" t="str">
+      <c r="C174" t="str">
         <f t="shared" si="16"/>
         <v>barri</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D174" t="str">
         <f t="shared" si="17"/>
         <v>ja</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F170" t="str">
+      <c r="E174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" t="str">
         <f t="shared" si="18"/>
         <v>barrija01</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" t="s">
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
         <v>170</v>
       </c>
-      <c r="B171" t="str">
+      <c r="B175" t="str">
         <f t="shared" si="15"/>
         <v>h</v>
       </c>
-      <c r="C171" t="str">
+      <c r="C175" t="str">
         <f t="shared" si="16"/>
         <v>heane</v>
       </c>
-      <c r="D171" t="str">
+      <c r="D175" t="str">
         <f t="shared" si="17"/>
         <v>an</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="str">
+      <c r="E175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F175" t="str">
         <f t="shared" si="18"/>
         <v>heanean01</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
-      <c r="A172" t="s">
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
         <v>171</v>
       </c>
-      <c r="B172" t="str">
+      <c r="B176" t="str">
         <f t="shared" si="15"/>
         <v>w</v>
       </c>
-      <c r="C172" t="str">
+      <c r="C176" t="str">
         <f t="shared" si="16"/>
         <v>wood</v>
       </c>
-      <c r="D172" t="str">
+      <c r="D176" t="str">
         <f t="shared" si="17"/>
         <v>al</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F172" t="str">
+      <c r="F176" t="str">
         <f t="shared" si="18"/>
         <v>woodal02</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="15"/>
-        <v>m</v>
-      </c>
-      <c r="C173" t="str">
-        <f t="shared" si="16"/>
-        <v>montg</v>
-      </c>
-      <c r="D173" t="str">
-        <f t="shared" si="17"/>
-        <v>mi</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" t="str">
-        <f t="shared" si="18"/>
-        <v>montgmi01</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174" t="str">
-        <f t="shared" si="15"/>
-        <v>z</v>
-      </c>
-      <c r="C174" t="str">
-        <f t="shared" si="16"/>
-        <v>zimme</v>
-      </c>
-      <c r="D174" t="str">
-        <f t="shared" si="17"/>
-        <v>ky</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" t="str">
-        <f t="shared" si="18"/>
-        <v>zimmeky01</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175" t="str">
-        <f t="shared" si="15"/>
-        <v>g</v>
-      </c>
-      <c r="C175" t="str">
-        <f t="shared" si="16"/>
-        <v>gonza</v>
-      </c>
-      <c r="D175" t="str">
-        <f t="shared" si="17"/>
-        <v>gi</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F175" t="str">
-        <f t="shared" si="18"/>
-        <v>gonzagi01</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176" t="str">
-        <f t="shared" si="15"/>
-        <v>p</v>
-      </c>
-      <c r="C176" t="str">
-        <f t="shared" si="16"/>
-        <v>plutk</v>
-      </c>
-      <c r="D176" t="str">
-        <f t="shared" si="17"/>
-        <v>ad</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F176" t="str">
-        <f t="shared" si="18"/>
-        <v>plutkad01</v>
-      </c>
-    </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="15"/>
@@ -5548,143 +5560,143 @@
       </c>
       <c r="C177" t="str">
         <f t="shared" si="16"/>
-        <v>mcken</v>
+        <v>montg</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="17"/>
-        <v>tr</v>
+        <v>mi</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="18"/>
-        <v>mckentr01</v>
+        <v>montgmi01</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="15"/>
-        <v>g</v>
+        <v>z</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="16"/>
-        <v>grave</v>
+        <v>zimme</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="17"/>
-        <v>ke</v>
+        <v>ky</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="18"/>
-        <v>graveke01</v>
+        <v>zimmeky01</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="15"/>
-        <v>c</v>
+        <v>g</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="16"/>
-        <v>corte</v>
+        <v>gonza</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="17"/>
-        <v>ne</v>
+        <v>gi</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="18"/>
-        <v>cortene01</v>
+        <v>gonzagi01</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="15"/>
-        <v>s</v>
+        <v>p</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="16"/>
-        <v>senza</v>
+        <v>plutk</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="17"/>
-        <v>an</v>
+        <v>ad</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="18"/>
-        <v>senzaan01</v>
+        <v>plutkad01</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="15"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="16"/>
-        <v>sando</v>
+        <v>mcken</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="17"/>
-        <v>pa</v>
+        <v>tr</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="18"/>
-        <v>sandopa02</v>
+        <v>mckentr01</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="15"/>
-        <v>l</v>
+        <v>g</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="16"/>
-        <v>luzar</v>
+        <v>grave</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="17"/>
-        <v>je</v>
+        <v>ke</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="18"/>
-        <v>luzarje01</v>
+        <v>graveke01</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="15"/>
@@ -5692,23 +5704,23 @@
       </c>
       <c r="C183" t="str">
         <f t="shared" si="16"/>
-        <v>curti</v>
+        <v>corte</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="17"/>
-        <v>jo</v>
+        <v>ne</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="18"/>
-        <v>curtijo02</v>
+        <v>cortene01</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="15"/>
@@ -5716,239 +5728,239 @@
       </c>
       <c r="C184" t="str">
         <f t="shared" si="16"/>
-        <v>smelt</v>
+        <v>senza</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="17"/>
-        <v>de</v>
+        <v>an</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="18"/>
-        <v>smeltde01</v>
+        <v>senzaan01</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="15"/>
-        <v>w</v>
+        <v>s</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="16"/>
-        <v>wisle</v>
+        <v>sando</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="17"/>
-        <v>ma</v>
+        <v>pa</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="18"/>
-        <v>wislema01</v>
+        <v>sandopa02</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="15"/>
-        <v>w</v>
+        <v>l</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="16"/>
-        <v>wainw</v>
+        <v>luzar</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="17"/>
-        <v>ad</v>
+        <v>je</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="18"/>
-        <v>wainwad01</v>
+        <v>luzarje01</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="15"/>
-        <v>g</v>
+        <v>c</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="16"/>
-        <v>gombe</v>
+        <v>curti</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="17"/>
-        <v>au</v>
+        <v>jo</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="18"/>
-        <v>gombeau01</v>
+        <v>curtijo02</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="15"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="16"/>
-        <v>marti</v>
+        <v>smelt</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="17"/>
-        <v>ca</v>
+        <v>de</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="18"/>
-        <v>martica04</v>
+        <v>smeltde01</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="15"/>
-        <v>z</v>
+        <v>w</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="16"/>
-        <v>zimme</v>
+        <v>wisle</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="17"/>
-        <v>jo</v>
+        <v>ma</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="18"/>
-        <v>zimmejo02</v>
+        <v>wislema01</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="15"/>
-        <v>s</v>
+        <v>w</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="16"/>
-        <v>smyly</v>
+        <v>wainw</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="17"/>
-        <v>dr</v>
+        <v>ad</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="18"/>
-        <v>smylydr01</v>
+        <v>wainwad01</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="15"/>
-        <v>s</v>
+        <v>g</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="16"/>
-        <v>samar</v>
+        <v>gombe</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="17"/>
-        <v>je</v>
+        <v>au</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="18"/>
-        <v>samarje01</v>
+        <v>gombeau01</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="15"/>
-        <v>p</v>
+        <v>m</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="16"/>
-        <v>perdo</v>
+        <v>marti</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="17"/>
-        <v>lu</v>
+        <v>ca</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="18"/>
-        <v>perdolu02</v>
+        <v>martica04</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="15"/>
-        <v>t</v>
+        <v>z</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="16"/>
-        <v>teher</v>
+        <v>zimme</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="17"/>
-        <v>ju</v>
+        <v>jo</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="18"/>
-        <v>teherju01</v>
+        <v>zimmejo02</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="15"/>
@@ -5956,415 +5968,415 @@
       </c>
       <c r="C194" t="str">
         <f t="shared" si="16"/>
-        <v>suter</v>
+        <v>smyly</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="17"/>
-        <v>br</v>
+        <v>dr</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="18"/>
-        <v>suterbr01</v>
+        <v>smylydr01</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="15"/>
-        <v>w</v>
+        <v>s</v>
       </c>
       <c r="C195" t="str">
         <f t="shared" si="16"/>
-        <v>wrigh</v>
+        <v>samar</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="17"/>
-        <v>ky</v>
+        <v>je</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" si="18"/>
-        <v>wrighky01</v>
+        <v>samarje01</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="15"/>
-        <v>g</v>
+        <v>p</v>
       </c>
       <c r="C196" t="str">
         <f t="shared" si="16"/>
-        <v>gsell</v>
+        <v>perdo</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="17"/>
-        <v>ro</v>
+        <v>lu</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="18"/>
-        <v>gsellro01</v>
+        <v>perdolu02</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="15"/>
-        <v>o</v>
+        <v>t</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="16"/>
-        <v>oswal</v>
+        <v>teher</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="17"/>
-        <v>co</v>
+        <v>ju</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="18"/>
-        <v>oswalco01</v>
+        <v>teherju01</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B198" t="str">
-        <f t="shared" ref="B198:B261" si="19">LOWER(LEFT(MID(A198,FIND(" ",A198)+1,256),1))</f>
-        <v>f</v>
+        <f t="shared" si="15"/>
+        <v>s</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" ref="C198:C261" si="20">LOWER(LEFT(MID(A198,FIND(" ",A198)+1,256),5))</f>
-        <v>flemi</v>
+        <f t="shared" si="16"/>
+        <v>suter</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" ref="D198:D261" si="21">LOWER(LEFT(A198,2))</f>
-        <v>jo</v>
+        <f t="shared" si="17"/>
+        <v>br</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" ref="F198:F261" si="22">C198&amp;D198&amp;E198</f>
-        <v>flemijo01</v>
+        <f t="shared" si="18"/>
+        <v>suterbr01</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
+        <v>194</v>
+      </c>
+      <c r="B199" t="str">
+        <f t="shared" si="15"/>
+        <v>w</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="16"/>
+        <v>wrigh</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="17"/>
+        <v>ky</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="18"/>
+        <v>wrighky01</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>195</v>
+      </c>
+      <c r="B200" t="str">
+        <f t="shared" si="15"/>
+        <v>g</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="16"/>
+        <v>gsell</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="17"/>
+        <v>ro</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="18"/>
+        <v>gsellro01</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201" t="str">
+        <f t="shared" si="15"/>
+        <v>o</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="16"/>
+        <v>oswal</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="17"/>
+        <v>co</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="18"/>
+        <v>oswalco01</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202" t="str">
+        <f t="shared" ref="B202:B265" si="19">LOWER(LEFT(MID(A202,FIND(" ",A202)+1,256),1))</f>
+        <v>f</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" ref="C202:C265" si="20">LOWER(LEFT(MID(A202,FIND(" ",A202)+1,256),5))</f>
+        <v>flemi</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" ref="D202:D265" si="21">LOWER(LEFT(A202,2))</f>
+        <v>jo</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" ref="F202:F265" si="22">C202&amp;D202&amp;E202</f>
+        <v>flemijo01</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
         <v>198</v>
       </c>
-      <c r="B199" t="str">
+      <c r="B203" t="str">
         <f t="shared" si="19"/>
         <v>m</v>
       </c>
-      <c r="C199" t="str">
+      <c r="C203" t="str">
         <f t="shared" si="20"/>
         <v>merry</v>
       </c>
-      <c r="D199" t="str">
+      <c r="D203" t="str">
         <f t="shared" si="21"/>
         <v>ju</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F199" t="str">
+      <c r="E203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" t="str">
         <f t="shared" si="22"/>
         <v>merryju01</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" t="s">
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
         <v>199</v>
       </c>
-      <c r="B200" t="str">
+      <c r="B204" t="str">
         <f t="shared" si="19"/>
         <v>h</v>
       </c>
-      <c r="C200" t="str">
+      <c r="C204" t="str">
         <f t="shared" si="20"/>
         <v>howar</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D204" t="str">
         <f t="shared" si="21"/>
         <v>sp</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" t="str">
+      <c r="E204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F204" t="str">
         <f t="shared" si="22"/>
         <v>howarsp01</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
-      <c r="A201" t="s">
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
         <v>200</v>
       </c>
-      <c r="B201" t="str">
+      <c r="B205" t="str">
         <f t="shared" si="19"/>
         <v>v</v>
       </c>
-      <c r="C201" t="str">
+      <c r="C205" t="str">
         <f t="shared" si="20"/>
         <v>velas</v>
       </c>
-      <c r="D201" t="str">
+      <c r="D205" t="str">
         <f t="shared" si="21"/>
         <v>vi</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F201" t="str">
+      <c r="E205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F205" t="str">
         <f t="shared" si="22"/>
         <v>velasvi01</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
-      <c r="A202" t="s">
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
         <v>201</v>
       </c>
-      <c r="B202" t="str">
+      <c r="B206" t="str">
         <f t="shared" si="19"/>
         <v>k</v>
       </c>
-      <c r="C202" t="str">
+      <c r="C206" t="str">
         <f t="shared" si="20"/>
         <v>kickh</v>
       </c>
-      <c r="D202" t="str">
+      <c r="D206" t="str">
         <f t="shared" si="21"/>
         <v>mi</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="str">
+      <c r="E206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F206" t="str">
         <f t="shared" si="22"/>
         <v>kickhmi01</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
-      <c r="A203" t="s">
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
         <v>202</v>
       </c>
-      <c r="B203" t="str">
+      <c r="B207" t="str">
         <f t="shared" si="19"/>
         <v>r</v>
       </c>
-      <c r="C203" t="str">
+      <c r="C207" t="str">
         <f t="shared" si="20"/>
         <v>rodon</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D207" t="str">
         <f t="shared" si="21"/>
         <v>ca</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" t="str">
+      <c r="E207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F207" t="str">
         <f t="shared" si="22"/>
         <v>rodonca01</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" t="s">
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
         <v>203</v>
       </c>
-      <c r="B204" t="str">
+      <c r="B208" t="str">
         <f t="shared" si="19"/>
         <v>d</v>
       </c>
-      <c r="C204" t="str">
+      <c r="C208" t="str">
         <f t="shared" si="20"/>
         <v>descl</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D208" t="str">
         <f t="shared" si="21"/>
         <v>an</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F204" t="str">
+      <c r="E208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" t="str">
         <f t="shared" si="22"/>
         <v>desclan01</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" t="s">
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
         <v>204</v>
       </c>
-      <c r="B205" t="str">
+      <c r="B209" t="str">
         <f t="shared" si="19"/>
         <v>c</v>
       </c>
-      <c r="C205" t="str">
+      <c r="C209" t="str">
         <f t="shared" si="20"/>
         <v>clipp</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D209" t="str">
         <f t="shared" si="21"/>
         <v>ty</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F205" t="str">
+      <c r="E209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F209" t="str">
         <f t="shared" si="22"/>
         <v>clippty01</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" t="s">
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
         <v>205</v>
       </c>
-      <c r="B206" t="str">
+      <c r="B210" t="str">
         <f t="shared" si="19"/>
         <v>h</v>
       </c>
-      <c r="C206" t="str">
+      <c r="C210" t="str">
         <f t="shared" si="20"/>
         <v>holla</v>
       </c>
-      <c r="D206" t="str">
+      <c r="D210" t="str">
         <f t="shared" si="21"/>
         <v>de</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F206" t="str">
+      <c r="E210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210" t="str">
         <f t="shared" si="22"/>
         <v>hollade01</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" t="s">
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
         <v>206</v>
       </c>
-      <c r="B207" t="str">
+      <c r="B211" t="str">
         <f t="shared" si="19"/>
         <v>u</v>
       </c>
-      <c r="C207" t="str">
+      <c r="C211" t="str">
         <f t="shared" si="20"/>
         <v>urqui</v>
-      </c>
-      <c r="D207" t="str">
-        <f t="shared" si="21"/>
-        <v>jo</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F207" t="str">
-        <f t="shared" si="22"/>
-        <v>urquijo01</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208" t="str">
-        <f t="shared" si="19"/>
-        <v>w</v>
-      </c>
-      <c r="C208" t="str">
-        <f t="shared" si="20"/>
-        <v>weber</v>
-      </c>
-      <c r="D208" t="str">
-        <f t="shared" si="21"/>
-        <v>ry</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="str">
-        <f t="shared" si="22"/>
-        <v>weberry01</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209" t="str">
-        <f t="shared" si="19"/>
-        <v>b</v>
-      </c>
-      <c r="C209" t="str">
-        <f t="shared" si="20"/>
-        <v>brice</v>
-      </c>
-      <c r="D209" t="str">
-        <f t="shared" si="21"/>
-        <v>au</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F209" t="str">
-        <f t="shared" si="22"/>
-        <v>briceau01</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210" t="str">
-        <f t="shared" si="19"/>
-        <v>r</v>
-      </c>
-      <c r="C210" t="str">
-        <f t="shared" si="20"/>
-        <v>richa</v>
-      </c>
-      <c r="D210" t="str">
-        <f t="shared" si="21"/>
-        <v>tr</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F210" t="str">
-        <f t="shared" si="22"/>
-        <v>richatr01</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211" t="str">
-        <f t="shared" si="19"/>
-        <v>m</v>
-      </c>
-      <c r="C211" t="str">
-        <f t="shared" si="20"/>
-        <v>means</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="21"/>
@@ -6375,84 +6387,84 @@
       </c>
       <c r="F211" t="str">
         <f t="shared" si="22"/>
-        <v>meansjo01</v>
+        <v>urquijo01</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="19"/>
-        <v>t</v>
+        <v>w</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="20"/>
-        <v>thomp</v>
+        <v>weber</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="21"/>
         <v>ry</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="22"/>
-        <v>thompry02</v>
+        <v>weberry01</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="19"/>
-        <v>s</v>
+        <v>b</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="20"/>
-        <v>sorok</v>
+        <v>brice</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="21"/>
-        <v>mi</v>
+        <v>au</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="22"/>
-        <v>sorokmi01</v>
+        <v>briceau01</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="19"/>
-        <v>n</v>
+        <v>r</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="20"/>
-        <v>newco</v>
+        <v>richa</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="21"/>
-        <v>se</v>
+        <v>tr</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="22"/>
-        <v>newcose01</v>
+        <v>richatr01</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="19"/>
@@ -6460,461 +6472,462 @@
       </c>
       <c r="C215" t="str">
         <f t="shared" si="20"/>
-        <v>mejia</v>
+        <v>means</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="21"/>
-        <v>hu</v>
+        <v>jo</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="22"/>
-        <v>mejiahu01</v>
+        <v>meansjo01</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="19"/>
-        <v>c</v>
+        <v>t</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="20"/>
-        <v>casta</v>
+        <v>thomp</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="21"/>
-        <v>da</v>
+        <v>ry</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="22"/>
-        <v>castada01</v>
+        <v>thompry02</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="19"/>
-        <v>h</v>
+        <v>s</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="20"/>
-        <v>herna</v>
+        <v>sorok</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="21"/>
-        <v>el</v>
+        <v>mi</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="22"/>
-        <v>hernael01</v>
+        <v>sorokmi01</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="19"/>
-        <v>l</v>
+        <v>n</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="20"/>
-        <v>lopez</v>
+        <v>newco</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="21"/>
-        <v>jo</v>
+        <v>se</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>277</v>
+        <v>5</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="22"/>
-        <v>lopezjo02</v>
+        <v>newcose01</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="19"/>
-        <v>f</v>
+        <v>m</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="20"/>
-        <v>fairb</v>
+        <v>mejia</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="21"/>
-        <v>pe</v>
+        <v>hu</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="22"/>
-        <v>fairbpe01</v>
+        <v>mejiahu01</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="19"/>
-        <v>b</v>
+        <v>c</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="20"/>
-        <v>bundy</v>
+        <v>casta</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="21"/>
-        <v>dy</v>
+        <v>da</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="22"/>
-        <v>bundydy01</v>
+        <v>castada01</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="19"/>
-        <v>o</v>
+        <v>h</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="20"/>
-        <v>ohtan</v>
+        <v>herna</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="21"/>
-        <v>sh</v>
+        <v>el</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="22"/>
-        <v>ohtansh01</v>
+        <v>hernael01</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="19"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="20"/>
-        <v>minor</v>
+        <v>lopez</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="21"/>
-        <v>mi</v>
+        <v>jo</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>5</v>
+        <v>277</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="22"/>
-        <v>minormi01</v>
+        <v>lopezjo02</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="19"/>
-        <v>k</v>
+        <v>f</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="20"/>
-        <v>kelly</v>
+        <v>fairb</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="21"/>
-        <v>me</v>
+        <v>pe</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="22"/>
-        <v>kellyme01</v>
+        <v>fairbpe01</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="19"/>
-        <v>d</v>
+        <v>b</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="20"/>
-        <v>dugge</v>
+        <v>bundy</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="21"/>
-        <v>ro</v>
+        <v>dy</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="22"/>
-        <v>duggero01</v>
+        <v>bundydy01</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="19"/>
-        <v>e</v>
+        <v>o</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="20"/>
-        <v>eshel</v>
+        <v>ohtan</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="21"/>
-        <v>th</v>
+        <v>sh</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F225" t="s">
-        <v>285</v>
+      <c r="F225" t="str">
+        <f t="shared" si="22"/>
+        <v>ohtansh01</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="19"/>
-        <v>l</v>
+        <v>m</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="20"/>
-        <v>locke</v>
+        <v>minor</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="21"/>
-        <v>wa</v>
+        <v>mi</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="22"/>
-        <v>lockewa01</v>
+        <v>minormi01</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="19"/>
-        <v>m</v>
+        <v>k</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="20"/>
-        <v>matz</v>
+        <v>kelly</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="21"/>
-        <v>st</v>
+        <v>me</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="22"/>
-        <v>matzst01</v>
+        <v>kellyme01</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="19"/>
-        <v>t</v>
+        <v>d</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="20"/>
-        <v>tomli</v>
+        <v>dugge</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="21"/>
-        <v>jo</v>
+        <v>ro</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="22"/>
-        <v>tomlijo01</v>
+        <v>duggero01</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="19"/>
-        <v>l</v>
+        <v>e</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="20"/>
-        <v>lugo</v>
+        <v>eshel</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="21"/>
+        <v>th</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>224</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="19"/>
+        <v>l</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="20"/>
+        <v>locke</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="21"/>
+        <v>wa</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="22"/>
+        <v>lockewa01</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>225</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="19"/>
+        <v>m</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="20"/>
+        <v>matz</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="21"/>
+        <v>st</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="22"/>
+        <v>matzst01</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>226</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="19"/>
+        <v>t</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="20"/>
+        <v>tomli</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="21"/>
+        <v>jo</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="22"/>
+        <v>tomlijo01</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>227</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="19"/>
+        <v>l</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="20"/>
+        <v>lugo</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="21"/>
         <v>se</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F229" t="str">
+      <c r="E233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F233" t="str">
         <f t="shared" si="22"/>
         <v>lugose01</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
-      <c r="A230" t="s">
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
         <v>228</v>
       </c>
-      <c r="B230" t="str">
+      <c r="B234" t="str">
         <f t="shared" si="19"/>
         <v>q</v>
       </c>
-      <c r="C230" t="str">
+      <c r="C234" t="str">
         <f t="shared" si="20"/>
         <v>quint</v>
-      </c>
-      <c r="D230" t="str">
-        <f t="shared" si="21"/>
-        <v>jo</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F230" t="str">
-        <f t="shared" si="22"/>
-        <v>quintjo01</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" t="s">
-        <v>229</v>
-      </c>
-      <c r="B231" t="str">
-        <f t="shared" si="19"/>
-        <v>c</v>
-      </c>
-      <c r="C231" t="str">
-        <f t="shared" si="20"/>
-        <v>chi g</v>
-      </c>
-      <c r="D231" t="str">
-        <f t="shared" si="21"/>
-        <v>ch</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F231" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" t="s">
-        <v>230</v>
-      </c>
-      <c r="B232" t="str">
-        <f t="shared" si="19"/>
-        <v>g</v>
-      </c>
-      <c r="C232" t="str">
-        <f t="shared" si="20"/>
-        <v>grate</v>
-      </c>
-      <c r="D232" t="str">
-        <f t="shared" si="21"/>
-        <v>br</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" t="str">
-        <f t="shared" si="22"/>
-        <v>gratebr01</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233" t="str">
-        <f t="shared" si="19"/>
-        <v>p</v>
-      </c>
-      <c r="C233" t="str">
-        <f t="shared" si="20"/>
-        <v>patin</v>
-      </c>
-      <c r="D233" t="str">
-        <f t="shared" si="21"/>
-        <v>lu</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F233" t="str">
-        <f t="shared" si="22"/>
-        <v>patinlu01</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" t="s">
-        <v>232</v>
-      </c>
-      <c r="B234" t="str">
-        <f t="shared" si="19"/>
-        <v>s</v>
-      </c>
-      <c r="C234" t="str">
-        <f t="shared" si="20"/>
-        <v>suare</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="21"/>
@@ -6925,12 +6938,12 @@
       </c>
       <c r="F234" t="str">
         <f t="shared" si="22"/>
-        <v>suarejo01</v>
+        <v>quintjo01</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="19"/>
@@ -6938,1022 +6951,1117 @@
       </c>
       <c r="C235" t="str">
         <f t="shared" si="20"/>
-        <v>clark</v>
+        <v>chi g</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="21"/>
+        <v>ch</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>230</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" si="19"/>
+        <v>g</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="20"/>
+        <v>grate</v>
+      </c>
+      <c r="D236" t="str">
+        <f t="shared" si="21"/>
+        <v>br</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="22"/>
+        <v>gratebr01</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" si="19"/>
+        <v>p</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="20"/>
+        <v>patin</v>
+      </c>
+      <c r="D237" t="str">
+        <f t="shared" si="21"/>
+        <v>lu</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="22"/>
+        <v>patinlu01</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>232</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="19"/>
+        <v>s</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="20"/>
+        <v>suare</v>
+      </c>
+      <c r="D238" t="str">
+        <f t="shared" si="21"/>
+        <v>jo</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="22"/>
+        <v>suarejo01</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>233</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" si="19"/>
+        <v>c</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="20"/>
+        <v>clark</v>
+      </c>
+      <c r="D239" t="str">
+        <f t="shared" si="21"/>
         <v>ta</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F235" t="str">
+      <c r="E239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F239" t="str">
         <f t="shared" si="22"/>
         <v>clarkta01</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
-      <c r="A236" t="s">
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
         <v>234</v>
       </c>
-      <c r="B236" t="str">
+      <c r="B240" t="str">
         <f t="shared" si="19"/>
         <v>n</v>
       </c>
-      <c r="C236" t="str">
+      <c r="C240" t="str">
         <f t="shared" si="20"/>
         <v>newso</v>
       </c>
-      <c r="D236" t="str">
+      <c r="D240" t="str">
         <f t="shared" si="21"/>
         <v>lj</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F236" t="str">
+      <c r="E240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F240" t="str">
         <f t="shared" si="22"/>
         <v>newsolj01</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
-      <c r="A237" t="s">
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
         <v>235</v>
       </c>
-      <c r="B237" t="str">
+      <c r="B241" t="str">
         <f t="shared" si="19"/>
         <v>m</v>
       </c>
-      <c r="C237" t="str">
+      <c r="C241" t="str">
         <f t="shared" si="20"/>
         <v>morej</v>
       </c>
-      <c r="D237" t="str">
+      <c r="D241" t="str">
         <f t="shared" si="21"/>
         <v>ad</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F237" t="str">
+      <c r="E241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F241" t="str">
         <f t="shared" si="22"/>
         <v>morejad01</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
-      <c r="A238" t="s">
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
         <v>236</v>
       </c>
-      <c r="B238" t="str">
+      <c r="B242" t="str">
         <f t="shared" si="19"/>
         <v>m</v>
       </c>
-      <c r="C238" t="str">
+      <c r="C242" t="str">
         <f t="shared" si="20"/>
         <v>miley</v>
       </c>
-      <c r="D238" t="str">
+      <c r="D242" t="str">
         <f t="shared" si="21"/>
         <v>wa</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F238" t="str">
+      <c r="E242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F242" t="str">
         <f t="shared" si="22"/>
         <v>mileywa01</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
-      <c r="A239" t="s">
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
         <v>237</v>
       </c>
-      <c r="B239" t="str">
+      <c r="B243" t="str">
         <f t="shared" si="19"/>
         <v>h</v>
       </c>
-      <c r="C239" t="str">
+      <c r="C243" t="str">
         <f t="shared" si="20"/>
         <v>harve</v>
       </c>
-      <c r="D239" t="str">
+      <c r="D243" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F239" t="str">
+      <c r="E243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F243" t="str">
         <f t="shared" si="22"/>
         <v>harvema01</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
-      <c r="A240" t="s">
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
         <v>238</v>
       </c>
-      <c r="B240" t="str">
+      <c r="B244" t="str">
         <f t="shared" si="19"/>
         <v>h</v>
       </c>
-      <c r="C240" t="str">
+      <c r="C244" t="str">
         <f t="shared" si="20"/>
         <v>hatch</v>
       </c>
-      <c r="D240" t="str">
+      <c r="D244" t="str">
         <f t="shared" si="21"/>
         <v>to</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F240" t="str">
+      <c r="E244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244" t="str">
         <f t="shared" si="22"/>
         <v>hatchto01</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
-      <c r="A241" t="s">
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
         <v>239</v>
       </c>
-      <c r="B241" t="str">
+      <c r="B245" t="str">
         <f t="shared" si="19"/>
         <v>f</v>
       </c>
-      <c r="C241" t="str">
+      <c r="C245" t="str">
         <f t="shared" si="20"/>
         <v>folty</v>
       </c>
-      <c r="D241" t="str">
+      <c r="D245" t="str">
         <f t="shared" si="21"/>
         <v>mi</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F241" t="str">
+      <c r="E245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F245" t="str">
         <f t="shared" si="22"/>
         <v>foltymi01</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
-      <c r="A242" t="s">
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
         <v>240</v>
       </c>
-      <c r="B242" t="str">
+      <c r="B246" t="str">
         <f t="shared" si="19"/>
         <v>p</v>
       </c>
-      <c r="C242" t="str">
+      <c r="C246" t="str">
         <f t="shared" si="20"/>
         <v>paxto</v>
       </c>
-      <c r="D242" t="str">
+      <c r="D246" t="str">
         <f t="shared" si="21"/>
         <v>ja</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F242" t="str">
+      <c r="E246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" t="str">
         <f t="shared" si="22"/>
         <v>paxtoja01</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
-      <c r="A243" t="s">
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
         <v>241</v>
       </c>
-      <c r="B243" t="str">
+      <c r="B247" t="str">
         <f t="shared" si="19"/>
         <v>t</v>
       </c>
-      <c r="C243" t="str">
+      <c r="C247" t="str">
         <f t="shared" si="20"/>
         <v>thorn</v>
       </c>
-      <c r="D243" t="str">
+      <c r="D247" t="str">
         <f t="shared" si="21"/>
         <v>tr</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F243" t="str">
+      <c r="E247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" t="str">
         <f t="shared" si="22"/>
         <v>thorntr01</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
-      <c r="A244" t="s">
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
         <v>242</v>
       </c>
-      <c r="B244" t="str">
+      <c r="B248" t="str">
         <f t="shared" si="19"/>
         <v>w</v>
       </c>
-      <c r="C244" t="str">
+      <c r="C248" t="str">
         <f t="shared" si="20"/>
         <v>wojci</v>
       </c>
-      <c r="D244" t="str">
+      <c r="D248" t="str">
         <f t="shared" si="21"/>
         <v>as</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F244" t="str">
+      <c r="E248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F248" t="str">
         <f t="shared" si="22"/>
         <v>wojcias01</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
-      <c r="A245" t="s">
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
         <v>243</v>
       </c>
-      <c r="B245" t="str">
+      <c r="B249" t="str">
         <f t="shared" si="19"/>
         <v>t</v>
       </c>
-      <c r="C245" t="str">
+      <c r="C249" t="str">
         <f t="shared" si="20"/>
         <v>trigg</v>
       </c>
-      <c r="D245" t="str">
+      <c r="D249" t="str">
         <f t="shared" si="21"/>
         <v>an</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F245" t="str">
+      <c r="E249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" t="str">
         <f t="shared" si="22"/>
         <v>triggan01</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="s">
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
         <v>244</v>
       </c>
-      <c r="B246" t="str">
+      <c r="B250" t="str">
         <f t="shared" si="19"/>
         <v>d</v>
       </c>
-      <c r="C246" t="str">
+      <c r="C250" t="str">
         <f t="shared" si="20"/>
         <v>de jo</v>
       </c>
-      <c r="D246" t="str">
+      <c r="D250" t="str">
         <f t="shared" si="21"/>
         <v>ch</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F246" t="s">
+      <c r="E250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
-      <c r="A247" t="s">
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
         <v>245</v>
       </c>
-      <c r="B247" t="str">
+      <c r="B251" t="str">
         <f t="shared" si="19"/>
         <v>h</v>
       </c>
-      <c r="C247" t="str">
+      <c r="C251" t="str">
         <f t="shared" si="20"/>
         <v>hart</v>
       </c>
-      <c r="D247" t="str">
+      <c r="D251" t="str">
         <f t="shared" si="21"/>
         <v>ky</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F247" t="str">
+      <c r="E251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F251" t="str">
         <f t="shared" si="22"/>
         <v>hartky01</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
-      <c r="A248" t="s">
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
         <v>246</v>
       </c>
-      <c r="B248" t="str">
+      <c r="B252" t="str">
         <f t="shared" si="19"/>
         <v>k</v>
       </c>
-      <c r="C248" t="str">
+      <c r="C252" t="str">
         <f t="shared" si="20"/>
         <v>king</v>
       </c>
-      <c r="D248" t="str">
+      <c r="D252" t="str">
         <f t="shared" si="21"/>
         <v>mi</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F248" t="str">
+      <c r="E252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F252" t="str">
         <f t="shared" si="22"/>
         <v>kingmi01</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
-      <c r="A249" t="s">
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
         <v>247</v>
       </c>
-      <c r="B249" t="str">
+      <c r="B253" t="str">
         <f t="shared" si="19"/>
         <v>l</v>
       </c>
-      <c r="C249" t="str">
+      <c r="C253" t="str">
         <f t="shared" si="20"/>
         <v>loais</v>
       </c>
-      <c r="D249" t="str">
+      <c r="D253" t="str">
         <f t="shared" si="21"/>
         <v>jo</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F249" t="str">
+      <c r="E253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" t="str">
         <f t="shared" si="22"/>
         <v>loaisjo01</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
-      <c r="A250" t="s">
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
         <v>248</v>
       </c>
-      <c r="B250" t="str">
+      <c r="B254" t="str">
         <f t="shared" si="19"/>
         <v>a</v>
       </c>
-      <c r="C250" t="str">
+      <c r="C254" t="str">
         <f t="shared" si="20"/>
         <v>andri</v>
       </c>
-      <c r="D250" t="str">
+      <c r="D254" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F250" t="str">
+      <c r="E254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F254" t="str">
         <f t="shared" si="22"/>
         <v>andrima01</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
-      <c r="A251" t="s">
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
         <v>249</v>
       </c>
-      <c r="B251" t="str">
+      <c r="B255" t="str">
         <f t="shared" si="19"/>
         <v>w</v>
       </c>
-      <c r="C251" t="str">
+      <c r="C255" t="str">
         <f t="shared" si="20"/>
         <v>wilso</v>
       </c>
-      <c r="D251" t="str">
+      <c r="D255" t="str">
         <f t="shared" si="21"/>
         <v>br</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F251" t="str">
+      <c r="F255" t="str">
         <f t="shared" si="22"/>
         <v>wilsobr02</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
-      <c r="A252" t="s">
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
         <v>250</v>
       </c>
-      <c r="B252" t="str">
+      <c r="B256" t="str">
         <f t="shared" si="19"/>
         <v>d</v>
       </c>
-      <c r="C252" t="str">
+      <c r="C256" t="str">
         <f t="shared" si="20"/>
         <v>david</v>
       </c>
-      <c r="D252" t="str">
+      <c r="D256" t="str">
         <f t="shared" si="21"/>
         <v>tu</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F252" t="str">
+      <c r="E256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F256" t="str">
         <f t="shared" si="22"/>
         <v>davidtu01</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
-      <c r="A253" t="s">
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
         <v>251</v>
       </c>
-      <c r="B253" t="str">
+      <c r="B257" t="str">
         <f t="shared" si="19"/>
         <v>m</v>
       </c>
-      <c r="C253" t="str">
+      <c r="C257" t="str">
         <f t="shared" si="20"/>
         <v>minte</v>
       </c>
-      <c r="D253" t="str">
+      <c r="D257" t="str">
         <f t="shared" si="21"/>
         <v>a.</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F253" t="s">
+      <c r="E257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F257" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
-      <c r="A254" t="s">
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
         <v>252</v>
       </c>
-      <c r="B254" t="str">
+      <c r="B258" t="str">
         <f t="shared" si="19"/>
         <v>o</v>
       </c>
-      <c r="C254" t="str">
+      <c r="C258" t="str">
         <f t="shared" si="20"/>
         <v>osich</v>
       </c>
-      <c r="D254" t="str">
+      <c r="D258" t="str">
         <f t="shared" si="21"/>
         <v>jo</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F254" t="str">
+      <c r="E258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" t="str">
         <f t="shared" si="22"/>
         <v>osichjo01</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
-      <c r="A255" t="s">
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
         <v>253</v>
       </c>
-      <c r="B255" t="str">
+      <c r="B259" t="str">
         <f t="shared" si="19"/>
         <v>h</v>
       </c>
-      <c r="C255" t="str">
+      <c r="C259" t="str">
         <f t="shared" si="20"/>
         <v>hall</v>
       </c>
-      <c r="D255" t="str">
+      <c r="D259" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F255" t="str">
+      <c r="F259" t="str">
         <f t="shared" si="22"/>
         <v>hallma02</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
-      <c r="A256" t="s">
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
         <v>254</v>
       </c>
-      <c r="B256" t="str">
+      <c r="B260" t="str">
         <f t="shared" si="19"/>
         <v>b</v>
       </c>
-      <c r="C256" t="str">
+      <c r="C260" t="str">
         <f t="shared" si="20"/>
         <v>brasi</v>
       </c>
-      <c r="D256" t="str">
+      <c r="D260" t="str">
         <f t="shared" si="21"/>
         <v>ry</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F256" t="str">
+      <c r="E260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F260" t="str">
         <f t="shared" si="22"/>
         <v>brasiry01</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
-      <c r="A257" t="s">
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
         <v>255</v>
       </c>
-      <c r="B257" t="str">
+      <c r="B261" t="str">
         <f t="shared" si="19"/>
         <v>l</v>
       </c>
-      <c r="C257" t="str">
+      <c r="C261" t="str">
         <f t="shared" si="20"/>
         <v>leyer</v>
-      </c>
-      <c r="D257" t="str">
-        <f t="shared" si="21"/>
-        <v>ro</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F257" t="str">
-        <f t="shared" si="22"/>
-        <v>leyerro01</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" t="s">
-        <v>256</v>
-      </c>
-      <c r="B258" t="str">
-        <f t="shared" si="19"/>
-        <v>f</v>
-      </c>
-      <c r="C258" t="str">
-        <f t="shared" si="20"/>
-        <v>foste</v>
-      </c>
-      <c r="D258" t="str">
-        <f t="shared" si="21"/>
-        <v>ma</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F258" t="str">
-        <f t="shared" si="22"/>
-        <v>fostema01</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" t="s">
-        <v>257</v>
-      </c>
-      <c r="B259" t="str">
-        <f t="shared" si="19"/>
-        <v>r</v>
-      </c>
-      <c r="C259" t="str">
-        <f t="shared" si="20"/>
-        <v>rea</v>
-      </c>
-      <c r="D259" t="str">
-        <f t="shared" si="21"/>
-        <v>co</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F259" t="str">
-        <f t="shared" si="22"/>
-        <v>reaco01</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" t="s">
-        <v>258</v>
-      </c>
-      <c r="B260" t="str">
-        <f t="shared" si="19"/>
-        <v>l</v>
-      </c>
-      <c r="C260" t="str">
-        <f t="shared" si="20"/>
-        <v>loren</v>
-      </c>
-      <c r="D260" t="str">
-        <f t="shared" si="21"/>
-        <v>mi</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F260" t="str">
-        <f t="shared" si="22"/>
-        <v>lorenmi01</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" t="s">
-        <v>259</v>
-      </c>
-      <c r="B261" t="str">
-        <f t="shared" si="19"/>
-        <v>g</v>
-      </c>
-      <c r="C261" t="str">
-        <f t="shared" si="20"/>
-        <v>garci</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="21"/>
         <v>ro</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="22"/>
-        <v>garciro03</v>
+        <v>leyerro01</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" ref="B262:B277" si="23">LOWER(LEFT(MID(A262,FIND(" ",A262)+1,256),1))</f>
-        <v>a</v>
+        <f t="shared" si="19"/>
+        <v>f</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" ref="C262:C277" si="24">LOWER(LEFT(MID(A262,FIND(" ",A262)+1,256),5))</f>
-        <v>alexa</v>
+        <f t="shared" si="20"/>
+        <v>foste</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" ref="D262:D277" si="25">LOWER(LEFT(A262,2))</f>
-        <v>ty</v>
+        <f t="shared" si="21"/>
+        <v>ma</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" ref="F262:F276" si="26">C262&amp;D262&amp;E262</f>
-        <v>alexaty01</v>
+        <f t="shared" si="22"/>
+        <v>fostema01</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
+        <v>257</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="19"/>
+        <v>r</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="20"/>
+        <v>rea</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="21"/>
+        <v>co</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" t="str">
+        <f t="shared" si="22"/>
+        <v>reaco01</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>258</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="19"/>
+        <v>l</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="20"/>
+        <v>loren</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="21"/>
+        <v>mi</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F264" t="str">
+        <f t="shared" si="22"/>
+        <v>lorenmi01</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>259</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="19"/>
+        <v>g</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="20"/>
+        <v>garci</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="21"/>
+        <v>ro</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F265" t="str">
+        <f t="shared" si="22"/>
+        <v>garciro03</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>260</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" ref="B266:B281" si="23">LOWER(LEFT(MID(A266,FIND(" ",A266)+1,256),1))</f>
+        <v>a</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" ref="C266:C281" si="24">LOWER(LEFT(MID(A266,FIND(" ",A266)+1,256),5))</f>
+        <v>alexa</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" ref="D266:D281" si="25">LOWER(LEFT(A266,2))</f>
+        <v>ty</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" ref="F266:F280" si="26">C266&amp;D266&amp;E266</f>
+        <v>alexaty01</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
         <v>261</v>
       </c>
-      <c r="B263" t="str">
+      <c r="B267" t="str">
         <f t="shared" si="23"/>
         <v>v</v>
       </c>
-      <c r="C263" t="str">
+      <c r="C267" t="str">
         <f t="shared" si="24"/>
         <v>verla</v>
       </c>
-      <c r="D263" t="str">
+      <c r="D267" t="str">
         <f t="shared" si="25"/>
         <v>ju</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F263" t="str">
+      <c r="E267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F267" t="str">
         <f t="shared" si="26"/>
         <v>verlaju01</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
-      <c r="A264" t="s">
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
         <v>262</v>
       </c>
-      <c r="B264" t="str">
+      <c r="B268" t="str">
         <f t="shared" si="23"/>
         <v>h</v>
       </c>
-      <c r="C264" t="str">
+      <c r="C268" t="str">
         <f t="shared" si="24"/>
         <v>herna</v>
       </c>
-      <c r="D264" t="str">
+      <c r="D268" t="str">
         <f t="shared" si="25"/>
         <v>ca</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F264" t="str">
+      <c r="F268" t="str">
         <f t="shared" si="26"/>
         <v>hernaca04</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
-      <c r="A265" t="s">
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
         <v>263</v>
       </c>
-      <c r="B265" t="str">
+      <c r="B269" t="str">
         <f t="shared" si="23"/>
         <v>k</v>
       </c>
-      <c r="C265" t="str">
+      <c r="C269" t="str">
         <f t="shared" si="24"/>
         <v>kelly</v>
       </c>
-      <c r="D265" t="str">
+      <c r="D269" t="str">
         <f t="shared" si="25"/>
         <v>jo</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F265" t="str">
+      <c r="F269" t="str">
         <f t="shared" si="26"/>
         <v>kellyjo05</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
-      <c r="A266" t="s">
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
         <v>264</v>
       </c>
-      <c r="B266" t="str">
+      <c r="B270" t="str">
         <f t="shared" si="23"/>
         <v>g</v>
       </c>
-      <c r="C266" t="str">
+      <c r="C270" t="str">
         <f t="shared" si="24"/>
         <v>gonza</v>
       </c>
-      <c r="D266" t="str">
+      <c r="D270" t="str">
         <f t="shared" si="25"/>
         <v>vi</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F266" t="str">
+      <c r="F270" t="str">
         <f t="shared" si="26"/>
         <v>gonzavi02</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
-      <c r="A267" t="s">
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
         <v>265</v>
       </c>
-      <c r="B267" t="str">
+      <c r="B271" t="str">
         <f t="shared" si="23"/>
         <v>l</v>
       </c>
-      <c r="C267" t="str">
+      <c r="C271" t="str">
         <f t="shared" si="24"/>
         <v>lauer</v>
       </c>
-      <c r="D267" t="str">
+      <c r="D271" t="str">
         <f t="shared" si="25"/>
         <v>er</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F267" t="str">
+      <c r="E271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F271" t="str">
         <f t="shared" si="26"/>
         <v>lauerer01</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
-      <c r="A268" t="s">
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
         <v>266</v>
       </c>
-      <c r="B268" t="str">
+      <c r="B272" t="str">
         <f t="shared" si="23"/>
         <v>b</v>
       </c>
-      <c r="C268" t="str">
+      <c r="C272" t="str">
         <f t="shared" si="24"/>
         <v>baile</v>
       </c>
-      <c r="D268" t="str">
+      <c r="D272" t="str">
         <f t="shared" si="25"/>
         <v>ho</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F268" t="str">
+      <c r="F272" t="str">
         <f t="shared" si="26"/>
         <v>baileho02</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
-      <c r="A269" t="s">
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
         <v>267</v>
       </c>
-      <c r="B269" t="str">
+      <c r="B273" t="str">
         <f t="shared" si="23"/>
         <v>t</v>
       </c>
-      <c r="C269" t="str">
+      <c r="C273" t="str">
         <f t="shared" si="24"/>
         <v>thorp</v>
       </c>
-      <c r="D269" t="str">
+      <c r="D273" t="str">
         <f t="shared" si="25"/>
         <v>le</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F269" t="str">
+      <c r="E273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F273" t="str">
         <f t="shared" si="26"/>
         <v>thorple01</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
-      <c r="A270" t="s">
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
         <v>268</v>
       </c>
-      <c r="B270" t="str">
+      <c r="B274" t="str">
         <f t="shared" si="23"/>
         <v>s</v>
       </c>
-      <c r="C270" t="str">
+      <c r="C274" t="str">
         <f t="shared" si="24"/>
         <v>schmi</v>
       </c>
-      <c r="D270" t="str">
+      <c r="D274" t="str">
         <f t="shared" si="25"/>
         <v>cl</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F270" t="str">
+      <c r="E274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F274" t="str">
         <f t="shared" si="26"/>
         <v>schmicl01</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
-      <c r="A271" t="s">
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
         <v>269</v>
       </c>
-      <c r="B271" t="str">
+      <c r="B275" t="str">
         <f t="shared" si="23"/>
         <v>m</v>
       </c>
-      <c r="C271" t="str">
+      <c r="C275" t="str">
         <f t="shared" si="24"/>
         <v>mengd</v>
       </c>
-      <c r="D271" t="str">
+      <c r="D275" t="str">
         <f t="shared" si="25"/>
         <v>da</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F271" t="str">
+      <c r="E275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F275" t="str">
         <f t="shared" si="26"/>
         <v>mengdda01</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
-      <c r="A272" t="s">
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
         <v>270</v>
       </c>
-      <c r="B272" t="str">
+      <c r="B276" t="str">
         <f t="shared" si="23"/>
         <v>m</v>
       </c>
-      <c r="C272" t="str">
+      <c r="C276" t="str">
         <f t="shared" si="24"/>
         <v>medin</v>
       </c>
-      <c r="D272" t="str">
+      <c r="D276" t="str">
         <f t="shared" si="25"/>
         <v>ad</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F272" t="str">
+      <c r="E276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F276" t="str">
         <f t="shared" si="26"/>
         <v>medinad01</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
-      <c r="A273" t="s">
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
         <v>271</v>
       </c>
-      <c r="B273" t="str">
+      <c r="B277" t="str">
         <f t="shared" si="23"/>
         <v>s</v>
       </c>
-      <c r="C273" t="str">
+      <c r="C277" t="str">
         <f t="shared" si="24"/>
         <v>stamm</v>
       </c>
-      <c r="D273" t="str">
+      <c r="D277" t="str">
         <f t="shared" si="25"/>
         <v>cr</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F273" t="str">
+      <c r="E277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F277" t="str">
         <f t="shared" si="26"/>
         <v>stammcr01</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
-      <c r="A274" t="s">
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
         <v>272</v>
       </c>
-      <c r="B274" t="str">
+      <c r="B278" t="str">
         <f t="shared" si="23"/>
         <v>b</v>
       </c>
-      <c r="C274" t="str">
+      <c r="C278" t="str">
         <f t="shared" si="24"/>
         <v>barag</v>
       </c>
-      <c r="D274" t="str">
+      <c r="D278" t="str">
         <f t="shared" si="25"/>
         <v>ca</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F274" t="str">
+      <c r="E278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" t="str">
         <f t="shared" si="26"/>
         <v>baragca01</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
-      <c r="A275" t="s">
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
         <v>273</v>
       </c>
-      <c r="B275" t="str">
+      <c r="B279" t="str">
         <f t="shared" si="23"/>
         <v>s</v>
       </c>
-      <c r="C275" t="str">
+      <c r="C279" t="str">
         <f t="shared" si="24"/>
         <v>slege</v>
       </c>
-      <c r="D275" t="str">
+      <c r="D279" t="str">
         <f t="shared" si="25"/>
         <v>aa</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F275" t="str">
+      <c r="E279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" t="str">
         <f t="shared" si="26"/>
         <v>slegeaa01</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
-      <c r="A276" t="s">
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
         <v>274</v>
       </c>
-      <c r="B276" t="str">
+      <c r="B280" t="str">
         <f t="shared" si="23"/>
         <v>k</v>
       </c>
-      <c r="C276" t="str">
+      <c r="C280" t="str">
         <f t="shared" si="24"/>
         <v>klube</v>
       </c>
-      <c r="D276" t="str">
+      <c r="D280" t="str">
         <f t="shared" si="25"/>
         <v>co</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F276" t="str">
+      <c r="E280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F280" t="str">
         <f t="shared" si="26"/>
         <v>klubeco01</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
-      <c r="A277" t="s">
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
         <v>275</v>
       </c>
-      <c r="B277" t="str">
+      <c r="B281" t="str">
         <f t="shared" si="23"/>
         <v>z</v>
       </c>
-      <c r="C277" t="str">
+      <c r="C281" t="str">
         <f t="shared" si="24"/>
         <v>zeuch</v>
       </c>
-      <c r="D277" t="str">
+      <c r="D281" t="str">
         <f t="shared" si="25"/>
         <v>t.</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F277" t="s">
+      <c r="E281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F281" t="s">
         <v>290</v>
       </c>
     </row>
